--- a/statistic.xlsx
+++ b/statistic.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rotate" sheetId="1" r:id="rId1"/>
+    <sheet name="Resize" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
   <si>
     <t>Alejandro_Toledo</t>
   </si>
@@ -207,6 +208,21 @@
   <si>
     <t>n</t>
   </si>
+  <si>
+    <t>x0.5</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x0.25</t>
+  </si>
 </sst>
 </file>
 
@@ -229,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +294,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -354,21 +376,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -379,13 +421,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,27 +429,67 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -722,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74:P75"/>
+    <sheetView topLeftCell="K56" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P74" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,122 +831,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="25">
         <v>-50</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="5">
+      <c r="D1" s="25"/>
+      <c r="E1" s="24">
         <v>-40</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="12">
+      <c r="F1" s="24"/>
+      <c r="G1" s="23">
         <v>-30</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="9">
+      <c r="H1" s="23"/>
+      <c r="I1" s="22">
         <v>-20</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="18">
+      <c r="J1" s="22"/>
+      <c r="K1" s="21">
         <v>-10</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="21">
+      <c r="L1" s="21"/>
+      <c r="M1" s="19">
         <v>0</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="18">
+      <c r="N1" s="20"/>
+      <c r="O1" s="21">
         <v>10</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="9">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22">
         <v>20</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="12">
+      <c r="R1" s="22"/>
+      <c r="S1" s="23">
         <v>30</v>
       </c>
-      <c r="T1" s="12"/>
-      <c r="U1" s="5">
+      <c r="T1" s="23"/>
+      <c r="U1" s="24">
         <v>40</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="15">
+      <c r="V1" s="24"/>
+      <c r="W1" s="25">
         <v>50</v>
       </c>
-      <c r="X1" s="15"/>
+      <c r="X1" s="25"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -881,10 +957,10 @@
       <c r="B3" s="2">
         <v>18</v>
       </c>
-      <c r="C3" s="17">
-        <v>5</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="C3" s="12">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12">
         <f>C3/B3</f>
         <v>0.27777777777777779</v>
       </c>
@@ -895,52 +971,52 @@
         <f>E3/B3</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="10">
         <v>17</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="10">
         <f>G3/B3</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="8">
         <v>17</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="8">
         <f>I3/B3</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="14">
         <v>18</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="14">
         <f>K3/B3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <v>18</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="6">
         <f>M3/B3</f>
         <v>1</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="14">
         <v>18</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3" s="14">
         <f>O3/B3</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="8">
         <v>17</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="8">
         <f>Q3/B3</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="10">
         <v>17</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="10">
         <f>S3/B3</f>
         <v>0.94444444444444442</v>
       </c>
@@ -951,10 +1027,10 @@
         <f>U3/B3</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="12">
         <v>9</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3" s="12">
         <f>W3/B3</f>
         <v>0.5</v>
       </c>
@@ -966,81 +1042,81 @@
       <c r="B4" s="2">
         <v>20</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="17">
-        <f t="shared" ref="D4:D63" si="0">C4/B4</f>
+      <c r="D4" s="12">
+        <f t="shared" ref="D4:D62" si="0">C4/B4</f>
         <v>0.1</v>
       </c>
       <c r="E4" s="3">
         <v>14</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F63" si="1">E4/B4</f>
+        <f t="shared" ref="F4:F62" si="1">E4/B4</f>
         <v>0.7</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="10">
         <v>20</v>
       </c>
-      <c r="H4" s="14">
-        <f t="shared" ref="H4:H63" si="2">G4/B4</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="H4" s="10">
+        <f t="shared" ref="H4:H62" si="2">G4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
         <v>20</v>
       </c>
-      <c r="J4" s="11">
-        <f t="shared" ref="J4:J63" si="3">I4/B4</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="20">
+      <c r="J4" s="8">
+        <f t="shared" ref="J4:J62" si="3">I4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="14">
         <v>20</v>
       </c>
-      <c r="L4" s="20">
-        <f t="shared" ref="L4:L63" si="4">K4/B4</f>
-        <v>1</v>
-      </c>
-      <c r="M4" s="8">
+      <c r="L4" s="14">
+        <f t="shared" ref="L4:L62" si="4">K4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
         <v>20</v>
       </c>
-      <c r="N4" s="8">
-        <f t="shared" ref="N4:N63" si="5">M4/B4</f>
-        <v>1</v>
-      </c>
-      <c r="O4" s="20">
+      <c r="N4" s="6">
+        <f t="shared" ref="N4:N62" si="5">M4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="14">
         <v>20</v>
       </c>
-      <c r="P4" s="20">
-        <f t="shared" ref="P4:P63" si="6">O4/B4</f>
-        <v>1</v>
-      </c>
-      <c r="Q4" s="11">
+      <c r="P4" s="14">
+        <f t="shared" ref="P4:P62" si="6">O4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="8">
         <v>20</v>
       </c>
-      <c r="R4" s="11">
-        <f t="shared" ref="R4:R63" si="7">Q4/B4</f>
-        <v>1</v>
-      </c>
-      <c r="S4" s="14">
+      <c r="R4" s="8">
+        <f t="shared" ref="R4:R62" si="7">Q4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="10">
         <v>20</v>
       </c>
-      <c r="T4" s="14">
-        <f t="shared" ref="T4:T63" si="8">S4/B4</f>
+      <c r="T4" s="10">
+        <f t="shared" ref="T4:T62" si="8">S4/B4</f>
         <v>1</v>
       </c>
       <c r="U4" s="3">
         <v>19</v>
       </c>
       <c r="V4" s="3">
-        <f t="shared" ref="V4:V63" si="9">U4/B4</f>
+        <f t="shared" ref="V4:V62" si="9">U4/B4</f>
         <v>0.95</v>
       </c>
-      <c r="W4" s="17">
+      <c r="W4" s="12">
         <v>8</v>
       </c>
-      <c r="X4" s="17">
-        <f t="shared" ref="X4:X63" si="10">W4/B4</f>
+      <c r="X4" s="12">
+        <f t="shared" ref="X4:X62" si="10">W4/B4</f>
         <v>0.4</v>
       </c>
     </row>
@@ -1051,10 +1127,10 @@
       <c r="B5" s="2">
         <v>21</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="12">
         <v>2</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>9.5238095238095233E-2</v>
       </c>
@@ -1065,52 +1141,52 @@
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <v>20</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <f t="shared" si="2"/>
         <v>0.95238095238095233</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="8">
         <v>21</v>
       </c>
-      <c r="J5" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="20">
+      <c r="J5" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="14">
         <v>21</v>
       </c>
-      <c r="L5" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M5" s="8">
+      <c r="L5" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
         <v>21</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="14">
         <v>21</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="8">
         <v>21</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="10">
         <v>21</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -1121,10 +1197,10 @@
         <f t="shared" si="9"/>
         <v>0.90476190476190477</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="12">
         <v>4</v>
       </c>
-      <c r="X5" s="17">
+      <c r="X5" s="12">
         <f t="shared" si="10"/>
         <v>0.19047619047619047</v>
       </c>
@@ -1136,10 +1212,10 @@
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="17">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -1150,52 +1226,52 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <v>4</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="10">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="I6" s="11">
-        <v>5</v>
-      </c>
-      <c r="J6" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="20">
-        <v>5</v>
-      </c>
-      <c r="L6" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="8">
-        <v>5</v>
-      </c>
-      <c r="N6" s="8">
+      <c r="I6" s="8">
+        <v>5</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="14">
+        <v>5</v>
+      </c>
+      <c r="L6" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O6" s="20">
-        <v>5</v>
-      </c>
-      <c r="P6" s="20">
+      <c r="O6" s="14">
+        <v>5</v>
+      </c>
+      <c r="P6" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q6" s="11">
-        <v>5</v>
-      </c>
-      <c r="R6" s="11">
+      <c r="Q6" s="8">
+        <v>5</v>
+      </c>
+      <c r="R6" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S6" s="14">
-        <v>5</v>
-      </c>
-      <c r="T6" s="14">
+      <c r="S6" s="10">
+        <v>5</v>
+      </c>
+      <c r="T6" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -1206,10 +1282,10 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="W6" s="17">
-        <v>1</v>
-      </c>
-      <c r="X6" s="17">
+      <c r="W6" s="12">
+        <v>1</v>
+      </c>
+      <c r="X6" s="12">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
@@ -1221,10 +1297,10 @@
       <c r="B7" s="2">
         <v>62</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="12">
         <v>24</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>0.38709677419354838</v>
       </c>
@@ -1235,52 +1311,52 @@
         <f t="shared" si="1"/>
         <v>0.82258064516129037</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <v>58</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <f t="shared" si="2"/>
         <v>0.93548387096774188</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="8">
         <v>61</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="8">
         <f t="shared" si="3"/>
         <v>0.9838709677419355</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="14">
         <v>62</v>
       </c>
-      <c r="L7" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M7" s="8">
+      <c r="L7" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
         <v>62</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="14">
         <v>61</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="14">
         <f t="shared" si="6"/>
         <v>0.9838709677419355</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="8">
         <v>59</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="8">
         <f t="shared" si="7"/>
         <v>0.95161290322580649</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="10">
         <v>58</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="10">
         <f t="shared" si="8"/>
         <v>0.93548387096774188</v>
       </c>
@@ -1291,10 +1367,10 @@
         <f t="shared" si="9"/>
         <v>0.66129032258064513</v>
       </c>
-      <c r="W7" s="17">
+      <c r="W7" s="12">
         <v>15</v>
       </c>
-      <c r="X7" s="17">
+      <c r="X7" s="12">
         <f t="shared" si="10"/>
         <v>0.24193548387096775</v>
       </c>
@@ -1306,10 +1382,10 @@
       <c r="B8" s="2">
         <v>27</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="12">
         <v>9</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
@@ -1320,52 +1396,52 @@
         <f t="shared" si="1"/>
         <v>0.70370370370370372</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="10">
         <v>24</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="10">
         <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="8">
         <v>26</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="8">
         <f t="shared" si="3"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="14">
         <v>26</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="14">
         <f t="shared" si="4"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="6">
         <v>26</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="6">
         <f t="shared" si="5"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="14">
         <v>26</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="14">
         <f t="shared" si="6"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="8">
         <v>26</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="8">
         <f t="shared" si="7"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="10">
         <v>26</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="10">
         <f t="shared" si="8"/>
         <v>0.96296296296296291</v>
       </c>
@@ -1376,10 +1452,10 @@
         <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="W8" s="17">
+      <c r="W8" s="12">
         <v>7</v>
       </c>
-      <c r="X8" s="17">
+      <c r="X8" s="12">
         <f t="shared" si="10"/>
         <v>0.25925925925925924</v>
       </c>
@@ -1391,10 +1467,10 @@
       <c r="B9" s="2">
         <v>14</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="12">
         <v>4</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
@@ -1405,52 +1481,52 @@
         <f t="shared" si="1"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10">
         <v>13</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <f t="shared" si="2"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="8">
         <v>14</v>
       </c>
-      <c r="J9" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="20">
+      <c r="J9" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="14">
         <v>14</v>
       </c>
-      <c r="L9" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="8">
+      <c r="L9" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
         <v>14</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="14">
         <v>13</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="14">
         <f t="shared" si="6"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="8">
         <v>14</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="10">
         <v>14</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -1461,10 +1537,10 @@
         <f t="shared" si="9"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="12">
         <v>4</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="12">
         <f t="shared" si="10"/>
         <v>0.2857142857142857</v>
       </c>
@@ -1476,10 +1552,10 @@
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="17">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
@@ -1490,52 +1566,52 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <v>6</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="8">
         <v>6</v>
       </c>
-      <c r="J10" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="20">
+      <c r="J10" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="14">
         <v>6</v>
       </c>
-      <c r="L10" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M10" s="8">
+      <c r="L10" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
         <v>6</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="14">
         <v>6</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="8">
         <v>6</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="10">
         <v>6</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -1546,10 +1622,10 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="W10" s="17">
+      <c r="W10" s="12">
         <v>4</v>
       </c>
-      <c r="X10" s="17">
+      <c r="X10" s="12">
         <f t="shared" si="10"/>
         <v>0.66666666666666663</v>
       </c>
@@ -1561,10 +1637,10 @@
       <c r="B11" s="2">
         <v>221</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="12">
         <v>58</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>0.26244343891402716</v>
       </c>
@@ -1575,52 +1651,52 @@
         <f t="shared" si="1"/>
         <v>0.75565610859728505</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10">
         <v>212</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="10">
         <f t="shared" si="2"/>
         <v>0.95927601809954754</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="8">
         <v>219</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="8">
         <f t="shared" si="3"/>
         <v>0.99095022624434392</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="14">
         <v>219</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="14">
         <f t="shared" si="4"/>
         <v>0.99095022624434392</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="6">
         <v>220</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="6">
         <f t="shared" si="5"/>
         <v>0.99547511312217196</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="14">
         <v>219</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="14">
         <f t="shared" si="6"/>
         <v>0.99095022624434392</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="8">
         <v>217</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="8">
         <f t="shared" si="7"/>
         <v>0.98190045248868774</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="10">
         <v>213</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="10">
         <f t="shared" si="8"/>
         <v>0.96380090497737558</v>
       </c>
@@ -1631,10 +1707,10 @@
         <f t="shared" si="9"/>
         <v>0.85067873303167418</v>
       </c>
-      <c r="W11" s="17">
+      <c r="W11" s="12">
         <v>86</v>
       </c>
-      <c r="X11" s="17">
+      <c r="X11" s="12">
         <f t="shared" si="10"/>
         <v>0.38914027149321267</v>
       </c>
@@ -1646,10 +1722,10 @@
       <c r="B12" s="2">
         <v>16</v>
       </c>
-      <c r="C12" s="17">
-        <v>5</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="C12" s="12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
         <v>0.3125</v>
       </c>
@@ -1660,52 +1736,52 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="10">
         <v>14</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="10">
         <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="8">
         <v>16</v>
       </c>
-      <c r="J12" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="20">
+      <c r="J12" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="14">
         <v>15</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="14">
         <f t="shared" si="4"/>
         <v>0.9375</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="6">
         <v>16</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="14">
         <v>16</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="8">
         <v>16</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12" s="10">
         <v>16</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -1716,10 +1792,10 @@
         <f t="shared" si="9"/>
         <v>0.875</v>
       </c>
-      <c r="W12" s="17">
-        <v>5</v>
-      </c>
-      <c r="X12" s="17">
+      <c r="W12" s="12">
+        <v>5</v>
+      </c>
+      <c r="X12" s="12">
         <f t="shared" si="10"/>
         <v>0.3125</v>
       </c>
@@ -1731,10 +1807,10 @@
       <c r="B13" s="2">
         <v>106</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="12">
         <v>33</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="12">
         <f t="shared" si="0"/>
         <v>0.31132075471698112</v>
       </c>
@@ -1745,52 +1821,52 @@
         <f t="shared" si="1"/>
         <v>0.72641509433962259</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="10">
         <v>101</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="10">
         <f t="shared" si="2"/>
         <v>0.95283018867924529</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="8">
         <v>104</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="8">
         <f t="shared" si="3"/>
         <v>0.98113207547169812</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="14">
         <v>105</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="14">
         <f t="shared" si="4"/>
         <v>0.99056603773584906</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="6">
         <v>105</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="6">
         <f t="shared" si="5"/>
         <v>0.99056603773584906</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="14">
         <v>104</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="14">
         <f t="shared" si="6"/>
         <v>0.98113207547169812</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="8">
         <v>104</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="8">
         <f t="shared" si="7"/>
         <v>0.98113207547169812</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="10">
         <v>102</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="10">
         <f t="shared" si="8"/>
         <v>0.96226415094339623</v>
       </c>
@@ -1801,10 +1877,10 @@
         <f t="shared" si="9"/>
         <v>0.90566037735849059</v>
       </c>
-      <c r="W13" s="17">
+      <c r="W13" s="12">
         <v>53</v>
       </c>
-      <c r="X13" s="17">
+      <c r="X13" s="12">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
@@ -1816,10 +1892,10 @@
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="17">
-        <v>1</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
@@ -1830,52 +1906,52 @@
         <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="10">
         <v>6</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="10">
         <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="8">
         <v>6</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="8">
         <f t="shared" si="3"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="14">
         <v>7</v>
       </c>
-      <c r="L14" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="8">
+      <c r="L14" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
         <v>7</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="14">
         <v>6</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="14">
         <f t="shared" si="6"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="8">
         <v>6</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="8">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S14" s="10">
         <v>7</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -1886,10 +1962,10 @@
         <f t="shared" si="9"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="W14" s="17">
+      <c r="W14" s="12">
         <v>3</v>
       </c>
-      <c r="X14" s="17">
+      <c r="X14" s="12">
         <f t="shared" si="10"/>
         <v>0.42857142857142855</v>
       </c>
@@ -1901,10 +1977,10 @@
       <c r="B15" s="2">
         <v>515</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="12">
         <v>135</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>0.26213592233009708</v>
       </c>
@@ -1915,52 +1991,52 @@
         <f t="shared" si="1"/>
         <v>0.72815533980582525</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="10">
         <v>496</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="10">
         <f t="shared" si="2"/>
         <v>0.96310679611650485</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="8">
         <v>505</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="8">
         <f t="shared" si="3"/>
         <v>0.98058252427184467</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="14">
         <v>509</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="14">
         <f t="shared" si="4"/>
         <v>0.98834951456310682</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="6">
         <v>514</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="6">
         <f t="shared" si="5"/>
         <v>0.99805825242718449</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="14">
         <v>513</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="14">
         <f t="shared" si="6"/>
         <v>0.99611650485436898</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="8">
         <v>502</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="8">
         <f t="shared" si="7"/>
         <v>0.97475728155339803</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="10">
         <v>498</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="10">
         <f t="shared" si="8"/>
         <v>0.96699029126213587</v>
       </c>
@@ -1971,10 +2047,10 @@
         <f t="shared" si="9"/>
         <v>0.83495145631067957</v>
       </c>
-      <c r="W15" s="17">
+      <c r="W15" s="12">
         <v>195</v>
       </c>
-      <c r="X15" s="17">
+      <c r="X15" s="12">
         <f t="shared" si="10"/>
         <v>0.37864077669902912</v>
       </c>
@@ -1986,10 +2062,10 @@
       <c r="B16" s="2">
         <v>94</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="12">
         <v>26</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>0.27659574468085107</v>
       </c>
@@ -2000,52 +2076,52 @@
         <f t="shared" si="1"/>
         <v>0.81914893617021278</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="10">
         <v>91</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="10">
         <f t="shared" si="2"/>
         <v>0.96808510638297873</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="8">
         <v>91</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="8">
         <f t="shared" si="3"/>
         <v>0.96808510638297873</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="14">
         <v>92</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="14">
         <f t="shared" si="4"/>
         <v>0.97872340425531912</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="6">
         <v>92</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="6">
         <f t="shared" si="5"/>
         <v>0.97872340425531912</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="14">
         <v>89</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16" s="14">
         <f t="shared" si="6"/>
         <v>0.94680851063829785</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="8">
         <v>91</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="8">
         <f t="shared" si="7"/>
         <v>0.96808510638297873</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="10">
         <v>91</v>
       </c>
-      <c r="T16" s="14">
+      <c r="T16" s="10">
         <f t="shared" si="8"/>
         <v>0.96808510638297873</v>
       </c>
@@ -2056,10 +2132,10 @@
         <f t="shared" si="9"/>
         <v>0.76595744680851063</v>
       </c>
-      <c r="W16" s="17">
+      <c r="W16" s="12">
         <v>35</v>
       </c>
-      <c r="X16" s="17">
+      <c r="X16" s="12">
         <f t="shared" si="10"/>
         <v>0.37234042553191488</v>
       </c>
@@ -2071,10 +2147,10 @@
       <c r="B17" s="2">
         <v>29</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="12">
         <v>6</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="12">
         <f t="shared" si="0"/>
         <v>0.20689655172413793</v>
       </c>
@@ -2085,52 +2161,52 @@
         <f t="shared" si="1"/>
         <v>0.75862068965517238</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="10">
         <v>29</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="8">
         <v>29</v>
       </c>
-      <c r="J17" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K17" s="20">
+      <c r="J17" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="14">
         <v>29</v>
       </c>
-      <c r="L17" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M17" s="8">
+      <c r="L17" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
         <v>29</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="14">
         <v>29</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="8">
         <v>29</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17" s="10">
         <v>29</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -2141,10 +2217,10 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="W17" s="17">
+      <c r="W17" s="12">
         <v>22</v>
       </c>
-      <c r="X17" s="17">
+      <c r="X17" s="12">
         <f t="shared" si="10"/>
         <v>0.75862068965517238</v>
       </c>
@@ -2156,10 +2232,10 @@
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="12">
         <v>2</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
@@ -2170,52 +2246,52 @@
         <f t="shared" si="1"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="10">
         <v>9</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="10">
         <f t="shared" si="2"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="8">
         <v>11</v>
       </c>
-      <c r="J18" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K18" s="20">
+      <c r="J18" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="14">
         <v>11</v>
       </c>
-      <c r="L18" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M18" s="8">
+      <c r="L18" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="6">
         <v>11</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="14">
         <v>11</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="8">
         <v>10</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="8">
         <f t="shared" si="7"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="S18" s="14">
+      <c r="S18" s="10">
         <v>11</v>
       </c>
-      <c r="T18" s="14">
+      <c r="T18" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -2226,10 +2302,10 @@
         <f t="shared" si="9"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="W18" s="17">
+      <c r="W18" s="12">
         <v>3</v>
       </c>
-      <c r="X18" s="17">
+      <c r="X18" s="12">
         <f t="shared" si="10"/>
         <v>0.27272727272727271</v>
       </c>
@@ -2241,10 +2317,10 @@
       <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="17">
-        <v>5</v>
-      </c>
-      <c r="D19" s="17">
+      <c r="C19" s="12">
+        <v>5</v>
+      </c>
+      <c r="D19" s="12">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
@@ -2255,52 +2331,52 @@
         <f t="shared" si="1"/>
         <v>0.73333333333333328</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="10">
         <v>13</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="10">
         <f t="shared" si="2"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="8">
         <v>14</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="8">
         <f t="shared" si="3"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="14">
         <v>15</v>
       </c>
-      <c r="L19" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M19" s="8">
+      <c r="L19" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="6">
         <v>15</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="14">
         <v>15</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="8">
         <v>15</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S19" s="10">
         <v>15</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -2311,10 +2387,10 @@
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
-      <c r="W19" s="17">
+      <c r="W19" s="12">
         <v>3</v>
       </c>
-      <c r="X19" s="17">
+      <c r="X19" s="12">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
@@ -2326,10 +2402,10 @@
       <c r="B20" s="2">
         <v>7</v>
       </c>
-      <c r="C20" s="17">
-        <v>1</v>
-      </c>
-      <c r="D20" s="17">
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
@@ -2340,52 +2416,52 @@
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="10">
         <v>6</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="10">
         <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="8">
         <v>6</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="8">
         <f t="shared" si="3"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="14">
         <v>6</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="14">
         <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="6">
         <v>7</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="14">
         <v>7</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="8">
         <v>6</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="8">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S20" s="10">
         <v>6</v>
       </c>
-      <c r="T20" s="14">
+      <c r="T20" s="10">
         <f t="shared" si="8"/>
         <v>0.8571428571428571</v>
       </c>
@@ -2396,10 +2472,10 @@
         <f t="shared" si="9"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="W20" s="17">
+      <c r="W20" s="12">
         <v>2</v>
       </c>
-      <c r="X20" s="17">
+      <c r="X20" s="12">
         <f t="shared" si="10"/>
         <v>0.2857142857142857</v>
       </c>
@@ -2411,10 +2487,10 @@
       <c r="B21" s="2">
         <v>24</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="12">
         <v>2</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="12">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2425,52 +2501,52 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="10">
         <v>24</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="8">
         <v>24</v>
       </c>
-      <c r="J21" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="20">
+      <c r="J21" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="14">
         <v>24</v>
       </c>
-      <c r="L21" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M21" s="8">
+      <c r="L21" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="6">
         <v>24</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="14">
         <v>24</v>
       </c>
-      <c r="P21" s="20">
+      <c r="P21" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="8">
         <v>24</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S21" s="14">
+      <c r="S21" s="10">
         <v>24</v>
       </c>
-      <c r="T21" s="14">
+      <c r="T21" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -2481,10 +2557,10 @@
         <f t="shared" si="9"/>
         <v>0.875</v>
       </c>
-      <c r="W21" s="17">
+      <c r="W21" s="12">
         <v>8</v>
       </c>
-      <c r="X21" s="17">
+      <c r="X21" s="12">
         <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
@@ -2496,10 +2572,10 @@
       <c r="B22" s="2">
         <v>56</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="12">
         <v>19</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="12">
         <f t="shared" si="0"/>
         <v>0.3392857142857143</v>
       </c>
@@ -2510,52 +2586,52 @@
         <f t="shared" si="1"/>
         <v>0.8035714285714286</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="10">
         <v>53</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="10">
         <f t="shared" si="2"/>
         <v>0.9464285714285714</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="8">
         <v>54</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="8">
         <f t="shared" si="3"/>
         <v>0.9642857142857143</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="14">
         <v>54</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="14">
         <f t="shared" si="4"/>
         <v>0.9642857142857143</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="6">
         <v>56</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="14">
         <v>56</v>
       </c>
-      <c r="P22" s="20">
+      <c r="P22" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="8">
         <v>56</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S22" s="10">
         <v>53</v>
       </c>
-      <c r="T22" s="14">
+      <c r="T22" s="10">
         <f t="shared" si="8"/>
         <v>0.9464285714285714</v>
       </c>
@@ -2566,10 +2642,10 @@
         <f t="shared" si="9"/>
         <v>0.8214285714285714</v>
       </c>
-      <c r="W22" s="17">
+      <c r="W22" s="12">
         <v>21</v>
       </c>
-      <c r="X22" s="17">
+      <c r="X22" s="12">
         <f t="shared" si="10"/>
         <v>0.375</v>
       </c>
@@ -2581,10 +2657,10 @@
       <c r="B23" s="2">
         <v>5</v>
       </c>
-      <c r="C23" s="17">
-        <v>1</v>
-      </c>
-      <c r="D23" s="17">
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -2595,52 +2671,52 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G23" s="14">
-        <v>5</v>
-      </c>
-      <c r="H23" s="14">
+      <c r="G23" s="10">
+        <v>5</v>
+      </c>
+      <c r="H23" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I23" s="11">
-        <v>5</v>
-      </c>
-      <c r="J23" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K23" s="20">
-        <v>5</v>
-      </c>
-      <c r="L23" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M23" s="8">
-        <v>5</v>
-      </c>
-      <c r="N23" s="8">
+      <c r="I23" s="8">
+        <v>5</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="14">
+        <v>5</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M23" s="6">
+        <v>5</v>
+      </c>
+      <c r="N23" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O23" s="20">
-        <v>5</v>
-      </c>
-      <c r="P23" s="20">
+      <c r="O23" s="14">
+        <v>5</v>
+      </c>
+      <c r="P23" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q23" s="11">
-        <v>5</v>
-      </c>
-      <c r="R23" s="11">
+      <c r="Q23" s="8">
+        <v>5</v>
+      </c>
+      <c r="R23" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S23" s="14">
-        <v>5</v>
-      </c>
-      <c r="T23" s="14">
+      <c r="S23" s="10">
+        <v>5</v>
+      </c>
+      <c r="T23" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -2651,10 +2727,10 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="W23" s="17">
+      <c r="W23" s="12">
         <v>3</v>
       </c>
-      <c r="X23" s="17">
+      <c r="X23" s="12">
         <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
@@ -2666,10 +2742,10 @@
       <c r="B24" s="2">
         <v>13</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="12">
         <v>2</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="12">
         <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
@@ -2680,52 +2756,52 @@
         <f t="shared" si="1"/>
         <v>0.61538461538461542</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="10">
         <v>13</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="8">
         <v>13</v>
       </c>
-      <c r="J24" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K24" s="20">
+      <c r="J24" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="14">
         <v>13</v>
       </c>
-      <c r="L24" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M24" s="8">
+      <c r="L24" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="6">
         <v>13</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="14">
         <v>13</v>
       </c>
-      <c r="P24" s="20">
+      <c r="P24" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="8">
         <v>13</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S24" s="10">
         <v>13</v>
       </c>
-      <c r="T24" s="14">
+      <c r="T24" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -2736,10 +2812,10 @@
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="W24" s="17">
+      <c r="W24" s="12">
         <v>2</v>
       </c>
-      <c r="X24" s="17">
+      <c r="X24" s="12">
         <f t="shared" si="10"/>
         <v>0.15384615384615385</v>
       </c>
@@ -2751,10 +2827,10 @@
       <c r="B25" s="2">
         <v>37</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="12">
         <v>10</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="12">
         <f t="shared" si="0"/>
         <v>0.27027027027027029</v>
       </c>
@@ -2765,52 +2841,52 @@
         <f t="shared" si="1"/>
         <v>0.72972972972972971</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="10">
         <v>35</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="10">
         <f t="shared" si="2"/>
         <v>0.94594594594594594</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="8">
         <v>37</v>
       </c>
-      <c r="J25" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="20">
+      <c r="J25" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="14">
         <v>37</v>
       </c>
-      <c r="L25" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M25" s="8">
+      <c r="L25" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="6">
         <v>37</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="14">
         <v>37</v>
       </c>
-      <c r="P25" s="20">
+      <c r="P25" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25" s="8">
         <v>37</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R25" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S25" s="10">
         <v>36</v>
       </c>
-      <c r="T25" s="14">
+      <c r="T25" s="10">
         <f t="shared" si="8"/>
         <v>0.97297297297297303</v>
       </c>
@@ -2821,10 +2897,10 @@
         <f t="shared" si="9"/>
         <v>0.81081081081081086</v>
       </c>
-      <c r="W25" s="17">
+      <c r="W25" s="12">
         <v>22</v>
       </c>
-      <c r="X25" s="17">
+      <c r="X25" s="12">
         <f t="shared" si="10"/>
         <v>0.59459459459459463</v>
       </c>
@@ -2836,10 +2912,10 @@
       <c r="B26" s="2">
         <v>40</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="12">
         <v>8</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="12">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -2850,52 +2926,52 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="10">
         <v>39</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="10">
         <f t="shared" si="2"/>
         <v>0.97499999999999998</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="8">
         <v>40</v>
       </c>
-      <c r="J26" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="20">
+      <c r="J26" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="14">
         <v>40</v>
       </c>
-      <c r="L26" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M26" s="8">
+      <c r="L26" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="6">
         <v>40</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="14">
         <v>40</v>
       </c>
-      <c r="P26" s="20">
+      <c r="P26" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26" s="8">
         <v>39</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R26" s="8">
         <f t="shared" si="7"/>
         <v>0.97499999999999998</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S26" s="10">
         <v>39</v>
       </c>
-      <c r="T26" s="14">
+      <c r="T26" s="10">
         <f t="shared" si="8"/>
         <v>0.97499999999999998</v>
       </c>
@@ -2906,10 +2982,10 @@
         <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
-      <c r="W26" s="17">
+      <c r="W26" s="12">
         <v>15</v>
       </c>
-      <c r="X26" s="17">
+      <c r="X26" s="12">
         <f t="shared" si="10"/>
         <v>0.375</v>
       </c>
@@ -2921,10 +2997,10 @@
       <c r="B27" s="2">
         <v>6</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="12">
         <v>3</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="12">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -2935,52 +3011,52 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="10">
         <v>6</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="8">
         <v>6</v>
       </c>
-      <c r="J27" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K27" s="20">
+      <c r="J27" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="14">
         <v>6</v>
       </c>
-      <c r="L27" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M27" s="8">
+      <c r="L27" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M27" s="6">
         <v>6</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O27" s="14">
         <v>6</v>
       </c>
-      <c r="P27" s="20">
+      <c r="P27" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q27" s="8">
         <v>6</v>
       </c>
-      <c r="R27" s="11">
+      <c r="R27" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S27" s="10">
         <v>6</v>
       </c>
-      <c r="T27" s="14">
+      <c r="T27" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -2991,10 +3067,10 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="W27" s="17">
+      <c r="W27" s="12">
         <v>3</v>
       </c>
-      <c r="X27" s="17">
+      <c r="X27" s="12">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
@@ -3006,10 +3082,10 @@
       <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="12">
         <v>14</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="12">
         <f t="shared" si="0"/>
         <v>0.51851851851851849</v>
       </c>
@@ -3020,52 +3096,52 @@
         <f t="shared" si="1"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="10">
         <v>26</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="10">
         <f t="shared" si="2"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="8">
         <v>26</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="8">
         <f t="shared" si="3"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="14">
         <v>27</v>
       </c>
-      <c r="L28" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M28" s="8">
+      <c r="L28" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="6">
         <v>26</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="6">
         <f t="shared" si="5"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="O28" s="20">
+      <c r="O28" s="14">
         <v>26</v>
       </c>
-      <c r="P28" s="20">
+      <c r="P28" s="14">
         <f t="shared" si="6"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q28" s="8">
         <v>26</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R28" s="8">
         <f t="shared" si="7"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="S28" s="14">
+      <c r="S28" s="10">
         <v>27</v>
       </c>
-      <c r="T28" s="14">
+      <c r="T28" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3076,10 +3152,10 @@
         <f t="shared" si="9"/>
         <v>0.62962962962962965</v>
       </c>
-      <c r="W28" s="17">
+      <c r="W28" s="12">
         <v>4</v>
       </c>
-      <c r="X28" s="17">
+      <c r="X28" s="12">
         <f t="shared" si="10"/>
         <v>0.14814814814814814</v>
       </c>
@@ -3091,10 +3167,10 @@
       <c r="B29" s="2">
         <v>6</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="12">
         <v>4</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="12">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3105,52 +3181,52 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="10">
         <v>6</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="8">
         <v>6</v>
       </c>
-      <c r="J29" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K29" s="20">
+      <c r="J29" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="14">
         <v>6</v>
       </c>
-      <c r="L29" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M29" s="8">
+      <c r="L29" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M29" s="6">
         <v>6</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O29" s="14">
         <v>6</v>
       </c>
-      <c r="P29" s="20">
+      <c r="P29" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="8">
         <v>6</v>
       </c>
-      <c r="R29" s="11">
+      <c r="R29" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S29" s="14">
+      <c r="S29" s="10">
         <v>6</v>
       </c>
-      <c r="T29" s="14">
+      <c r="T29" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3161,10 +3237,10 @@
         <f t="shared" si="9"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="W29" s="17">
+      <c r="W29" s="12">
         <v>4</v>
       </c>
-      <c r="X29" s="17">
+      <c r="X29" s="12">
         <f t="shared" si="10"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3176,10 +3252,10 @@
       <c r="B30" s="2">
         <v>9</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="12">
         <v>2</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="12">
         <f t="shared" si="0"/>
         <v>0.22222222222222221</v>
       </c>
@@ -3190,52 +3266,52 @@
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="10">
         <v>9</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="8">
         <v>9</v>
       </c>
-      <c r="J30" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K30" s="20">
+      <c r="J30" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="14">
         <v>9</v>
       </c>
-      <c r="L30" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M30" s="8">
+      <c r="L30" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M30" s="6">
         <v>9</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="14">
         <v>9</v>
       </c>
-      <c r="P30" s="20">
+      <c r="P30" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q30" s="8">
         <v>9</v>
       </c>
-      <c r="R30" s="11">
+      <c r="R30" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S30" s="14">
+      <c r="S30" s="10">
         <v>9</v>
       </c>
-      <c r="T30" s="14">
+      <c r="T30" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3246,10 +3322,10 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="W30" s="17">
-        <v>1</v>
-      </c>
-      <c r="X30" s="17">
+      <c r="W30" s="12">
+        <v>1</v>
+      </c>
+      <c r="X30" s="12">
         <f t="shared" si="10"/>
         <v>0.1111111111111111</v>
       </c>
@@ -3261,10 +3337,10 @@
       <c r="B31" s="2">
         <v>5</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="12">
         <v>4</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="12">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
@@ -3275,52 +3351,52 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G31" s="14">
-        <v>5</v>
-      </c>
-      <c r="H31" s="14">
+      <c r="G31" s="10">
+        <v>5</v>
+      </c>
+      <c r="H31" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I31" s="11">
-        <v>5</v>
-      </c>
-      <c r="J31" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K31" s="20">
-        <v>5</v>
-      </c>
-      <c r="L31" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M31" s="8">
-        <v>5</v>
-      </c>
-      <c r="N31" s="8">
+      <c r="I31" s="8">
+        <v>5</v>
+      </c>
+      <c r="J31" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="14">
+        <v>5</v>
+      </c>
+      <c r="L31" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M31" s="6">
+        <v>5</v>
+      </c>
+      <c r="N31" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O31" s="20">
-        <v>5</v>
-      </c>
-      <c r="P31" s="20">
+      <c r="O31" s="14">
+        <v>5</v>
+      </c>
+      <c r="P31" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q31" s="11">
-        <v>5</v>
-      </c>
-      <c r="R31" s="11">
+      <c r="Q31" s="8">
+        <v>5</v>
+      </c>
+      <c r="R31" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S31" s="14">
-        <v>5</v>
-      </c>
-      <c r="T31" s="14">
+      <c r="S31" s="10">
+        <v>5</v>
+      </c>
+      <c r="T31" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3331,10 +3407,10 @@
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
-      <c r="W31" s="17">
+      <c r="W31" s="12">
         <v>2</v>
       </c>
-      <c r="X31" s="17">
+      <c r="X31" s="12">
         <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
@@ -3346,10 +3422,10 @@
       <c r="B32" s="2">
         <v>38</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="12">
         <v>14</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="12">
         <f t="shared" si="0"/>
         <v>0.36842105263157893</v>
       </c>
@@ -3360,52 +3436,52 @@
         <f t="shared" si="1"/>
         <v>0.81578947368421051</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="10">
         <v>37</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="10">
         <f t="shared" si="2"/>
         <v>0.97368421052631582</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="8">
         <v>37</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="8">
         <f t="shared" si="3"/>
         <v>0.97368421052631582</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="14">
         <v>38</v>
       </c>
-      <c r="L32" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M32" s="8">
+      <c r="L32" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="6">
         <v>38</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O32" s="20">
+      <c r="O32" s="14">
         <v>38</v>
       </c>
-      <c r="P32" s="20">
+      <c r="P32" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q32" s="8">
         <v>37</v>
       </c>
-      <c r="R32" s="11">
+      <c r="R32" s="8">
         <f t="shared" si="7"/>
         <v>0.97368421052631582</v>
       </c>
-      <c r="S32" s="14">
+      <c r="S32" s="10">
         <v>38</v>
       </c>
-      <c r="T32" s="14">
+      <c r="T32" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3416,10 +3492,10 @@
         <f t="shared" si="9"/>
         <v>0.78947368421052633</v>
       </c>
-      <c r="W32" s="17">
+      <c r="W32" s="12">
         <v>17</v>
       </c>
-      <c r="X32" s="17">
+      <c r="X32" s="12">
         <f t="shared" si="10"/>
         <v>0.44736842105263158</v>
       </c>
@@ -3431,10 +3507,10 @@
       <c r="B33" s="2">
         <v>16</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="12">
         <v>3</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="12">
         <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
@@ -3445,52 +3521,52 @@
         <f t="shared" si="1"/>
         <v>0.8125</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="10">
         <v>16</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="8">
         <v>16</v>
       </c>
-      <c r="J33" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K33" s="20">
+      <c r="J33" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="14">
         <v>16</v>
       </c>
-      <c r="L33" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M33" s="8">
+      <c r="L33" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M33" s="6">
         <v>16</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O33" s="20">
+      <c r="O33" s="14">
         <v>16</v>
       </c>
-      <c r="P33" s="20">
+      <c r="P33" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q33" s="8">
         <v>16</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R33" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S33" s="10">
         <v>15</v>
       </c>
-      <c r="T33" s="14">
+      <c r="T33" s="10">
         <f t="shared" si="8"/>
         <v>0.9375</v>
       </c>
@@ -3501,10 +3577,10 @@
         <f t="shared" si="9"/>
         <v>0.9375</v>
       </c>
-      <c r="W33" s="17">
+      <c r="W33" s="12">
         <v>7</v>
       </c>
-      <c r="X33" s="17">
+      <c r="X33" s="12">
         <f t="shared" si="10"/>
         <v>0.4375</v>
       </c>
@@ -3516,10 +3592,10 @@
       <c r="B34" s="2">
         <v>8</v>
       </c>
-      <c r="C34" s="17">
-        <v>1</v>
-      </c>
-      <c r="D34" s="17">
+      <c r="C34" s="12">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
@@ -3530,52 +3606,52 @@
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="10">
         <v>7</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="10">
         <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="8">
         <v>8</v>
       </c>
-      <c r="J34" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K34" s="20">
+      <c r="J34" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="14">
         <v>8</v>
       </c>
-      <c r="L34" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M34" s="8">
+      <c r="L34" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M34" s="6">
         <v>8</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O34" s="20">
+      <c r="O34" s="14">
         <v>8</v>
       </c>
-      <c r="P34" s="20">
+      <c r="P34" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q34" s="8">
         <v>8</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R34" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S34" s="14">
+      <c r="S34" s="10">
         <v>8</v>
       </c>
-      <c r="T34" s="14">
+      <c r="T34" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3586,10 +3662,10 @@
         <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
-      <c r="W34" s="17">
+      <c r="W34" s="12">
         <v>3</v>
       </c>
-      <c r="X34" s="17">
+      <c r="X34" s="12">
         <f t="shared" si="10"/>
         <v>0.375</v>
       </c>
@@ -3601,10 +3677,10 @@
       <c r="B35" s="2">
         <v>13</v>
       </c>
-      <c r="C35" s="17">
-        <v>1</v>
-      </c>
-      <c r="D35" s="17">
+      <c r="C35" s="12">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12">
         <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
@@ -3615,52 +3691,52 @@
         <f t="shared" si="1"/>
         <v>0.46153846153846156</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="10">
         <v>13</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="8">
         <v>13</v>
       </c>
-      <c r="J35" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K35" s="20">
+      <c r="J35" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="14">
         <v>13</v>
       </c>
-      <c r="L35" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M35" s="8">
+      <c r="L35" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M35" s="6">
         <v>13</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="14">
         <v>13</v>
       </c>
-      <c r="P35" s="20">
+      <c r="P35" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q35" s="8">
         <v>12</v>
       </c>
-      <c r="R35" s="11">
+      <c r="R35" s="8">
         <f t="shared" si="7"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="S35" s="14">
+      <c r="S35" s="10">
         <v>13</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3671,10 +3747,10 @@
         <f t="shared" si="9"/>
         <v>0.84615384615384615</v>
       </c>
-      <c r="W35" s="17">
-        <v>1</v>
-      </c>
-      <c r="X35" s="17">
+      <c r="W35" s="12">
+        <v>1</v>
+      </c>
+      <c r="X35" s="12">
         <f t="shared" si="10"/>
         <v>7.6923076923076927E-2</v>
       </c>
@@ -3686,10 +3762,10 @@
       <c r="B36" s="2">
         <v>45</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="12">
         <v>7</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="12">
         <f t="shared" si="0"/>
         <v>0.15555555555555556</v>
       </c>
@@ -3700,52 +3776,52 @@
         <f t="shared" si="1"/>
         <v>0.75555555555555554</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="10">
         <v>42</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="10">
         <f t="shared" si="2"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="8">
         <v>44</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="8">
         <f t="shared" si="3"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="14">
         <v>44</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="14">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="6">
         <v>45</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O36" s="20">
+      <c r="O36" s="14">
         <v>45</v>
       </c>
-      <c r="P36" s="20">
+      <c r="P36" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="Q36" s="8">
         <v>44</v>
       </c>
-      <c r="R36" s="11">
+      <c r="R36" s="8">
         <f t="shared" si="7"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="S36" s="14">
+      <c r="S36" s="10">
         <v>44</v>
       </c>
-      <c r="T36" s="14">
+      <c r="T36" s="10">
         <f t="shared" si="8"/>
         <v>0.97777777777777775</v>
       </c>
@@ -3756,10 +3832,10 @@
         <f t="shared" si="9"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="W36" s="17">
+      <c r="W36" s="12">
         <v>19</v>
       </c>
-      <c r="X36" s="17">
+      <c r="X36" s="12">
         <f t="shared" si="10"/>
         <v>0.42222222222222222</v>
       </c>
@@ -3771,10 +3847,10 @@
       <c r="B37" s="2">
         <v>17</v>
       </c>
-      <c r="C37" s="17">
-        <v>1</v>
-      </c>
-      <c r="D37" s="17">
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12">
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
@@ -3785,52 +3861,52 @@
         <f t="shared" si="1"/>
         <v>0.47058823529411764</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="10">
         <v>15</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="10">
         <f t="shared" si="2"/>
         <v>0.88235294117647056</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="8">
         <v>15</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="8">
         <f t="shared" si="3"/>
         <v>0.88235294117647056</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="14">
         <v>16</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L37" s="14">
         <f t="shared" si="4"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="6">
         <v>17</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O37" s="20">
+      <c r="O37" s="14">
         <v>17</v>
       </c>
-      <c r="P37" s="20">
+      <c r="P37" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="Q37" s="8">
         <v>16</v>
       </c>
-      <c r="R37" s="11">
+      <c r="R37" s="8">
         <f t="shared" si="7"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="S37" s="14">
+      <c r="S37" s="10">
         <v>14</v>
       </c>
-      <c r="T37" s="14">
+      <c r="T37" s="10">
         <f t="shared" si="8"/>
         <v>0.82352941176470584</v>
       </c>
@@ -3841,10 +3917,10 @@
         <f t="shared" si="9"/>
         <v>0.76470588235294112</v>
       </c>
-      <c r="W37" s="17">
-        <v>5</v>
-      </c>
-      <c r="X37" s="17">
+      <c r="W37" s="12">
+        <v>5</v>
+      </c>
+      <c r="X37" s="12">
         <f t="shared" si="10"/>
         <v>0.29411764705882354</v>
       </c>
@@ -3856,10 +3932,10 @@
       <c r="B38" s="2">
         <v>26</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="12">
         <v>4</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="12">
         <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
@@ -3870,52 +3946,52 @@
         <f t="shared" si="1"/>
         <v>0.65384615384615385</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="10">
         <v>25</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="10">
         <f t="shared" si="2"/>
         <v>0.96153846153846156</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="8">
         <v>25</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="8">
         <f t="shared" si="3"/>
         <v>0.96153846153846156</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="14">
         <v>26</v>
       </c>
-      <c r="L38" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M38" s="8">
+      <c r="L38" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M38" s="6">
         <v>26</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O38" s="20">
+      <c r="O38" s="14">
         <v>26</v>
       </c>
-      <c r="P38" s="20">
+      <c r="P38" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q38" s="11">
+      <c r="Q38" s="8">
         <v>26</v>
       </c>
-      <c r="R38" s="11">
+      <c r="R38" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S38" s="14">
+      <c r="S38" s="10">
         <v>26</v>
       </c>
-      <c r="T38" s="14">
+      <c r="T38" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3926,10 +4002,10 @@
         <f t="shared" si="9"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="W38" s="17">
+      <c r="W38" s="12">
         <v>14</v>
       </c>
-      <c r="X38" s="17">
+      <c r="X38" s="12">
         <f t="shared" si="10"/>
         <v>0.53846153846153844</v>
       </c>
@@ -3941,10 +4017,10 @@
       <c r="B39" s="2">
         <v>7</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="12">
         <v>2</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="12">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
@@ -3955,52 +4031,52 @@
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="10">
         <v>6</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="10">
         <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="8">
         <v>7</v>
       </c>
-      <c r="J39" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K39" s="20">
+      <c r="J39" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="14">
         <v>7</v>
       </c>
-      <c r="L39" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M39" s="8">
+      <c r="L39" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M39" s="6">
         <v>7</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O39" s="20">
+      <c r="O39" s="14">
         <v>7</v>
       </c>
-      <c r="P39" s="20">
+      <c r="P39" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="Q39" s="8">
         <v>7</v>
       </c>
-      <c r="R39" s="11">
+      <c r="R39" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S39" s="14">
+      <c r="S39" s="10">
         <v>7</v>
       </c>
-      <c r="T39" s="14">
+      <c r="T39" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -4011,10 +4087,10 @@
         <f t="shared" si="9"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="W39" s="17">
+      <c r="W39" s="12">
         <v>2</v>
       </c>
-      <c r="X39" s="17">
+      <c r="X39" s="12">
         <f t="shared" si="10"/>
         <v>0.2857142857142857</v>
       </c>
@@ -4026,10 +4102,10 @@
       <c r="B40" s="2">
         <v>26</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="12">
         <v>9</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="12">
         <f t="shared" si="0"/>
         <v>0.34615384615384615</v>
       </c>
@@ -4040,52 +4116,52 @@
         <f t="shared" si="1"/>
         <v>0.73076923076923073</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="10">
         <v>25</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="10">
         <f t="shared" si="2"/>
         <v>0.96153846153846156</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="8">
         <v>25</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="8">
         <f t="shared" si="3"/>
         <v>0.96153846153846156</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K40" s="14">
         <v>26</v>
       </c>
-      <c r="L40" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M40" s="8">
+      <c r="L40" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M40" s="6">
         <v>26</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O40" s="20">
+      <c r="O40" s="14">
         <v>26</v>
       </c>
-      <c r="P40" s="20">
+      <c r="P40" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q40" s="11">
+      <c r="Q40" s="8">
         <v>26</v>
       </c>
-      <c r="R40" s="11">
+      <c r="R40" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S40" s="14">
+      <c r="S40" s="10">
         <v>26</v>
       </c>
-      <c r="T40" s="14">
+      <c r="T40" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -4096,10 +4172,10 @@
         <f t="shared" si="9"/>
         <v>0.88461538461538458</v>
       </c>
-      <c r="W40" s="17">
-        <v>5</v>
-      </c>
-      <c r="X40" s="17">
+      <c r="W40" s="12">
+        <v>5</v>
+      </c>
+      <c r="X40" s="12">
         <f t="shared" si="10"/>
         <v>0.19230769230769232</v>
       </c>
@@ -4111,10 +4187,10 @@
       <c r="B41" s="2">
         <v>33</v>
       </c>
-      <c r="C41" s="17">
-        <v>5</v>
-      </c>
-      <c r="D41" s="17">
+      <c r="C41" s="12">
+        <v>5</v>
+      </c>
+      <c r="D41" s="12">
         <f t="shared" si="0"/>
         <v>0.15151515151515152</v>
       </c>
@@ -4125,52 +4201,52 @@
         <f t="shared" si="1"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="10">
         <v>29</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="10">
         <f t="shared" si="2"/>
         <v>0.87878787878787878</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="8">
         <v>31</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="8">
         <f t="shared" si="3"/>
         <v>0.93939393939393945</v>
       </c>
-      <c r="K41" s="20">
+      <c r="K41" s="14">
         <v>31</v>
       </c>
-      <c r="L41" s="20">
+      <c r="L41" s="14">
         <f t="shared" si="4"/>
         <v>0.93939393939393945</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="6">
         <v>33</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O41" s="20">
+      <c r="O41" s="14">
         <v>32</v>
       </c>
-      <c r="P41" s="20">
+      <c r="P41" s="14">
         <f t="shared" si="6"/>
         <v>0.96969696969696972</v>
       </c>
-      <c r="Q41" s="11">
+      <c r="Q41" s="8">
         <v>31</v>
       </c>
-      <c r="R41" s="11">
+      <c r="R41" s="8">
         <f t="shared" si="7"/>
         <v>0.93939393939393945</v>
       </c>
-      <c r="S41" s="14">
+      <c r="S41" s="10">
         <v>28</v>
       </c>
-      <c r="T41" s="14">
+      <c r="T41" s="10">
         <f t="shared" si="8"/>
         <v>0.84848484848484851</v>
       </c>
@@ -4181,10 +4257,10 @@
         <f t="shared" si="9"/>
         <v>0.78787878787878785</v>
       </c>
-      <c r="W41" s="17">
+      <c r="W41" s="12">
         <v>10</v>
       </c>
-      <c r="X41" s="17">
+      <c r="X41" s="12">
         <f t="shared" si="10"/>
         <v>0.30303030303030304</v>
       </c>
@@ -4196,10 +4272,10 @@
       <c r="B42" s="2">
         <v>14</v>
       </c>
-      <c r="C42" s="17">
-        <v>1</v>
-      </c>
-      <c r="D42" s="17">
+      <c r="C42" s="12">
+        <v>1</v>
+      </c>
+      <c r="D42" s="12">
         <f t="shared" si="0"/>
         <v>7.1428571428571425E-2</v>
       </c>
@@ -4210,52 +4286,52 @@
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="10">
         <v>13</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="10">
         <f t="shared" si="2"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="8">
         <v>13</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="8">
         <f t="shared" si="3"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="K42" s="20">
+      <c r="K42" s="14">
         <v>14</v>
       </c>
-      <c r="L42" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M42" s="8">
+      <c r="L42" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M42" s="6">
         <v>13</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="6">
         <f t="shared" si="5"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="O42" s="20">
+      <c r="O42" s="14">
         <v>14</v>
       </c>
-      <c r="P42" s="20">
+      <c r="P42" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q42" s="11">
+      <c r="Q42" s="8">
         <v>13</v>
       </c>
-      <c r="R42" s="11">
+      <c r="R42" s="8">
         <f t="shared" si="7"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="S42" s="14">
+      <c r="S42" s="10">
         <v>12</v>
       </c>
-      <c r="T42" s="14">
+      <c r="T42" s="10">
         <f t="shared" si="8"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4266,10 +4342,10 @@
         <f t="shared" si="9"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="W42" s="17">
+      <c r="W42" s="12">
         <v>6</v>
       </c>
-      <c r="X42" s="17">
+      <c r="X42" s="12">
         <f t="shared" si="10"/>
         <v>0.42857142857142855</v>
       </c>
@@ -4281,10 +4357,10 @@
       <c r="B43" s="2">
         <v>18</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="12">
         <v>7</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="12">
         <f t="shared" si="0"/>
         <v>0.3888888888888889</v>
       </c>
@@ -4295,52 +4371,52 @@
         <f t="shared" si="1"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="10">
         <v>18</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="8">
         <v>18</v>
       </c>
-      <c r="J43" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K43" s="20">
+      <c r="J43" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="14">
         <v>18</v>
       </c>
-      <c r="L43" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M43" s="8">
+      <c r="L43" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M43" s="6">
         <v>18</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N43" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O43" s="20">
+      <c r="O43" s="14">
         <v>18</v>
       </c>
-      <c r="P43" s="20">
+      <c r="P43" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q43" s="11">
+      <c r="Q43" s="8">
         <v>18</v>
       </c>
-      <c r="R43" s="11">
+      <c r="R43" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S43" s="14">
+      <c r="S43" s="10">
         <v>18</v>
       </c>
-      <c r="T43" s="14">
+      <c r="T43" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -4351,10 +4427,10 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="W43" s="17">
+      <c r="W43" s="12">
         <v>13</v>
       </c>
-      <c r="X43" s="17">
+      <c r="X43" s="12">
         <f t="shared" si="10"/>
         <v>0.72222222222222221</v>
       </c>
@@ -4366,10 +4442,10 @@
       <c r="B44" s="2">
         <v>5</v>
       </c>
-      <c r="C44" s="17">
-        <v>1</v>
-      </c>
-      <c r="D44" s="17">
+      <c r="C44" s="12">
+        <v>1</v>
+      </c>
+      <c r="D44" s="12">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -4380,52 +4456,52 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="10">
         <v>4</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="10">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="8">
         <v>4</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="8">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="K44" s="20">
-        <v>5</v>
-      </c>
-      <c r="L44" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M44" s="8">
-        <v>5</v>
-      </c>
-      <c r="N44" s="8">
+      <c r="K44" s="14">
+        <v>5</v>
+      </c>
+      <c r="L44" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M44" s="6">
+        <v>5</v>
+      </c>
+      <c r="N44" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O44" s="20">
-        <v>5</v>
-      </c>
-      <c r="P44" s="20">
+      <c r="O44" s="14">
+        <v>5</v>
+      </c>
+      <c r="P44" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q44" s="11">
-        <v>5</v>
-      </c>
-      <c r="R44" s="11">
+      <c r="Q44" s="8">
+        <v>5</v>
+      </c>
+      <c r="R44" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S44" s="14">
+      <c r="S44" s="10">
         <v>4</v>
       </c>
-      <c r="T44" s="14">
+      <c r="T44" s="10">
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
@@ -4436,10 +4512,10 @@
         <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
-      <c r="W44" s="17">
-        <v>1</v>
-      </c>
-      <c r="X44" s="17">
+      <c r="W44" s="12">
+        <v>1</v>
+      </c>
+      <c r="X44" s="12">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
@@ -4451,10 +4527,10 @@
       <c r="B45" s="2">
         <v>7</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="12">
         <v>2</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="12">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
@@ -4465,52 +4541,52 @@
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="10">
         <v>7</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="8">
         <v>7</v>
       </c>
-      <c r="J45" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K45" s="20">
+      <c r="J45" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K45" s="14">
         <v>7</v>
       </c>
-      <c r="L45" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M45" s="8">
+      <c r="L45" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M45" s="6">
         <v>7</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N45" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O45" s="20">
+      <c r="O45" s="14">
         <v>7</v>
       </c>
-      <c r="P45" s="20">
+      <c r="P45" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="Q45" s="8">
         <v>7</v>
       </c>
-      <c r="R45" s="11">
+      <c r="R45" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S45" s="14">
+      <c r="S45" s="10">
         <v>7</v>
       </c>
-      <c r="T45" s="14">
+      <c r="T45" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -4521,10 +4597,10 @@
         <f t="shared" si="9"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="W45" s="17">
+      <c r="W45" s="12">
         <v>3</v>
       </c>
-      <c r="X45" s="17">
+      <c r="X45" s="12">
         <f t="shared" si="10"/>
         <v>0.42857142857142855</v>
       </c>
@@ -4536,10 +4612,10 @@
       <c r="B46" s="2">
         <v>22</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="12">
         <v>12</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="12">
         <f t="shared" si="0"/>
         <v>0.54545454545454541</v>
       </c>
@@ -4550,52 +4626,52 @@
         <f t="shared" si="1"/>
         <v>0.77272727272727271</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="10">
         <v>20</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="10">
         <f t="shared" si="2"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="8">
         <v>21</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="8">
         <f t="shared" si="3"/>
         <v>0.95454545454545459</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="14">
         <v>21</v>
       </c>
-      <c r="L46" s="20">
+      <c r="L46" s="14">
         <f t="shared" si="4"/>
         <v>0.95454545454545459</v>
       </c>
-      <c r="M46" s="8">
+      <c r="M46" s="6">
         <v>22</v>
       </c>
-      <c r="N46" s="8">
+      <c r="N46" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O46" s="20">
+      <c r="O46" s="14">
         <v>22</v>
       </c>
-      <c r="P46" s="20">
+      <c r="P46" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q46" s="11">
+      <c r="Q46" s="8">
         <v>22</v>
       </c>
-      <c r="R46" s="11">
+      <c r="R46" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S46" s="14">
+      <c r="S46" s="10">
         <v>21</v>
       </c>
-      <c r="T46" s="14">
+      <c r="T46" s="10">
         <f t="shared" si="8"/>
         <v>0.95454545454545459</v>
       </c>
@@ -4606,10 +4682,10 @@
         <f t="shared" si="9"/>
         <v>0.68181818181818177</v>
       </c>
-      <c r="W46" s="17">
+      <c r="W46" s="12">
         <v>4</v>
       </c>
-      <c r="X46" s="17">
+      <c r="X46" s="12">
         <f t="shared" si="10"/>
         <v>0.18181818181818182</v>
       </c>
@@ -4621,10 +4697,10 @@
       <c r="B47" s="2">
         <v>5</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="12">
         <v>3</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="12">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
@@ -4635,52 +4711,52 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="G47" s="14">
-        <v>5</v>
-      </c>
-      <c r="H47" s="14">
+      <c r="G47" s="10">
+        <v>5</v>
+      </c>
+      <c r="H47" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I47" s="11">
-        <v>5</v>
-      </c>
-      <c r="J47" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K47" s="20">
-        <v>5</v>
-      </c>
-      <c r="L47" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M47" s="8">
-        <v>5</v>
-      </c>
-      <c r="N47" s="8">
+      <c r="I47" s="8">
+        <v>5</v>
+      </c>
+      <c r="J47" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K47" s="14">
+        <v>5</v>
+      </c>
+      <c r="L47" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M47" s="6">
+        <v>5</v>
+      </c>
+      <c r="N47" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O47" s="20">
-        <v>5</v>
-      </c>
-      <c r="P47" s="20">
+      <c r="O47" s="14">
+        <v>5</v>
+      </c>
+      <c r="P47" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q47" s="11">
-        <v>5</v>
-      </c>
-      <c r="R47" s="11">
+      <c r="Q47" s="8">
+        <v>5</v>
+      </c>
+      <c r="R47" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S47" s="14">
-        <v>5</v>
-      </c>
-      <c r="T47" s="14">
+      <c r="S47" s="10">
+        <v>5</v>
+      </c>
+      <c r="T47" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -4691,10 +4767,10 @@
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
-      <c r="W47" s="17">
+      <c r="W47" s="12">
         <v>0</v>
       </c>
-      <c r="X47" s="17">
+      <c r="X47" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -4706,10 +4782,10 @@
       <c r="B48" s="2">
         <v>7</v>
       </c>
-      <c r="C48" s="17">
-        <v>1</v>
-      </c>
-      <c r="D48" s="17">
+      <c r="C48" s="12">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
@@ -4720,52 +4796,52 @@
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="10">
         <v>7</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="8">
         <v>7</v>
       </c>
-      <c r="J48" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K48" s="20">
+      <c r="J48" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K48" s="14">
         <v>7</v>
       </c>
-      <c r="L48" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M48" s="8">
+      <c r="L48" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M48" s="6">
         <v>7</v>
       </c>
-      <c r="N48" s="8">
+      <c r="N48" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O48" s="20">
+      <c r="O48" s="14">
         <v>7</v>
       </c>
-      <c r="P48" s="20">
+      <c r="P48" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q48" s="11">
+      <c r="Q48" s="8">
         <v>7</v>
       </c>
-      <c r="R48" s="11">
+      <c r="R48" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S48" s="14">
+      <c r="S48" s="10">
         <v>6</v>
       </c>
-      <c r="T48" s="14">
+      <c r="T48" s="10">
         <f t="shared" si="8"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4776,10 +4852,10 @@
         <f t="shared" si="9"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="W48" s="17">
+      <c r="W48" s="12">
         <v>3</v>
       </c>
-      <c r="X48" s="17">
+      <c r="X48" s="12">
         <f t="shared" si="10"/>
         <v>0.42857142857142855</v>
       </c>
@@ -4791,10 +4867,10 @@
       <c r="B49" s="2">
         <v>15</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="12">
         <v>7</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="12">
         <f t="shared" si="0"/>
         <v>0.46666666666666667</v>
       </c>
@@ -4805,52 +4881,52 @@
         <f t="shared" si="1"/>
         <v>0.73333333333333328</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="10">
         <v>14</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="10">
         <f t="shared" si="2"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="8">
         <v>15</v>
       </c>
-      <c r="J49" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K49" s="20">
+      <c r="J49" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K49" s="14">
         <v>14</v>
       </c>
-      <c r="L49" s="20">
+      <c r="L49" s="14">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="M49" s="8">
+      <c r="M49" s="6">
         <v>15</v>
       </c>
-      <c r="N49" s="8">
+      <c r="N49" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O49" s="20">
+      <c r="O49" s="14">
         <v>15</v>
       </c>
-      <c r="P49" s="20">
+      <c r="P49" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q49" s="11">
+      <c r="Q49" s="8">
         <v>14</v>
       </c>
-      <c r="R49" s="11">
+      <c r="R49" s="8">
         <f t="shared" si="7"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="S49" s="14">
+      <c r="S49" s="10">
         <v>15</v>
       </c>
-      <c r="T49" s="14">
+      <c r="T49" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -4861,10 +4937,10 @@
         <f t="shared" si="9"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="W49" s="17">
+      <c r="W49" s="12">
         <v>7</v>
       </c>
-      <c r="X49" s="17">
+      <c r="X49" s="12">
         <f t="shared" si="10"/>
         <v>0.46666666666666667</v>
       </c>
@@ -4876,10 +4952,10 @@
       <c r="B50" s="2">
         <v>12</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="12">
         <v>3</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="12">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -4890,52 +4966,52 @@
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="10">
         <v>11</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="10">
         <f t="shared" si="2"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="8">
         <v>12</v>
       </c>
-      <c r="J50" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K50" s="20">
+      <c r="J50" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K50" s="14">
         <v>12</v>
       </c>
-      <c r="L50" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M50" s="8">
+      <c r="L50" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M50" s="6">
         <v>12</v>
       </c>
-      <c r="N50" s="8">
+      <c r="N50" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O50" s="20">
+      <c r="O50" s="14">
         <v>12</v>
       </c>
-      <c r="P50" s="20">
+      <c r="P50" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q50" s="11">
+      <c r="Q50" s="8">
         <v>12</v>
       </c>
-      <c r="R50" s="11">
+      <c r="R50" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S50" s="14">
+      <c r="S50" s="10">
         <v>12</v>
       </c>
-      <c r="T50" s="14">
+      <c r="T50" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -4946,10 +5022,10 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="W50" s="17">
+      <c r="W50" s="12">
         <v>7</v>
       </c>
-      <c r="X50" s="17">
+      <c r="X50" s="12">
         <f t="shared" si="10"/>
         <v>0.58333333333333337</v>
       </c>
@@ -4961,10 +5037,10 @@
       <c r="B51" s="2">
         <v>17</v>
       </c>
-      <c r="C51" s="17">
-        <v>1</v>
-      </c>
-      <c r="D51" s="17">
+      <c r="C51" s="12">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12">
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
@@ -4975,52 +5051,52 @@
         <f t="shared" si="1"/>
         <v>0.88235294117647056</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="10">
         <v>17</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="8">
         <v>17</v>
       </c>
-      <c r="J51" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K51" s="20">
+      <c r="J51" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K51" s="14">
         <v>17</v>
       </c>
-      <c r="L51" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M51" s="8">
+      <c r="L51" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M51" s="6">
         <v>17</v>
       </c>
-      <c r="N51" s="8">
+      <c r="N51" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O51" s="20">
+      <c r="O51" s="14">
         <v>17</v>
       </c>
-      <c r="P51" s="20">
+      <c r="P51" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q51" s="11">
+      <c r="Q51" s="8">
         <v>17</v>
       </c>
-      <c r="R51" s="11">
+      <c r="R51" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S51" s="14">
+      <c r="S51" s="10">
         <v>17</v>
       </c>
-      <c r="T51" s="14">
+      <c r="T51" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -5031,10 +5107,10 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="W51" s="17">
+      <c r="W51" s="12">
         <v>9</v>
       </c>
-      <c r="X51" s="17">
+      <c r="X51" s="12">
         <f t="shared" si="10"/>
         <v>0.52941176470588236</v>
       </c>
@@ -5046,10 +5122,10 @@
       <c r="B52" s="2">
         <v>11</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="12">
         <v>3</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="12">
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
@@ -5060,52 +5136,52 @@
         <f t="shared" si="1"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="10">
         <v>10</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="10">
         <f t="shared" si="2"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="8">
         <v>10</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J52" s="8">
         <f t="shared" si="3"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="K52" s="20">
+      <c r="K52" s="14">
         <v>11</v>
       </c>
-      <c r="L52" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M52" s="8">
+      <c r="L52" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M52" s="6">
         <v>11</v>
       </c>
-      <c r="N52" s="8">
+      <c r="N52" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O52" s="20">
+      <c r="O52" s="14">
         <v>11</v>
       </c>
-      <c r="P52" s="20">
+      <c r="P52" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q52" s="11">
+      <c r="Q52" s="8">
         <v>11</v>
       </c>
-      <c r="R52" s="11">
+      <c r="R52" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S52" s="14">
+      <c r="S52" s="10">
         <v>10</v>
       </c>
-      <c r="T52" s="14">
+      <c r="T52" s="10">
         <f t="shared" si="8"/>
         <v>0.90909090909090906</v>
       </c>
@@ -5116,10 +5192,10 @@
         <f t="shared" si="9"/>
         <v>0.72727272727272729</v>
       </c>
-      <c r="W52" s="17">
+      <c r="W52" s="12">
         <v>3</v>
       </c>
-      <c r="X52" s="17">
+      <c r="X52" s="12">
         <f t="shared" si="10"/>
         <v>0.27272727272727271</v>
       </c>
@@ -5131,10 +5207,10 @@
       <c r="B53" s="2">
         <v>8</v>
       </c>
-      <c r="C53" s="17">
-        <v>1</v>
-      </c>
-      <c r="D53" s="17">
+      <c r="C53" s="12">
+        <v>1</v>
+      </c>
+      <c r="D53" s="12">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
@@ -5145,52 +5221,52 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="10">
         <v>8</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I53" s="8">
         <v>8</v>
       </c>
-      <c r="J53" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K53" s="20">
+      <c r="J53" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K53" s="14">
         <v>8</v>
       </c>
-      <c r="L53" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M53" s="8">
+      <c r="L53" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M53" s="6">
         <v>8</v>
       </c>
-      <c r="N53" s="8">
+      <c r="N53" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O53" s="20">
+      <c r="O53" s="14">
         <v>8</v>
       </c>
-      <c r="P53" s="20">
+      <c r="P53" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q53" s="11">
+      <c r="Q53" s="8">
         <v>8</v>
       </c>
-      <c r="R53" s="11">
+      <c r="R53" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S53" s="14">
+      <c r="S53" s="10">
         <v>8</v>
       </c>
-      <c r="T53" s="14">
+      <c r="T53" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -5201,10 +5277,10 @@
         <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
-      <c r="W53" s="17">
-        <v>1</v>
-      </c>
-      <c r="X53" s="17">
+      <c r="W53" s="12">
+        <v>1</v>
+      </c>
+      <c r="X53" s="12">
         <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
@@ -5216,10 +5292,10 @@
       <c r="B54" s="2">
         <v>37</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="12">
         <v>3</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="12">
         <f t="shared" si="0"/>
         <v>8.1081081081081086E-2</v>
       </c>
@@ -5230,52 +5306,52 @@
         <f t="shared" si="1"/>
         <v>0.51351351351351349</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="10">
         <v>36</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="10">
         <f t="shared" si="2"/>
         <v>0.97297297297297303</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="8">
         <v>36</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J54" s="8">
         <f t="shared" si="3"/>
         <v>0.97297297297297303</v>
       </c>
-      <c r="K54" s="20">
+      <c r="K54" s="14">
         <v>37</v>
       </c>
-      <c r="L54" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M54" s="8">
+      <c r="L54" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M54" s="6">
         <v>37</v>
       </c>
-      <c r="N54" s="8">
+      <c r="N54" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O54" s="20">
+      <c r="O54" s="14">
         <v>37</v>
       </c>
-      <c r="P54" s="20">
+      <c r="P54" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q54" s="11">
+      <c r="Q54" s="8">
         <v>34</v>
       </c>
-      <c r="R54" s="11">
+      <c r="R54" s="8">
         <f t="shared" si="7"/>
         <v>0.91891891891891897</v>
       </c>
-      <c r="S54" s="14">
+      <c r="S54" s="10">
         <v>37</v>
       </c>
-      <c r="T54" s="14">
+      <c r="T54" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -5286,10 +5362,10 @@
         <f t="shared" si="9"/>
         <v>0.86486486486486491</v>
       </c>
-      <c r="W54" s="17">
+      <c r="W54" s="12">
         <v>12</v>
       </c>
-      <c r="X54" s="17">
+      <c r="X54" s="12">
         <f t="shared" si="10"/>
         <v>0.32432432432432434</v>
       </c>
@@ -5301,10 +5377,10 @@
       <c r="B55" s="2">
         <v>18</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="12">
         <v>9</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="12">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -5315,52 +5391,52 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="10">
         <v>17</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="10">
         <f t="shared" si="2"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="8">
         <v>18</v>
       </c>
-      <c r="J55" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K55" s="20">
+      <c r="J55" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="14">
         <v>18</v>
       </c>
-      <c r="L55" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M55" s="8">
+      <c r="L55" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M55" s="6">
         <v>18</v>
       </c>
-      <c r="N55" s="8">
+      <c r="N55" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O55" s="20">
+      <c r="O55" s="14">
         <v>18</v>
       </c>
-      <c r="P55" s="20">
+      <c r="P55" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q55" s="11">
+      <c r="Q55" s="8">
         <v>18</v>
       </c>
-      <c r="R55" s="11">
+      <c r="R55" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S55" s="14">
+      <c r="S55" s="10">
         <v>18</v>
       </c>
-      <c r="T55" s="14">
+      <c r="T55" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -5371,10 +5447,10 @@
         <f t="shared" si="9"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="W55" s="17">
+      <c r="W55" s="12">
         <v>8</v>
       </c>
-      <c r="X55" s="17">
+      <c r="X55" s="12">
         <f t="shared" si="10"/>
         <v>0.44444444444444442</v>
       </c>
@@ -5386,10 +5462,10 @@
       <c r="B56" s="2">
         <v>8</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="12">
         <v>0</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5400,52 +5476,52 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="10">
         <v>8</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="8">
         <v>7</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J56" s="8">
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="14">
         <v>8</v>
       </c>
-      <c r="L56" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M56" s="8">
+      <c r="L56" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M56" s="6">
         <v>8</v>
       </c>
-      <c r="N56" s="8">
+      <c r="N56" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O56" s="20">
+      <c r="O56" s="14">
         <v>8</v>
       </c>
-      <c r="P56" s="20">
+      <c r="P56" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q56" s="11">
+      <c r="Q56" s="8">
         <v>8</v>
       </c>
-      <c r="R56" s="11">
+      <c r="R56" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S56" s="14">
+      <c r="S56" s="10">
         <v>8</v>
       </c>
-      <c r="T56" s="14">
+      <c r="T56" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -5456,10 +5532,10 @@
         <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
-      <c r="W56" s="17">
-        <v>1</v>
-      </c>
-      <c r="X56" s="17">
+      <c r="W56" s="12">
+        <v>1</v>
+      </c>
+      <c r="X56" s="12">
         <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
@@ -5471,10 +5547,10 @@
       <c r="B57" s="2">
         <v>10</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="12">
         <v>3</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="12">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
@@ -5485,52 +5561,52 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="10">
         <v>9</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="10">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="8">
         <v>9</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J57" s="8">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="K57" s="20">
+      <c r="K57" s="14">
         <v>10</v>
       </c>
-      <c r="L57" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M57" s="8">
+      <c r="L57" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M57" s="6">
         <v>10</v>
       </c>
-      <c r="N57" s="8">
+      <c r="N57" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O57" s="20">
+      <c r="O57" s="14">
         <v>10</v>
       </c>
-      <c r="P57" s="20">
+      <c r="P57" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q57" s="11">
+      <c r="Q57" s="8">
         <v>9</v>
       </c>
-      <c r="R57" s="11">
+      <c r="R57" s="8">
         <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
-      <c r="S57" s="14">
+      <c r="S57" s="10">
         <v>8</v>
       </c>
-      <c r="T57" s="14">
+      <c r="T57" s="10">
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
@@ -5541,10 +5617,10 @@
         <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
-      <c r="W57" s="17">
+      <c r="W57" s="12">
         <v>6</v>
       </c>
-      <c r="X57" s="17">
+      <c r="X57" s="12">
         <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
@@ -5556,10 +5632,10 @@
       <c r="B58" s="2">
         <v>18</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="12">
         <v>7</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="12">
         <f t="shared" si="0"/>
         <v>0.3888888888888889</v>
       </c>
@@ -5570,52 +5646,52 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="10">
         <v>17</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="10">
         <f t="shared" si="2"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="8">
         <v>18</v>
       </c>
-      <c r="J58" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K58" s="20">
+      <c r="J58" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="14">
         <v>18</v>
       </c>
-      <c r="L58" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M58" s="8">
+      <c r="L58" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M58" s="6">
         <v>18</v>
       </c>
-      <c r="N58" s="8">
+      <c r="N58" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O58" s="20">
+      <c r="O58" s="14">
         <v>18</v>
       </c>
-      <c r="P58" s="20">
+      <c r="P58" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q58" s="11">
+      <c r="Q58" s="8">
         <v>17</v>
       </c>
-      <c r="R58" s="11">
+      <c r="R58" s="8">
         <f t="shared" si="7"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="S58" s="14">
+      <c r="S58" s="10">
         <v>16</v>
       </c>
-      <c r="T58" s="14">
+      <c r="T58" s="10">
         <f t="shared" si="8"/>
         <v>0.88888888888888884</v>
       </c>
@@ -5626,10 +5702,10 @@
         <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="W58" s="17">
+      <c r="W58" s="12">
         <v>6</v>
       </c>
-      <c r="X58" s="17">
+      <c r="X58" s="12">
         <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
@@ -5641,10 +5717,10 @@
       <c r="B59" s="2">
         <v>129</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="12">
         <v>15</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="12">
         <f t="shared" si="0"/>
         <v>0.11627906976744186</v>
       </c>
@@ -5655,52 +5731,52 @@
         <f t="shared" si="1"/>
         <v>0.65891472868217049</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="10">
         <v>121</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="10">
         <f t="shared" si="2"/>
         <v>0.93798449612403101</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="8">
         <v>126</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J59" s="8">
         <f t="shared" si="3"/>
         <v>0.97674418604651159</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K59" s="14">
         <v>128</v>
       </c>
-      <c r="L59" s="20">
+      <c r="L59" s="14">
         <f t="shared" si="4"/>
         <v>0.99224806201550386</v>
       </c>
-      <c r="M59" s="8">
+      <c r="M59" s="6">
         <v>127</v>
       </c>
-      <c r="N59" s="8">
+      <c r="N59" s="6">
         <f t="shared" si="5"/>
         <v>0.98449612403100772</v>
       </c>
-      <c r="O59" s="20">
+      <c r="O59" s="14">
         <v>125</v>
       </c>
-      <c r="P59" s="20">
+      <c r="P59" s="14">
         <f t="shared" si="6"/>
         <v>0.96899224806201545</v>
       </c>
-      <c r="Q59" s="11">
+      <c r="Q59" s="8">
         <v>129</v>
       </c>
-      <c r="R59" s="11">
+      <c r="R59" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S59" s="14">
+      <c r="S59" s="10">
         <v>123</v>
       </c>
-      <c r="T59" s="14">
+      <c r="T59" s="10">
         <f t="shared" si="8"/>
         <v>0.95348837209302328</v>
       </c>
@@ -5711,10 +5787,10 @@
         <f t="shared" si="9"/>
         <v>0.89147286821705429</v>
       </c>
-      <c r="W59" s="17">
+      <c r="W59" s="12">
         <v>54</v>
       </c>
-      <c r="X59" s="17">
+      <c r="X59" s="12">
         <f t="shared" si="10"/>
         <v>0.41860465116279072</v>
       </c>
@@ -5726,10 +5802,10 @@
       <c r="B60" s="2">
         <v>17</v>
       </c>
-      <c r="C60" s="17">
-        <v>5</v>
-      </c>
-      <c r="D60" s="17">
+      <c r="C60" s="12">
+        <v>5</v>
+      </c>
+      <c r="D60" s="12">
         <f t="shared" si="0"/>
         <v>0.29411764705882354</v>
       </c>
@@ -5740,52 +5816,52 @@
         <f t="shared" si="1"/>
         <v>0.6470588235294118</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="10">
         <v>17</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="8">
         <v>17</v>
       </c>
-      <c r="J60" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K60" s="20">
+      <c r="J60" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K60" s="14">
         <v>17</v>
       </c>
-      <c r="L60" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M60" s="8">
+      <c r="L60" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M60" s="6">
         <v>17</v>
       </c>
-      <c r="N60" s="8">
+      <c r="N60" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O60" s="20">
+      <c r="O60" s="14">
         <v>17</v>
       </c>
-      <c r="P60" s="20">
+      <c r="P60" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q60" s="11">
+      <c r="Q60" s="8">
         <v>17</v>
       </c>
-      <c r="R60" s="11">
+      <c r="R60" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S60" s="14">
+      <c r="S60" s="10">
         <v>15</v>
       </c>
-      <c r="T60" s="14">
+      <c r="T60" s="10">
         <f t="shared" si="8"/>
         <v>0.88235294117647056</v>
       </c>
@@ -5796,10 +5872,10 @@
         <f t="shared" si="9"/>
         <v>0.6470588235294118</v>
       </c>
-      <c r="W60" s="17">
+      <c r="W60" s="12">
         <v>3</v>
       </c>
-      <c r="X60" s="17">
+      <c r="X60" s="12">
         <f t="shared" si="10"/>
         <v>0.17647058823529413</v>
       </c>
@@ -5811,10 +5887,10 @@
       <c r="B61" s="2">
         <v>34</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="12">
         <v>9</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="12">
         <f t="shared" si="0"/>
         <v>0.26470588235294118</v>
       </c>
@@ -5825,52 +5901,52 @@
         <f t="shared" si="1"/>
         <v>0.70588235294117652</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="10">
         <v>29</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="10">
         <f t="shared" si="2"/>
         <v>0.8529411764705882</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="8">
         <v>32</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J61" s="8">
         <f t="shared" si="3"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="K61" s="20">
+      <c r="K61" s="14">
         <v>34</v>
       </c>
-      <c r="L61" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M61" s="8">
+      <c r="L61" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M61" s="6">
         <v>34</v>
       </c>
-      <c r="N61" s="8">
+      <c r="N61" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O61" s="20">
+      <c r="O61" s="14">
         <v>32</v>
       </c>
-      <c r="P61" s="20">
+      <c r="P61" s="14">
         <f t="shared" si="6"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="Q61" s="11">
+      <c r="Q61" s="8">
         <v>31</v>
       </c>
-      <c r="R61" s="11">
+      <c r="R61" s="8">
         <f t="shared" si="7"/>
         <v>0.91176470588235292</v>
       </c>
-      <c r="S61" s="14">
+      <c r="S61" s="10">
         <v>29</v>
       </c>
-      <c r="T61" s="14">
+      <c r="T61" s="10">
         <f t="shared" si="8"/>
         <v>0.8529411764705882</v>
       </c>
@@ -5881,10 +5957,10 @@
         <f t="shared" si="9"/>
         <v>0.52941176470588236</v>
       </c>
-      <c r="W61" s="17">
-        <v>5</v>
-      </c>
-      <c r="X61" s="17">
+      <c r="W61" s="12">
+        <v>5</v>
+      </c>
+      <c r="X61" s="12">
         <f t="shared" si="10"/>
         <v>0.14705882352941177</v>
       </c>
@@ -5896,10 +5972,10 @@
       <c r="B62" s="2">
         <v>9</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="12">
         <v>0</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5910,52 +5986,52 @@
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="10">
         <v>7</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="10">
         <f t="shared" si="2"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="8">
         <v>9</v>
       </c>
-      <c r="J62" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K62" s="20">
+      <c r="J62" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K62" s="14">
         <v>9</v>
       </c>
-      <c r="L62" s="20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M62" s="8">
+      <c r="L62" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M62" s="6">
         <v>9</v>
       </c>
-      <c r="N62" s="8">
+      <c r="N62" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O62" s="20">
+      <c r="O62" s="14">
         <v>9</v>
       </c>
-      <c r="P62" s="20">
+      <c r="P62" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q62" s="11">
+      <c r="Q62" s="8">
         <v>8</v>
       </c>
-      <c r="R62" s="11">
+      <c r="R62" s="8">
         <f t="shared" si="7"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="S62" s="14">
+      <c r="S62" s="10">
         <v>8</v>
       </c>
-      <c r="T62" s="14">
+      <c r="T62" s="10">
         <f t="shared" si="8"/>
         <v>0.88888888888888884</v>
       </c>
@@ -5966,77 +6042,86 @@
         <f t="shared" si="9"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="W62" s="17">
+      <c r="W62" s="12">
         <v>2</v>
       </c>
-      <c r="X62" s="17">
+      <c r="X62" s="12">
         <f t="shared" si="10"/>
         <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="63" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24">
+      <c r="B63" s="18"/>
+      <c r="C63" s="18">
         <f xml:space="preserve"> SUM(D3:D62)/COUNTA(D3:D62)</f>
         <v>0.2582469024891369</v>
       </c>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24">
+      <c r="D63" s="18"/>
+      <c r="E63" s="18">
         <f t="shared" ref="E63" si="11" xml:space="preserve"> SUM(F3:F62)/COUNTA(F3:F62)</f>
         <v>0.72557645749935085</v>
       </c>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24">
+      <c r="F63" s="18"/>
+      <c r="G63" s="18">
         <f t="shared" ref="G63" si="12" xml:space="preserve"> SUM(H3:H62)/COUNTA(H3:H62)</f>
         <v>0.94080393461724454</v>
       </c>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24">
+      <c r="H63" s="18"/>
+      <c r="I63" s="18">
         <f t="shared" ref="I63" si="13" xml:space="preserve"> SUM(J3:J62)/COUNTA(J3:J62)</f>
         <v>0.97235472076924767</v>
       </c>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24">
+      <c r="J63" s="18"/>
+      <c r="K63" s="18">
         <f t="shared" ref="K63" si="14" xml:space="preserve"> SUM(L3:L62)/COUNTA(L3:L62)</f>
         <v>0.99014926258073988</v>
       </c>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24">
+      <c r="L63" s="18"/>
+      <c r="M63" s="18">
         <f t="shared" ref="M63" si="15" xml:space="preserve"> SUM(N3:N62)/COUNTA(N3:N62)</f>
         <v>0.99669693810114812</v>
       </c>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24">
+      <c r="N63" s="18"/>
+      <c r="O63" s="18">
         <f xml:space="preserve"> SUM(P3:P62)/COUNTA(P3:P62)</f>
         <v>0.9915064030823012</v>
       </c>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24">
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18">
         <f xml:space="preserve"> SUM(R3:R62)/COUNTA(R3:R62)</f>
         <v>0.9751210975712018</v>
       </c>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24">
+      <c r="R63" s="18"/>
+      <c r="S63" s="18">
         <f xml:space="preserve"> SUM(T3:T62)/COUNTA(T3:T62)</f>
         <v>0.96145584194921141</v>
       </c>
-      <c r="T63" s="24"/>
-      <c r="U63" s="24">
+      <c r="T63" s="18"/>
+      <c r="U63" s="18">
         <f xml:space="preserve"> SUM(V3:V62)/COUNTA(V3:V62)</f>
         <v>0.81239945458186213</v>
       </c>
-      <c r="V63" s="24"/>
-      <c r="W63" s="24">
+      <c r="V63" s="18"/>
+      <c r="W63" s="18">
         <f xml:space="preserve"> SUM(X3:X62)/COUNTA(X3:X62)</f>
         <v>0.35718340575483215</v>
       </c>
-      <c r="X63" s="24"/>
+      <c r="X63" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="S63:T63"/>
     <mergeCell ref="U63:V63"/>
     <mergeCell ref="W63:X63"/>
@@ -6051,19 +6136,2726 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27"/>
+      <c r="B1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="28"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>18</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17">
+        <f>C3/B3</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E3" s="14">
+        <v>18</v>
+      </c>
+      <c r="F3" s="14">
+        <f>E3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>18</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H34" si="0">G3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="14">
+        <v>18</v>
+      </c>
+      <c r="J3" s="14">
+        <f t="shared" ref="J3:J34" si="1">I3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="17">
+        <v>18</v>
+      </c>
+      <c r="L3" s="17">
+        <f t="shared" ref="L3:L34" si="2">K3/B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17">
+        <f t="shared" ref="D4:D62" si="3">C4/B4</f>
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>20</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" ref="F4:F62" si="4">E4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="14">
+        <v>20</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="17">
+        <v>20</v>
+      </c>
+      <c r="L4" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="3"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="E5" s="14">
+        <v>21</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>21</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="14">
+        <v>21</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="17">
+        <v>21</v>
+      </c>
+      <c r="L5" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>5</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="14">
+        <v>5</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="17">
+        <v>5</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>62</v>
+      </c>
+      <c r="C7" s="17">
+        <v>23</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="3"/>
+        <v>0.37096774193548387</v>
+      </c>
+      <c r="E7" s="14">
+        <v>62</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>62</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="14">
+        <v>62</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="17">
+        <v>61</v>
+      </c>
+      <c r="L7" s="17">
+        <f t="shared" si="2"/>
+        <v>0.9838709677419355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>27</v>
+      </c>
+      <c r="C8" s="17">
+        <v>4</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="3"/>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="E8" s="14">
+        <v>26</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="4"/>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="G8" s="6">
+        <v>26</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="I8" s="14">
+        <v>26</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="1"/>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="K8" s="17">
+        <v>26</v>
+      </c>
+      <c r="L8" s="17">
+        <f t="shared" si="2"/>
+        <v>0.96296296296296291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>14</v>
+      </c>
+      <c r="C9" s="17">
+        <v>5</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="3"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="E9" s="14">
+        <v>14</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>14</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="14">
+        <v>14</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="17">
+        <v>14</v>
+      </c>
+      <c r="L9" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="17">
+        <v>3</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="14">
+        <v>6</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>6</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="14">
+        <v>6</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="17">
+        <v>6</v>
+      </c>
+      <c r="L10" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>221</v>
+      </c>
+      <c r="C11" s="17">
+        <v>120</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="3"/>
+        <v>0.54298642533936647</v>
+      </c>
+      <c r="E11" s="14">
+        <v>221</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>220</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99547511312217196</v>
+      </c>
+      <c r="I11" s="14">
+        <v>221</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="17">
+        <v>220</v>
+      </c>
+      <c r="L11" s="17">
+        <f t="shared" si="2"/>
+        <v>0.99547511312217196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>16</v>
+      </c>
+      <c r="C12" s="17">
+        <v>5</v>
+      </c>
+      <c r="D12" s="17">
+        <f t="shared" si="3"/>
+        <v>0.3125</v>
+      </c>
+      <c r="E12" s="14">
+        <v>16</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>16</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
+        <v>16</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="17">
+        <v>16</v>
+      </c>
+      <c r="L12" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>106</v>
+      </c>
+      <c r="C13" s="17">
+        <v>46</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="3"/>
+        <v>0.43396226415094341</v>
+      </c>
+      <c r="E13" s="14">
+        <v>106</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>105</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99056603773584906</v>
+      </c>
+      <c r="I13" s="14">
+        <v>106</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="17">
+        <v>105</v>
+      </c>
+      <c r="L13" s="17">
+        <f t="shared" si="2"/>
+        <v>0.99056603773584906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+      <c r="C14" s="17">
+        <v>3</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="3"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E14" s="14">
+        <v>7</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>7</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="14">
+        <v>7</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="17">
+        <v>7</v>
+      </c>
+      <c r="L14" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>515</v>
+      </c>
+      <c r="C15" s="17">
+        <v>139</v>
+      </c>
+      <c r="D15" s="17">
+        <f t="shared" si="3"/>
+        <v>0.26990291262135924</v>
+      </c>
+      <c r="E15" s="14">
+        <v>513</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="4"/>
+        <v>0.99611650485436898</v>
+      </c>
+      <c r="G15" s="6">
+        <v>514</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99805825242718449</v>
+      </c>
+      <c r="I15" s="14">
+        <v>515</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="17">
+        <v>513</v>
+      </c>
+      <c r="L15" s="17">
+        <f t="shared" si="2"/>
+        <v>0.99611650485436898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>94</v>
+      </c>
+      <c r="C16" s="17">
+        <v>40</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="3"/>
+        <v>0.42553191489361702</v>
+      </c>
+      <c r="E16" s="14">
+        <v>93</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="4"/>
+        <v>0.98936170212765961</v>
+      </c>
+      <c r="G16" s="6">
+        <v>92</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.97872340425531912</v>
+      </c>
+      <c r="I16" s="14">
+        <v>93</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" si="1"/>
+        <v>0.98936170212765961</v>
+      </c>
+      <c r="K16" s="17">
+        <v>93</v>
+      </c>
+      <c r="L16" s="17">
+        <f t="shared" si="2"/>
+        <v>0.98936170212765961</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>29</v>
+      </c>
+      <c r="C17" s="17">
+        <v>7</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="3"/>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="E17" s="14">
+        <v>29</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>29</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="14">
+        <v>29</v>
+      </c>
+      <c r="J17" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="17">
+        <v>29</v>
+      </c>
+      <c r="L17" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>11</v>
+      </c>
+      <c r="C18" s="17">
+        <v>11</v>
+      </c>
+      <c r="D18" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="14">
+        <v>11</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>11</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="14">
+        <v>11</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="17">
+        <v>11</v>
+      </c>
+      <c r="L18" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>15</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E19" s="14">
+        <v>15</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>15</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="14">
+        <v>15</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="17">
+        <v>15</v>
+      </c>
+      <c r="L19" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7</v>
+      </c>
+      <c r="C20" s="17">
+        <v>2</v>
+      </c>
+      <c r="D20" s="17">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E20" s="14">
+        <v>7</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>7</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="14">
+        <v>7</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="17">
+        <v>7</v>
+      </c>
+      <c r="L20" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3</v>
+      </c>
+      <c r="D21" s="17">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="E21" s="14">
+        <v>24</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>24</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="14">
+        <v>24</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="17">
+        <v>24</v>
+      </c>
+      <c r="L21" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>56</v>
+      </c>
+      <c r="C22" s="17">
+        <v>23</v>
+      </c>
+      <c r="D22" s="17">
+        <f t="shared" si="3"/>
+        <v>0.4107142857142857</v>
+      </c>
+      <c r="E22" s="14">
+        <v>56</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>56</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="14">
+        <v>56</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="17">
+        <v>55</v>
+      </c>
+      <c r="L22" s="17">
+        <f t="shared" si="2"/>
+        <v>0.9821428571428571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="17">
+        <v>2</v>
+      </c>
+      <c r="D23" s="17">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="14">
+        <v>5</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>5</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="14">
+        <v>5</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="17">
+        <v>5</v>
+      </c>
+      <c r="L23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2">
+        <v>13</v>
+      </c>
+      <c r="C24" s="17">
+        <v>3</v>
+      </c>
+      <c r="D24" s="17">
+        <f t="shared" si="3"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="E24" s="14">
+        <v>13</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>13</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="14">
+        <v>13</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="17">
+        <v>13</v>
+      </c>
+      <c r="L24" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2">
+        <v>37</v>
+      </c>
+      <c r="C25" s="17">
+        <v>7</v>
+      </c>
+      <c r="D25" s="17">
+        <f t="shared" si="3"/>
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="E25" s="14">
+        <v>37</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>37</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="14">
+        <v>37</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="17">
+        <v>37</v>
+      </c>
+      <c r="L25" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2">
+        <v>40</v>
+      </c>
+      <c r="C26" s="17">
+        <v>23</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" si="3"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E26" s="14">
+        <v>40</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>40</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="14">
+        <v>40</v>
+      </c>
+      <c r="J26" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="17">
+        <v>40</v>
+      </c>
+      <c r="L26" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2">
+        <v>6</v>
+      </c>
+      <c r="C27" s="17">
+        <v>5</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E27" s="14">
+        <v>6</v>
+      </c>
+      <c r="F27" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>6</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="14">
+        <v>6</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="17">
+        <v>6</v>
+      </c>
+      <c r="L27" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="17">
+        <v>9</v>
+      </c>
+      <c r="D28" s="17">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E28" s="14">
+        <v>26</v>
+      </c>
+      <c r="F28" s="14">
+        <f t="shared" si="4"/>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="G28" s="6">
+        <v>26</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="I28" s="14">
+        <v>27</v>
+      </c>
+      <c r="J28" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="17">
+        <v>26</v>
+      </c>
+      <c r="L28" s="17">
+        <f t="shared" si="2"/>
+        <v>0.96296296296296291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
+        <v>6</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E29" s="14">
+        <v>6</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>6</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="14">
+        <v>6</v>
+      </c>
+      <c r="J29" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="17">
+        <v>6</v>
+      </c>
+      <c r="L29" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2">
+        <v>9</v>
+      </c>
+      <c r="C30" s="17">
+        <v>2</v>
+      </c>
+      <c r="D30" s="17">
+        <f t="shared" si="3"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E30" s="14">
+        <v>9</v>
+      </c>
+      <c r="F30" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <v>9</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="14">
+        <v>9</v>
+      </c>
+      <c r="J30" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="17">
+        <v>9</v>
+      </c>
+      <c r="L30" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0</v>
+      </c>
+      <c r="D31" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
+        <v>5</v>
+      </c>
+      <c r="F31" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>5</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="14">
+        <v>5</v>
+      </c>
+      <c r="J31" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="17">
+        <v>5</v>
+      </c>
+      <c r="L31" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2">
+        <v>38</v>
+      </c>
+      <c r="C32" s="17">
+        <v>15</v>
+      </c>
+      <c r="D32" s="17">
+        <f t="shared" si="3"/>
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="E32" s="14">
+        <v>38</v>
+      </c>
+      <c r="F32" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <v>38</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="14">
+        <v>38</v>
+      </c>
+      <c r="J32" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="17">
+        <v>38</v>
+      </c>
+      <c r="L32" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2">
+        <v>16</v>
+      </c>
+      <c r="C33" s="17">
+        <v>6</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="14">
+        <v>16</v>
+      </c>
+      <c r="F33" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
+        <v>16</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="14">
+        <v>16</v>
+      </c>
+      <c r="J33" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="17">
+        <v>16</v>
+      </c>
+      <c r="L33" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2">
+        <v>8</v>
+      </c>
+      <c r="C34" s="17">
+        <v>0</v>
+      </c>
+      <c r="D34" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <v>8</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="6">
+        <v>8</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="14">
+        <v>8</v>
+      </c>
+      <c r="J34" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="17">
+        <v>8</v>
+      </c>
+      <c r="L34" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2">
+        <v>13</v>
+      </c>
+      <c r="C35" s="17">
+        <v>1</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="E35" s="14">
+        <v>13</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>13</v>
+      </c>
+      <c r="H35" s="6">
+        <f t="shared" ref="H35:H62" si="5">G35/B35</f>
+        <v>1</v>
+      </c>
+      <c r="I35" s="14">
+        <v>13</v>
+      </c>
+      <c r="J35" s="14">
+        <f t="shared" ref="J35:J62" si="6">I35/B35</f>
+        <v>1</v>
+      </c>
+      <c r="K35" s="17">
+        <v>13</v>
+      </c>
+      <c r="L35" s="17">
+        <f t="shared" ref="L35:L62" si="7">K35/B35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45</v>
+      </c>
+      <c r="C36" s="17">
+        <v>9</v>
+      </c>
+      <c r="D36" s="17">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="E36" s="14">
+        <v>45</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="6">
+        <v>45</v>
+      </c>
+      <c r="H36" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="14">
+        <v>45</v>
+      </c>
+      <c r="J36" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="17">
+        <v>45</v>
+      </c>
+      <c r="L36" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2">
+        <v>17</v>
+      </c>
+      <c r="C37" s="17">
+        <v>6</v>
+      </c>
+      <c r="D37" s="17">
+        <f t="shared" si="3"/>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="E37" s="14">
+        <v>17</v>
+      </c>
+      <c r="F37" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="6">
+        <v>17</v>
+      </c>
+      <c r="H37" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="14">
+        <v>17</v>
+      </c>
+      <c r="J37" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="17">
+        <v>17</v>
+      </c>
+      <c r="L37" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2">
+        <v>26</v>
+      </c>
+      <c r="C38" s="17">
+        <v>3</v>
+      </c>
+      <c r="D38" s="17">
+        <f t="shared" si="3"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="E38" s="14">
+        <v>26</v>
+      </c>
+      <c r="F38" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="6">
+        <v>26</v>
+      </c>
+      <c r="H38" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="14">
+        <v>26</v>
+      </c>
+      <c r="J38" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="17">
+        <v>26</v>
+      </c>
+      <c r="L38" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2">
+        <v>7</v>
+      </c>
+      <c r="C39" s="17">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E39" s="14">
+        <v>7</v>
+      </c>
+      <c r="F39" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="6">
+        <v>7</v>
+      </c>
+      <c r="H39" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="14">
+        <v>7</v>
+      </c>
+      <c r="J39" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="17">
+        <v>7</v>
+      </c>
+      <c r="L39" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2">
+        <v>26</v>
+      </c>
+      <c r="C40" s="17">
+        <v>12</v>
+      </c>
+      <c r="D40" s="17">
+        <f t="shared" si="3"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="E40" s="14">
+        <v>26</v>
+      </c>
+      <c r="F40" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="6">
+        <v>26</v>
+      </c>
+      <c r="H40" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="14">
+        <v>26</v>
+      </c>
+      <c r="J40" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K40" s="17">
+        <v>26</v>
+      </c>
+      <c r="L40" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2">
+        <v>33</v>
+      </c>
+      <c r="C41" s="17">
+        <v>7</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" si="3"/>
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="E41" s="14">
+        <v>33</v>
+      </c>
+      <c r="F41" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="6">
+        <v>33</v>
+      </c>
+      <c r="H41" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="14">
+        <v>33</v>
+      </c>
+      <c r="J41" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="17">
+        <v>33</v>
+      </c>
+      <c r="L41" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2">
+        <v>14</v>
+      </c>
+      <c r="C42" s="17">
+        <v>3</v>
+      </c>
+      <c r="D42" s="17">
+        <f t="shared" si="3"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E42" s="14">
+        <v>13</v>
+      </c>
+      <c r="F42" s="14">
+        <f t="shared" si="4"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G42" s="6">
+        <v>13</v>
+      </c>
+      <c r="H42" s="6">
+        <f t="shared" si="5"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="I42" s="14">
+        <v>13</v>
+      </c>
+      <c r="J42" s="14">
+        <f t="shared" si="6"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="K42" s="17">
+        <v>13</v>
+      </c>
+      <c r="L42" s="17">
+        <f t="shared" si="7"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2">
+        <v>18</v>
+      </c>
+      <c r="C43" s="17">
+        <v>2</v>
+      </c>
+      <c r="D43" s="17">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E43" s="14">
+        <v>18</v>
+      </c>
+      <c r="F43" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="6">
+        <v>18</v>
+      </c>
+      <c r="H43" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="14">
+        <v>18</v>
+      </c>
+      <c r="J43" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="17">
+        <v>18</v>
+      </c>
+      <c r="L43" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2">
+        <v>5</v>
+      </c>
+      <c r="C44" s="17">
+        <v>2</v>
+      </c>
+      <c r="D44" s="17">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="E44" s="14">
+        <v>5</v>
+      </c>
+      <c r="F44" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="6">
+        <v>5</v>
+      </c>
+      <c r="H44" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I44" s="14">
+        <v>5</v>
+      </c>
+      <c r="J44" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K44" s="17">
+        <v>5</v>
+      </c>
+      <c r="L44" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2">
+        <v>7</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1</v>
+      </c>
+      <c r="D45" s="17">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E45" s="14">
+        <v>7</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="6">
+        <v>7</v>
+      </c>
+      <c r="H45" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I45" s="14">
+        <v>7</v>
+      </c>
+      <c r="J45" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K45" s="17">
+        <v>7</v>
+      </c>
+      <c r="L45" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2">
+        <v>22</v>
+      </c>
+      <c r="C46" s="17">
+        <v>3</v>
+      </c>
+      <c r="D46" s="17">
+        <f t="shared" si="3"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="E46" s="14">
+        <v>22</v>
+      </c>
+      <c r="F46" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="6">
+        <v>22</v>
+      </c>
+      <c r="H46" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="14">
+        <v>22</v>
+      </c>
+      <c r="J46" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K46" s="17">
+        <v>22</v>
+      </c>
+      <c r="L46" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2">
+        <v>5</v>
+      </c>
+      <c r="C47" s="17">
+        <v>3</v>
+      </c>
+      <c r="D47" s="17">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="E47" s="14">
+        <v>5</v>
+      </c>
+      <c r="F47" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="6">
+        <v>5</v>
+      </c>
+      <c r="H47" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I47" s="14">
+        <v>5</v>
+      </c>
+      <c r="J47" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K47" s="17">
+        <v>5</v>
+      </c>
+      <c r="L47" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2">
+        <v>7</v>
+      </c>
+      <c r="C48" s="17">
+        <v>1</v>
+      </c>
+      <c r="D48" s="17">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E48" s="14">
+        <v>7</v>
+      </c>
+      <c r="F48" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G48" s="6">
+        <v>7</v>
+      </c>
+      <c r="H48" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I48" s="14">
+        <v>7</v>
+      </c>
+      <c r="J48" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K48" s="17">
+        <v>7</v>
+      </c>
+      <c r="L48" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2">
+        <v>15</v>
+      </c>
+      <c r="C49" s="17">
+        <v>4</v>
+      </c>
+      <c r="D49" s="17">
+        <f t="shared" si="3"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E49" s="14">
+        <v>15</v>
+      </c>
+      <c r="F49" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G49" s="6">
+        <v>15</v>
+      </c>
+      <c r="H49" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I49" s="14">
+        <v>15</v>
+      </c>
+      <c r="J49" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K49" s="17">
+        <v>14</v>
+      </c>
+      <c r="L49" s="17">
+        <f t="shared" si="7"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2">
+        <v>12</v>
+      </c>
+      <c r="C50" s="17">
+        <v>8</v>
+      </c>
+      <c r="D50" s="17">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E50" s="14">
+        <v>12</v>
+      </c>
+      <c r="F50" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G50" s="6">
+        <v>12</v>
+      </c>
+      <c r="H50" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I50" s="14">
+        <v>12</v>
+      </c>
+      <c r="J50" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K50" s="17">
+        <v>12</v>
+      </c>
+      <c r="L50" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2">
+        <v>17</v>
+      </c>
+      <c r="C51" s="17">
+        <v>4</v>
+      </c>
+      <c r="D51" s="17">
+        <f t="shared" si="3"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="E51" s="14">
+        <v>17</v>
+      </c>
+      <c r="F51" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G51" s="6">
+        <v>17</v>
+      </c>
+      <c r="H51" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I51" s="14">
+        <v>1</v>
+      </c>
+      <c r="J51" s="14">
+        <f t="shared" si="6"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="K51" s="17">
+        <v>17</v>
+      </c>
+      <c r="L51" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2">
+        <v>11</v>
+      </c>
+      <c r="C52" s="17">
+        <v>0</v>
+      </c>
+      <c r="D52" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="14">
+        <v>11</v>
+      </c>
+      <c r="F52" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G52" s="6">
+        <v>11</v>
+      </c>
+      <c r="H52" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I52" s="14">
+        <v>11</v>
+      </c>
+      <c r="J52" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K52" s="17">
+        <v>11</v>
+      </c>
+      <c r="L52" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2">
+        <v>8</v>
+      </c>
+      <c r="C53" s="17">
+        <v>3</v>
+      </c>
+      <c r="D53" s="17">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="E53" s="14">
+        <v>7</v>
+      </c>
+      <c r="F53" s="14">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="G53" s="6">
+        <v>8</v>
+      </c>
+      <c r="H53" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I53" s="14">
+        <v>8</v>
+      </c>
+      <c r="J53" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K53" s="17">
+        <v>8</v>
+      </c>
+      <c r="L53" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2">
+        <v>37</v>
+      </c>
+      <c r="C54" s="17">
+        <v>13</v>
+      </c>
+      <c r="D54" s="17">
+        <f t="shared" si="3"/>
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="E54" s="14">
+        <v>37</v>
+      </c>
+      <c r="F54" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G54" s="6">
+        <v>37</v>
+      </c>
+      <c r="H54" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I54" s="14">
+        <v>37</v>
+      </c>
+      <c r="J54" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K54" s="17">
+        <v>37</v>
+      </c>
+      <c r="L54" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2">
+        <v>18</v>
+      </c>
+      <c r="C55" s="17">
+        <v>3</v>
+      </c>
+      <c r="D55" s="17">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E55" s="14">
+        <v>18</v>
+      </c>
+      <c r="F55" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G55" s="6">
+        <v>18</v>
+      </c>
+      <c r="H55" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I55" s="14">
+        <v>18</v>
+      </c>
+      <c r="J55" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="17">
+        <v>18</v>
+      </c>
+      <c r="L55" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2">
+        <v>8</v>
+      </c>
+      <c r="C56" s="17">
+        <v>4</v>
+      </c>
+      <c r="D56" s="17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="14">
+        <v>8</v>
+      </c>
+      <c r="F56" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G56" s="6">
+        <v>8</v>
+      </c>
+      <c r="H56" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I56" s="14">
+        <v>8</v>
+      </c>
+      <c r="J56" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K56" s="17">
+        <v>8</v>
+      </c>
+      <c r="L56" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2">
+        <v>10</v>
+      </c>
+      <c r="C57" s="17">
+        <v>4</v>
+      </c>
+      <c r="D57" s="17">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="E57" s="14">
+        <v>10</v>
+      </c>
+      <c r="F57" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G57" s="6">
+        <v>10</v>
+      </c>
+      <c r="H57" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I57" s="14">
+        <v>10</v>
+      </c>
+      <c r="J57" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K57" s="17">
+        <v>10</v>
+      </c>
+      <c r="L57" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2">
+        <v>18</v>
+      </c>
+      <c r="C58" s="17">
+        <v>8</v>
+      </c>
+      <c r="D58" s="17">
+        <f t="shared" si="3"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E58" s="14">
+        <v>18</v>
+      </c>
+      <c r="F58" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G58" s="6">
+        <v>18</v>
+      </c>
+      <c r="H58" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I58" s="14">
+        <v>18</v>
+      </c>
+      <c r="J58" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="17">
+        <v>18</v>
+      </c>
+      <c r="L58" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2">
+        <v>129</v>
+      </c>
+      <c r="C59" s="17">
+        <v>43</v>
+      </c>
+      <c r="D59" s="17">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E59" s="14">
+        <v>127</v>
+      </c>
+      <c r="F59" s="14">
+        <f t="shared" si="4"/>
+        <v>0.98449612403100772</v>
+      </c>
+      <c r="G59" s="6">
+        <v>127</v>
+      </c>
+      <c r="H59" s="6">
+        <f t="shared" si="5"/>
+        <v>0.98449612403100772</v>
+      </c>
+      <c r="I59" s="14">
+        <v>127</v>
+      </c>
+      <c r="J59" s="14">
+        <f t="shared" si="6"/>
+        <v>0.98449612403100772</v>
+      </c>
+      <c r="K59" s="17">
+        <v>128</v>
+      </c>
+      <c r="L59" s="17">
+        <f t="shared" si="7"/>
+        <v>0.99224806201550386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2">
+        <v>17</v>
+      </c>
+      <c r="C60" s="17">
+        <v>4</v>
+      </c>
+      <c r="D60" s="17">
+        <f t="shared" si="3"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="E60" s="14">
+        <v>17</v>
+      </c>
+      <c r="F60" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G60" s="6">
+        <v>17</v>
+      </c>
+      <c r="H60" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I60" s="14">
+        <v>17</v>
+      </c>
+      <c r="J60" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K60" s="17">
+        <v>17</v>
+      </c>
+      <c r="L60" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2">
+        <v>34</v>
+      </c>
+      <c r="C61" s="17">
+        <v>12</v>
+      </c>
+      <c r="D61" s="17">
+        <f t="shared" si="3"/>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="E61" s="14">
+        <v>34</v>
+      </c>
+      <c r="F61" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G61" s="6">
+        <v>34</v>
+      </c>
+      <c r="H61" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I61" s="14">
+        <v>34</v>
+      </c>
+      <c r="J61" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K61" s="17">
+        <v>34</v>
+      </c>
+      <c r="L61" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2">
+        <v>9</v>
+      </c>
+      <c r="C62" s="17">
+        <v>1</v>
+      </c>
+      <c r="D62" s="17">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E62" s="14">
+        <v>9</v>
+      </c>
+      <c r="F62" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="6">
+        <v>9</v>
+      </c>
+      <c r="H62" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I62" s="14">
+        <v>9</v>
+      </c>
+      <c r="J62" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K62" s="17">
+        <v>9</v>
+      </c>
+      <c r="L62" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="33">
+        <f xml:space="preserve"> SUM(D3:D62)/COUNTA(D3:D62)</f>
+        <v>0.29727759154739403</v>
+      </c>
+      <c r="D63" s="34"/>
+      <c r="E63" s="33">
+        <f xml:space="preserve"> SUM(F3:F62)/COUNTA(F3:F62)</f>
+        <v>0.9949911947585065</v>
+      </c>
+      <c r="F63" s="34"/>
+      <c r="G63" s="18">
+        <f t="shared" ref="G63" si="8" xml:space="preserve"> SUM(H3:H62)/COUNTA(H3:H62)</f>
+        <v>0.99669693810114812</v>
+      </c>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18">
+        <f xml:space="preserve"> SUM(J3:J62)/COUNTA(J3:J62)</f>
+        <v>0.98207026245174711</v>
+      </c>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18">
+        <f xml:space="preserve"> SUM(L3:L62)/COUNTA(L3:L62)</f>
+        <v>0.99529353220951733</v>
+      </c>
+      <c r="L63" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/statistic.xlsx
+++ b/statistic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="73">
   <si>
     <t>Alejandro_Toledo</t>
   </si>
@@ -223,6 +223,18 @@
   <si>
     <t>x0.25</t>
   </si>
+  <si>
+    <t>x0.3</t>
+  </si>
+  <si>
+    <t>x0.35</t>
+  </si>
+  <si>
+    <t>x0.4</t>
+  </si>
+  <si>
+    <t>x0.45</t>
+  </si>
 </sst>
 </file>
 
@@ -245,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,8 +312,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -376,37 +400,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -441,7 +439,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -456,28 +478,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -486,11 +487,43 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,58 +864,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27"/>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="25">
+      <c r="C1" s="22">
         <v>-50</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="24">
+      <c r="D1" s="22"/>
+      <c r="E1" s="23">
         <v>-40</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="23">
+      <c r="F1" s="23"/>
+      <c r="G1" s="24">
         <v>-30</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="22">
+      <c r="H1" s="24"/>
+      <c r="I1" s="30">
         <v>-20</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="21">
+      <c r="J1" s="30"/>
+      <c r="K1" s="29">
         <v>-10</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="19">
+      <c r="L1" s="29"/>
+      <c r="M1" s="27">
         <v>0</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21">
+      <c r="N1" s="28"/>
+      <c r="O1" s="29">
         <v>10</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="22">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="30">
         <v>20</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="23">
+      <c r="R1" s="30"/>
+      <c r="S1" s="24">
         <v>30</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="24">
+      <c r="T1" s="24"/>
+      <c r="U1" s="23">
         <v>40</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="25">
+      <c r="V1" s="23"/>
+      <c r="W1" s="22">
         <v>50</v>
       </c>
-      <c r="X1" s="25"/>
+      <c r="X1" s="22"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="11" t="s">
         <v>63</v>
       </c>
@@ -6051,77 +6084,68 @@
       </c>
     </row>
     <row r="63" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18">
+      <c r="B63" s="21"/>
+      <c r="C63" s="21">
         <f xml:space="preserve"> SUM(D3:D62)/COUNTA(D3:D62)</f>
         <v>0.2582469024891369</v>
       </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18">
+      <c r="D63" s="21"/>
+      <c r="E63" s="21">
         <f t="shared" ref="E63" si="11" xml:space="preserve"> SUM(F3:F62)/COUNTA(F3:F62)</f>
         <v>0.72557645749935085</v>
       </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18">
+      <c r="F63" s="21"/>
+      <c r="G63" s="21">
         <f t="shared" ref="G63" si="12" xml:space="preserve"> SUM(H3:H62)/COUNTA(H3:H62)</f>
         <v>0.94080393461724454</v>
       </c>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18">
+      <c r="H63" s="21"/>
+      <c r="I63" s="21">
         <f t="shared" ref="I63" si="13" xml:space="preserve"> SUM(J3:J62)/COUNTA(J3:J62)</f>
         <v>0.97235472076924767</v>
       </c>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18">
+      <c r="J63" s="21"/>
+      <c r="K63" s="21">
         <f t="shared" ref="K63" si="14" xml:space="preserve"> SUM(L3:L62)/COUNTA(L3:L62)</f>
         <v>0.99014926258073988</v>
       </c>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18">
+      <c r="L63" s="21"/>
+      <c r="M63" s="21">
         <f t="shared" ref="M63" si="15" xml:space="preserve"> SUM(N3:N62)/COUNTA(N3:N62)</f>
         <v>0.99669693810114812</v>
       </c>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18">
+      <c r="N63" s="21"/>
+      <c r="O63" s="21">
         <f xml:space="preserve"> SUM(P3:P62)/COUNTA(P3:P62)</f>
         <v>0.9915064030823012</v>
       </c>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18">
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21">
         <f xml:space="preserve"> SUM(R3:R62)/COUNTA(R3:R62)</f>
         <v>0.9751210975712018</v>
       </c>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18">
+      <c r="R63" s="21"/>
+      <c r="S63" s="21">
         <f xml:space="preserve"> SUM(T3:T62)/COUNTA(T3:T62)</f>
         <v>0.96145584194921141</v>
       </c>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18">
+      <c r="T63" s="21"/>
+      <c r="U63" s="21">
         <f xml:space="preserve"> SUM(V3:V62)/COUNTA(V3:V62)</f>
         <v>0.81239945458186213</v>
       </c>
-      <c r="V63" s="18"/>
-      <c r="W63" s="18">
+      <c r="V63" s="21"/>
+      <c r="W63" s="21">
         <f xml:space="preserve"> SUM(X3:X62)/COUNTA(X3:X62)</f>
         <v>0.35718340575483215</v>
       </c>
-      <c r="X63" s="18"/>
+      <c r="X63" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="S63:T63"/>
     <mergeCell ref="U63:V63"/>
     <mergeCell ref="W63:X63"/>
@@ -6138,6 +6162,15 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6146,2714 +6179,4469 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.7109375" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27"/>
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26"/>
+      <c r="B1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="47"/>
+      <c r="M1" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="19" t="s">
+      <c r="N1" s="33"/>
+      <c r="O1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="S1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="28"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="16" t="s">
+      <c r="T1" s="31"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>18</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="39">
         <v>2</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="39">
         <f>C3/B3</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
+        <v>16</v>
+      </c>
+      <c r="F3" s="12">
+        <f>E3/B3</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G3" s="10">
         <v>18</v>
       </c>
-      <c r="F3" s="14">
-        <f>E3/B3</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="H3" s="10">
+        <f>G3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="45">
         <v>18</v>
       </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H34" si="0">G3/B3</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="14">
+      <c r="J3" s="45">
+        <f>I3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
         <v>18</v>
       </c>
-      <c r="J3" s="14">
-        <f t="shared" ref="J3:J34" si="1">I3/B3</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="17">
+      <c r="L3" s="8">
+        <f>K3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="14">
         <v>18</v>
       </c>
-      <c r="L3" s="17">
-        <f t="shared" ref="L3:L34" si="2">K3/B3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N3" s="14">
+        <f>M3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>18</v>
+      </c>
+      <c r="P3" s="6">
+        <f>O3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>18</v>
+      </c>
+      <c r="R3" s="14">
+        <f>Q3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="17">
+        <v>18</v>
+      </c>
+      <c r="T3" s="17">
+        <f>S3/B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>20</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="39">
         <v>2</v>
       </c>
-      <c r="D4" s="17">
-        <f t="shared" ref="D4:D62" si="3">C4/B4</f>
+      <c r="D4" s="39">
+        <f t="shared" ref="D4:D62" si="0">C4/B4</f>
         <v>0.1</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
+        <v>19</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F62" si="1">E4/B4</f>
+        <v>0.95</v>
+      </c>
+      <c r="G4" s="10">
         <v>20</v>
       </c>
-      <c r="F4" s="14">
-        <f t="shared" ref="F4:F62" si="4">E4/B4</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="H4" s="10">
+        <f t="shared" ref="H4:H62" si="2">G4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="45">
+        <v>19</v>
+      </c>
+      <c r="J4" s="45">
+        <f t="shared" ref="J4:J62" si="3">I4/B4</f>
+        <v>0.95</v>
+      </c>
+      <c r="K4" s="8">
         <v>20</v>
       </c>
-      <c r="H4" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I4" s="14">
+      <c r="L4" s="8">
+        <f t="shared" ref="L4:L62" si="4">K4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="14">
         <v>20</v>
       </c>
-      <c r="J4" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K4" s="17">
+      <c r="N4" s="14">
+        <f>M4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="6">
         <v>20</v>
       </c>
-      <c r="L4" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P4" s="6">
+        <f>O4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>20</v>
+      </c>
+      <c r="R4" s="14">
+        <f>Q4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="17">
+        <v>20</v>
+      </c>
+      <c r="T4" s="17">
+        <f>S4/B4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>21</v>
       </c>
-      <c r="C5" s="17">
-        <v>5</v>
-      </c>
-      <c r="D5" s="17">
-        <f t="shared" si="3"/>
+      <c r="C5" s="39">
+        <v>5</v>
+      </c>
+      <c r="D5" s="39">
+        <f t="shared" si="0"/>
         <v>0.23809523809523808</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
+        <v>20</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="1"/>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="G5" s="10">
         <v>21</v>
       </c>
-      <c r="F5" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="H5" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="45">
         <v>21</v>
       </c>
-      <c r="H5" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="J5" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
         <v>21</v>
       </c>
-      <c r="J5" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="17">
+      <c r="L5" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="14">
         <v>21</v>
       </c>
-      <c r="L5" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N5" s="14">
+        <f>M5/B5</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="6">
+        <v>21</v>
+      </c>
+      <c r="P5" s="6">
+        <f>O5/B5</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>21</v>
+      </c>
+      <c r="R5" s="14">
+        <f>Q5/B5</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="17">
+        <v>21</v>
+      </c>
+      <c r="T5" s="17">
+        <f>S5/B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="39">
         <v>0</v>
       </c>
-      <c r="D6" s="17">
-        <f t="shared" si="3"/>
+      <c r="D6" s="39">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="14">
-        <v>5</v>
-      </c>
-      <c r="F6" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I6" s="14">
-        <v>5</v>
-      </c>
-      <c r="J6" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="17">
-        <v>5</v>
-      </c>
-      <c r="L6" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="12">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="45">
+        <v>5</v>
+      </c>
+      <c r="J6" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>5</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="14">
+        <v>5</v>
+      </c>
+      <c r="N6" s="14">
+        <f>M6/B6</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>5</v>
+      </c>
+      <c r="P6" s="6">
+        <f>O6/B6</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>5</v>
+      </c>
+      <c r="R6" s="14">
+        <f>Q6/B6</f>
+        <v>1</v>
+      </c>
+      <c r="S6" s="17">
+        <v>5</v>
+      </c>
+      <c r="T6" s="17">
+        <f>S6/B6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>62</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="39">
         <v>23</v>
       </c>
-      <c r="D7" s="17">
-        <f t="shared" si="3"/>
+      <c r="D7" s="39">
+        <f t="shared" si="0"/>
         <v>0.37096774193548387</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
+        <v>57</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="1"/>
+        <v>0.91935483870967738</v>
+      </c>
+      <c r="G7" s="10">
         <v>62</v>
       </c>
-      <c r="F7" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="H7" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="45">
+        <v>59</v>
+      </c>
+      <c r="J7" s="45">
+        <f t="shared" si="3"/>
+        <v>0.95161290322580649</v>
+      </c>
+      <c r="K7" s="8">
+        <v>60</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="4"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="M7" s="14">
         <v>62</v>
       </c>
-      <c r="H7" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="14">
+      <c r="N7" s="14">
+        <f>M7/B7</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
         <v>62</v>
       </c>
-      <c r="J7" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="17">
+      <c r="P7" s="6">
+        <f>O7/B7</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>62</v>
+      </c>
+      <c r="R7" s="14">
+        <f>Q7/B7</f>
+        <v>1</v>
+      </c>
+      <c r="S7" s="17">
         <v>61</v>
       </c>
-      <c r="L7" s="17">
-        <f t="shared" si="2"/>
+      <c r="T7" s="17">
+        <f>S7/B7</f>
         <v>0.9838709677419355</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>27</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="39">
         <v>4</v>
       </c>
-      <c r="D8" s="17">
-        <f t="shared" si="3"/>
+      <c r="D8" s="39">
+        <f t="shared" si="0"/>
         <v>0.14814814814814814</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
+        <v>23</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="1"/>
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="G8" s="10">
         <v>26</v>
       </c>
-      <c r="F8" s="14">
-        <f t="shared" si="4"/>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="G8" s="6">
+      <c r="I8" s="45">
         <v>26</v>
       </c>
-      <c r="H8" s="6">
-        <f t="shared" si="0"/>
+      <c r="J8" s="45">
+        <f t="shared" si="3"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="I8" s="14">
+      <c r="K8" s="8">
         <v>26</v>
       </c>
-      <c r="J8" s="14">
-        <f t="shared" si="1"/>
+      <c r="L8" s="8">
+        <f t="shared" si="4"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="K8" s="17">
+      <c r="M8" s="14">
         <v>26</v>
       </c>
-      <c r="L8" s="17">
-        <f t="shared" si="2"/>
+      <c r="N8" s="14">
+        <f>M8/B8</f>
         <v>0.96296296296296291</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O8" s="6">
+        <v>26</v>
+      </c>
+      <c r="P8" s="6">
+        <f>O8/B8</f>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>26</v>
+      </c>
+      <c r="R8" s="14">
+        <f>Q8/B8</f>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="S8" s="17">
+        <v>26</v>
+      </c>
+      <c r="T8" s="17">
+        <f>S8/B8</f>
+        <v>0.96296296296296291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>14</v>
       </c>
-      <c r="C9" s="17">
-        <v>5</v>
-      </c>
-      <c r="D9" s="17">
-        <f t="shared" si="3"/>
+      <c r="C9" s="39">
+        <v>5</v>
+      </c>
+      <c r="D9" s="39">
+        <f t="shared" si="0"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G9" s="10">
         <v>14</v>
       </c>
-      <c r="F9" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="H9" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="45">
         <v>14</v>
       </c>
-      <c r="H9" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="14">
+      <c r="J9" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
         <v>14</v>
       </c>
-      <c r="J9" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="17">
+      <c r="L9" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="14">
         <v>14</v>
       </c>
-      <c r="L9" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N9" s="14">
+        <f>M9/B9</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="6">
+        <v>14</v>
+      </c>
+      <c r="P9" s="6">
+        <f>O9/B9</f>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>14</v>
+      </c>
+      <c r="R9" s="14">
+        <f>Q9/B9</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="17">
+        <v>14</v>
+      </c>
+      <c r="T9" s="17">
+        <f>S9/B9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="39">
         <v>3</v>
       </c>
-      <c r="D10" s="17">
-        <f t="shared" si="3"/>
+      <c r="D10" s="39">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>6</v>
       </c>
-      <c r="F10" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
         <v>6</v>
       </c>
-      <c r="H10" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="14">
+      <c r="H10" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="45">
         <v>6</v>
       </c>
-      <c r="J10" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="17">
+      <c r="J10" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
         <v>6</v>
       </c>
-      <c r="L10" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="14">
+        <v>6</v>
+      </c>
+      <c r="N10" s="14">
+        <f>M10/B10</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>6</v>
+      </c>
+      <c r="P10" s="6">
+        <f>O10/B10</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>6</v>
+      </c>
+      <c r="R10" s="14">
+        <f>Q10/B10</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="17">
+        <v>6</v>
+      </c>
+      <c r="T10" s="17">
+        <f>S10/B10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>221</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="39">
         <v>120</v>
       </c>
-      <c r="D11" s="17">
-        <f t="shared" si="3"/>
+      <c r="D11" s="39">
+        <f t="shared" si="0"/>
         <v>0.54298642533936647</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
+        <v>219</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="1"/>
+        <v>0.99095022624434392</v>
+      </c>
+      <c r="G11" s="10">
         <v>221</v>
       </c>
-      <c r="F11" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="45">
         <v>220</v>
       </c>
-      <c r="H11" s="6">
-        <f t="shared" si="0"/>
+      <c r="J11" s="45">
+        <f t="shared" si="3"/>
         <v>0.99547511312217196</v>
       </c>
-      <c r="I11" s="14">
+      <c r="K11" s="8">
         <v>221</v>
       </c>
-      <c r="J11" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="17">
+      <c r="L11" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="14">
+        <v>221</v>
+      </c>
+      <c r="N11" s="14">
+        <f>M11/B11</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
         <v>220</v>
       </c>
-      <c r="L11" s="17">
-        <f t="shared" si="2"/>
+      <c r="P11" s="6">
+        <f>O11/B11</f>
         <v>0.99547511312217196</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q11" s="14">
+        <v>221</v>
+      </c>
+      <c r="R11" s="14">
+        <f>Q11/B11</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="17">
+        <v>220</v>
+      </c>
+      <c r="T11" s="17">
+        <f>S11/B11</f>
+        <v>0.99547511312217196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2">
         <v>16</v>
       </c>
-      <c r="C12" s="17">
-        <v>5</v>
-      </c>
-      <c r="D12" s="17">
-        <f t="shared" si="3"/>
+      <c r="C12" s="39">
+        <v>5</v>
+      </c>
+      <c r="D12" s="39">
+        <f t="shared" si="0"/>
         <v>0.3125</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
+        <v>15</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9375</v>
+      </c>
+      <c r="G12" s="10">
         <v>16</v>
       </c>
-      <c r="F12" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="H12" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="45">
         <v>16</v>
       </c>
-      <c r="H12" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I12" s="14">
+      <c r="J12" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>15</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="4"/>
+        <v>0.9375</v>
+      </c>
+      <c r="M12" s="14">
         <v>16</v>
       </c>
-      <c r="J12" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="17">
+      <c r="N12" s="14">
+        <f>M12/B12</f>
+        <v>1</v>
+      </c>
+      <c r="O12" s="6">
         <v>16</v>
       </c>
-      <c r="L12" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P12" s="6">
+        <f>O12/B12</f>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>16</v>
+      </c>
+      <c r="R12" s="14">
+        <f>Q12/B12</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="17">
+        <v>16</v>
+      </c>
+      <c r="T12" s="17">
+        <f>S12/B12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>106</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="39">
         <v>46</v>
       </c>
-      <c r="D13" s="17">
-        <f t="shared" si="3"/>
+      <c r="D13" s="39">
+        <f t="shared" si="0"/>
         <v>0.43396226415094341</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
+        <v>104</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="1"/>
+        <v>0.98113207547169812</v>
+      </c>
+      <c r="G13" s="10">
+        <v>105</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="2"/>
+        <v>0.99056603773584906</v>
+      </c>
+      <c r="I13" s="45">
+        <v>104</v>
+      </c>
+      <c r="J13" s="45">
+        <f t="shared" si="3"/>
+        <v>0.98113207547169812</v>
+      </c>
+      <c r="K13" s="8">
         <v>106</v>
       </c>
-      <c r="F13" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="L13" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="14">
+        <v>106</v>
+      </c>
+      <c r="N13" s="14">
+        <f>M13/B13</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="6">
         <v>105</v>
       </c>
-      <c r="H13" s="6">
-        <f t="shared" si="0"/>
+      <c r="P13" s="6">
+        <f>O13/B13</f>
         <v>0.99056603773584906</v>
       </c>
-      <c r="I13" s="14">
+      <c r="Q13" s="14">
         <v>106</v>
       </c>
-      <c r="J13" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K13" s="17">
+      <c r="R13" s="14">
+        <f>Q13/B13</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="17">
         <v>105</v>
       </c>
-      <c r="L13" s="17">
-        <f t="shared" si="2"/>
+      <c r="T13" s="17">
+        <f>S13/B13</f>
         <v>0.99056603773584906</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="39">
         <v>3</v>
       </c>
-      <c r="D14" s="17">
-        <f t="shared" si="3"/>
+      <c r="D14" s="39">
+        <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>7</v>
       </c>
-      <c r="F14" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="F14" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
         <v>7</v>
       </c>
-      <c r="H14" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="H14" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="45">
         <v>7</v>
       </c>
-      <c r="J14" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K14" s="17">
+      <c r="J14" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
         <v>7</v>
       </c>
-      <c r="L14" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="14">
+        <v>7</v>
+      </c>
+      <c r="N14" s="14">
+        <f>M14/B14</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="6">
+        <v>7</v>
+      </c>
+      <c r="P14" s="6">
+        <f>O14/B14</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>7</v>
+      </c>
+      <c r="R14" s="14">
+        <f>Q14/B14</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="17">
+        <v>7</v>
+      </c>
+      <c r="T14" s="17">
+        <f>S14/B14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2">
         <v>515</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="39">
         <v>139</v>
       </c>
-      <c r="D15" s="17">
-        <f t="shared" si="3"/>
+      <c r="D15" s="39">
+        <f t="shared" si="0"/>
         <v>0.26990291262135924</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
+        <v>486</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="1"/>
+        <v>0.94368932038834952</v>
+      </c>
+      <c r="G15" s="10">
+        <v>509</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.98834951456310682</v>
+      </c>
+      <c r="I15" s="45">
+        <v>511</v>
+      </c>
+      <c r="J15" s="45">
+        <f t="shared" si="3"/>
+        <v>0.99223300970873785</v>
+      </c>
+      <c r="K15" s="8">
         <v>513</v>
       </c>
-      <c r="F15" s="14">
+      <c r="L15" s="8">
         <f t="shared" si="4"/>
         <v>0.99611650485436898</v>
       </c>
-      <c r="G15" s="6">
+      <c r="M15" s="14">
+        <v>513</v>
+      </c>
+      <c r="N15" s="14">
+        <f>M15/B15</f>
+        <v>0.99611650485436898</v>
+      </c>
+      <c r="O15" s="6">
         <v>514</v>
       </c>
-      <c r="H15" s="6">
-        <f t="shared" si="0"/>
+      <c r="P15" s="6">
+        <f>O15/B15</f>
         <v>0.99805825242718449</v>
       </c>
-      <c r="I15" s="14">
+      <c r="Q15" s="14">
         <v>515</v>
       </c>
-      <c r="J15" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K15" s="17">
+      <c r="R15" s="14">
+        <f>Q15/B15</f>
+        <v>1</v>
+      </c>
+      <c r="S15" s="17">
         <v>513</v>
       </c>
-      <c r="L15" s="17">
-        <f t="shared" si="2"/>
+      <c r="T15" s="17">
+        <f>S15/B15</f>
         <v>0.99611650485436898</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2">
         <v>94</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="39">
         <v>40</v>
       </c>
-      <c r="D16" s="17">
-        <f t="shared" si="3"/>
+      <c r="D16" s="39">
+        <f t="shared" si="0"/>
         <v>0.42553191489361702</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
+        <v>89</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="1"/>
+        <v>0.94680851063829785</v>
+      </c>
+      <c r="G16" s="10">
+        <v>94</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="45">
+        <v>92</v>
+      </c>
+      <c r="J16" s="45">
+        <f t="shared" si="3"/>
+        <v>0.97872340425531912</v>
+      </c>
+      <c r="K16" s="8">
         <v>93</v>
       </c>
-      <c r="F16" s="14">
+      <c r="L16" s="8">
         <f t="shared" si="4"/>
         <v>0.98936170212765961</v>
       </c>
-      <c r="G16" s="6">
+      <c r="M16" s="14">
+        <v>93</v>
+      </c>
+      <c r="N16" s="14">
+        <f>M16/B16</f>
+        <v>0.98936170212765961</v>
+      </c>
+      <c r="O16" s="6">
         <v>92</v>
       </c>
-      <c r="H16" s="6">
-        <f t="shared" si="0"/>
+      <c r="P16" s="6">
+        <f>O16/B16</f>
         <v>0.97872340425531912</v>
       </c>
-      <c r="I16" s="14">
+      <c r="Q16" s="14">
         <v>93</v>
       </c>
-      <c r="J16" s="14">
-        <f t="shared" si="1"/>
+      <c r="R16" s="14">
+        <f>Q16/B16</f>
         <v>0.98936170212765961</v>
       </c>
-      <c r="K16" s="17">
+      <c r="S16" s="17">
         <v>93</v>
       </c>
-      <c r="L16" s="17">
-        <f t="shared" si="2"/>
+      <c r="T16" s="17">
+        <f>S16/B16</f>
         <v>0.98936170212765961</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="2">
         <v>29</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="39">
         <v>7</v>
       </c>
-      <c r="D17" s="17">
-        <f t="shared" si="3"/>
+      <c r="D17" s="39">
+        <f t="shared" si="0"/>
         <v>0.2413793103448276</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
+        <v>27</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="1"/>
+        <v>0.93103448275862066</v>
+      </c>
+      <c r="G17" s="10">
         <v>29</v>
       </c>
-      <c r="F17" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="H17" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="45">
         <v>29</v>
       </c>
-      <c r="H17" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="14">
+      <c r="J17" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
         <v>29</v>
       </c>
-      <c r="J17" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K17" s="17">
+      <c r="L17" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="14">
         <v>29</v>
       </c>
-      <c r="L17" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N17" s="14">
+        <f>M17/B17</f>
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>29</v>
+      </c>
+      <c r="P17" s="6">
+        <f>O17/B17</f>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>29</v>
+      </c>
+      <c r="R17" s="14">
+        <f>Q17/B17</f>
+        <v>1</v>
+      </c>
+      <c r="S17" s="17">
+        <v>29</v>
+      </c>
+      <c r="T17" s="17">
+        <f>S17/B17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="39">
         <v>11</v>
       </c>
-      <c r="D18" s="17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="D18" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="12">
+        <v>8</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="1"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G18" s="10">
         <v>11</v>
       </c>
-      <c r="F18" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="H18" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="45">
         <v>11</v>
       </c>
-      <c r="H18" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I18" s="14">
+      <c r="J18" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
         <v>11</v>
       </c>
-      <c r="J18" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K18" s="17">
+      <c r="L18" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="14">
         <v>11</v>
       </c>
-      <c r="L18" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18" s="14">
+        <f>M18/B18</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>11</v>
+      </c>
+      <c r="P18" s="6">
+        <f>O18/B18</f>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>11</v>
+      </c>
+      <c r="R18" s="14">
+        <f>Q18/B18</f>
+        <v>1</v>
+      </c>
+      <c r="S18" s="17">
+        <v>11</v>
+      </c>
+      <c r="T18" s="17">
+        <f>S18/B18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="17">
-        <v>1</v>
-      </c>
-      <c r="D19" s="17">
-        <f t="shared" si="3"/>
+      <c r="C19" s="39">
+        <v>1</v>
+      </c>
+      <c r="D19" s="39">
+        <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
+        <v>13</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G19" s="10">
         <v>15</v>
       </c>
-      <c r="F19" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="H19" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="45">
         <v>15</v>
       </c>
-      <c r="H19" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="J19" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="8">
         <v>15</v>
       </c>
-      <c r="J19" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K19" s="17">
+      <c r="L19" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="14">
         <v>15</v>
       </c>
-      <c r="L19" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19" s="14">
+        <f>M19/B19</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>15</v>
+      </c>
+      <c r="P19" s="6">
+        <f>O19/B19</f>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>15</v>
+      </c>
+      <c r="R19" s="14">
+        <f>Q19/B19</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="17">
+        <v>15</v>
+      </c>
+      <c r="T19" s="17">
+        <f>S19/B19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="2">
         <v>7</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="39">
         <v>2</v>
       </c>
-      <c r="D20" s="17">
-        <f t="shared" si="3"/>
+      <c r="D20" s="39">
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="12">
+        <v>6</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G20" s="10">
         <v>7</v>
       </c>
-      <c r="F20" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="H20" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="45">
         <v>7</v>
       </c>
-      <c r="H20" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I20" s="14">
+      <c r="J20" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
         <v>7</v>
       </c>
-      <c r="J20" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K20" s="17">
+      <c r="L20" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="14">
         <v>7</v>
       </c>
-      <c r="L20" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N20" s="14">
+        <f>M20/B20</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>7</v>
+      </c>
+      <c r="P20" s="6">
+        <f>O20/B20</f>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>7</v>
+      </c>
+      <c r="R20" s="14">
+        <f>Q20/B20</f>
+        <v>1</v>
+      </c>
+      <c r="S20" s="17">
+        <v>7</v>
+      </c>
+      <c r="T20" s="17">
+        <f>S20/B20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="2">
         <v>24</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="39">
         <v>3</v>
       </c>
-      <c r="D21" s="17">
-        <f t="shared" si="3"/>
+      <c r="D21" s="39">
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
+        <v>19</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="1"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G21" s="10">
         <v>24</v>
       </c>
-      <c r="F21" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="H21" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="45">
         <v>24</v>
       </c>
-      <c r="H21" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="14">
+      <c r="J21" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
         <v>24</v>
       </c>
-      <c r="J21" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="17">
+      <c r="L21" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="14">
         <v>24</v>
       </c>
-      <c r="L21" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21" s="14">
+        <f>M21/B21</f>
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
+        <v>24</v>
+      </c>
+      <c r="P21" s="6">
+        <f>O21/B21</f>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>24</v>
+      </c>
+      <c r="R21" s="14">
+        <f>Q21/B21</f>
+        <v>1</v>
+      </c>
+      <c r="S21" s="17">
+        <v>24</v>
+      </c>
+      <c r="T21" s="17">
+        <f>S21/B21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="2">
         <v>56</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="39">
         <v>23</v>
       </c>
-      <c r="D22" s="17">
-        <f t="shared" si="3"/>
+      <c r="D22" s="39">
+        <f t="shared" si="0"/>
         <v>0.4107142857142857</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="12">
+        <v>54</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="G22" s="10">
         <v>56</v>
       </c>
-      <c r="F22" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="H22" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="45">
+        <v>55</v>
+      </c>
+      <c r="J22" s="45">
+        <f t="shared" si="3"/>
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="K22" s="8">
         <v>56</v>
       </c>
-      <c r="H22" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I22" s="14">
+      <c r="L22" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="14">
         <v>56</v>
       </c>
-      <c r="J22" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K22" s="17">
+      <c r="N22" s="14">
+        <f>M22/B22</f>
+        <v>1</v>
+      </c>
+      <c r="O22" s="6">
+        <v>56</v>
+      </c>
+      <c r="P22" s="6">
+        <f>O22/B22</f>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>56</v>
+      </c>
+      <c r="R22" s="14">
+        <f>Q22/B22</f>
+        <v>1</v>
+      </c>
+      <c r="S22" s="17">
         <v>55</v>
       </c>
-      <c r="L22" s="17">
-        <f t="shared" si="2"/>
+      <c r="T22" s="17">
+        <f>S22/B22</f>
         <v>0.9821428571428571</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>5</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="39">
         <v>2</v>
       </c>
-      <c r="D23" s="17">
-        <f t="shared" si="3"/>
+      <c r="D23" s="39">
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="E23" s="14">
-        <v>5</v>
-      </c>
-      <c r="F23" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G23" s="6">
-        <v>5</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I23" s="14">
-        <v>5</v>
-      </c>
-      <c r="J23" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K23" s="17">
-        <v>5</v>
-      </c>
-      <c r="L23" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="12">
+        <v>5</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
+        <v>5</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="45">
+        <v>5</v>
+      </c>
+      <c r="J23" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="8">
+        <v>5</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M23" s="14">
+        <v>5</v>
+      </c>
+      <c r="N23" s="14">
+        <f>M23/B23</f>
+        <v>1</v>
+      </c>
+      <c r="O23" s="6">
+        <v>5</v>
+      </c>
+      <c r="P23" s="6">
+        <f>O23/B23</f>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>5</v>
+      </c>
+      <c r="R23" s="14">
+        <f>Q23/B23</f>
+        <v>1</v>
+      </c>
+      <c r="S23" s="17">
+        <v>5</v>
+      </c>
+      <c r="T23" s="17">
+        <f>S23/B23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>13</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="39">
         <v>3</v>
       </c>
-      <c r="D24" s="17">
-        <f t="shared" si="3"/>
+      <c r="D24" s="39">
+        <f t="shared" si="0"/>
         <v>0.23076923076923078</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="12">
+        <v>10</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="1"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="G24" s="10">
         <v>13</v>
       </c>
-      <c r="F24" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="H24" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="45">
         <v>13</v>
       </c>
-      <c r="H24" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I24" s="14">
+      <c r="J24" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="8">
         <v>13</v>
       </c>
-      <c r="J24" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K24" s="17">
+      <c r="L24" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="14">
         <v>13</v>
       </c>
-      <c r="L24" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N24" s="14">
+        <f>M24/B24</f>
+        <v>1</v>
+      </c>
+      <c r="O24" s="6">
+        <v>13</v>
+      </c>
+      <c r="P24" s="6">
+        <f>O24/B24</f>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>13</v>
+      </c>
+      <c r="R24" s="14">
+        <f>Q24/B24</f>
+        <v>1</v>
+      </c>
+      <c r="S24" s="17">
+        <v>13</v>
+      </c>
+      <c r="T24" s="17">
+        <f>S24/B24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>37</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="39">
         <v>7</v>
       </c>
-      <c r="D25" s="17">
-        <f t="shared" si="3"/>
+      <c r="D25" s="39">
+        <f t="shared" si="0"/>
         <v>0.1891891891891892</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="12">
+        <v>35</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="1"/>
+        <v>0.94594594594594594</v>
+      </c>
+      <c r="G25" s="10">
         <v>37</v>
       </c>
-      <c r="F25" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="H25" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="45">
         <v>37</v>
       </c>
-      <c r="H25" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I25" s="14">
+      <c r="J25" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="8">
         <v>37</v>
       </c>
-      <c r="J25" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="17">
+      <c r="L25" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="14">
         <v>37</v>
       </c>
-      <c r="L25" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N25" s="14">
+        <f>M25/B25</f>
+        <v>1</v>
+      </c>
+      <c r="O25" s="6">
+        <v>37</v>
+      </c>
+      <c r="P25" s="6">
+        <f>O25/B25</f>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>37</v>
+      </c>
+      <c r="R25" s="14">
+        <f>Q25/B25</f>
+        <v>1</v>
+      </c>
+      <c r="S25" s="17">
+        <v>37</v>
+      </c>
+      <c r="T25" s="17">
+        <f>S25/B25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>40</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="39">
         <v>23</v>
       </c>
-      <c r="D26" s="17">
-        <f t="shared" si="3"/>
+      <c r="D26" s="39">
+        <f t="shared" si="0"/>
         <v>0.57499999999999996</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="12">
+        <v>39</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="1"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G26" s="10">
         <v>40</v>
       </c>
-      <c r="F26" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="H26" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="45">
         <v>40</v>
       </c>
-      <c r="H26" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I26" s="14">
+      <c r="J26" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>39</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="4"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="M26" s="14">
         <v>40</v>
       </c>
-      <c r="J26" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="17">
+      <c r="N26" s="14">
+        <f>M26/B26</f>
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
         <v>40</v>
       </c>
-      <c r="L26" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P26" s="6">
+        <f>O26/B26</f>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>40</v>
+      </c>
+      <c r="R26" s="14">
+        <f>Q26/B26</f>
+        <v>1</v>
+      </c>
+      <c r="S26" s="17">
+        <v>40</v>
+      </c>
+      <c r="T26" s="17">
+        <f>S26/B26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="2">
         <v>6</v>
       </c>
-      <c r="C27" s="17">
-        <v>5</v>
-      </c>
-      <c r="D27" s="17">
-        <f t="shared" si="3"/>
+      <c r="C27" s="39">
+        <v>5</v>
+      </c>
+      <c r="D27" s="39">
+        <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="12">
         <v>6</v>
       </c>
-      <c r="F27" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="F27" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="10">
         <v>6</v>
       </c>
-      <c r="H27" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I27" s="14">
+      <c r="H27" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="45">
         <v>6</v>
       </c>
-      <c r="J27" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K27" s="17">
+      <c r="J27" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="8">
         <v>6</v>
       </c>
-      <c r="L27" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M27" s="14">
+        <v>6</v>
+      </c>
+      <c r="N27" s="14">
+        <f>M27/B27</f>
+        <v>1</v>
+      </c>
+      <c r="O27" s="6">
+        <v>6</v>
+      </c>
+      <c r="P27" s="6">
+        <f>O27/B27</f>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>6</v>
+      </c>
+      <c r="R27" s="14">
+        <f>Q27/B27</f>
+        <v>1</v>
+      </c>
+      <c r="S27" s="17">
+        <v>6</v>
+      </c>
+      <c r="T27" s="17">
+        <f>S27/B27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="39">
         <v>9</v>
       </c>
-      <c r="D28" s="17">
-        <f t="shared" si="3"/>
+      <c r="D28" s="39">
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="12">
+        <v>24</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G28" s="10">
+        <v>27</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="45">
         <v>26</v>
       </c>
-      <c r="F28" s="14">
-        <f t="shared" si="4"/>
+      <c r="J28" s="45">
+        <f t="shared" si="3"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="G28" s="6">
+      <c r="K28" s="8">
         <v>26</v>
       </c>
-      <c r="H28" s="6">
-        <f t="shared" si="0"/>
+      <c r="L28" s="8">
+        <f t="shared" si="4"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="I28" s="14">
+      <c r="M28" s="14">
+        <v>26</v>
+      </c>
+      <c r="N28" s="14">
+        <f>M28/B28</f>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="O28" s="6">
+        <v>26</v>
+      </c>
+      <c r="P28" s="6">
+        <f>O28/B28</f>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="Q28" s="14">
         <v>27</v>
       </c>
-      <c r="J28" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K28" s="17">
+      <c r="R28" s="14">
+        <f>Q28/B28</f>
+        <v>1</v>
+      </c>
+      <c r="S28" s="17">
         <v>26</v>
       </c>
-      <c r="L28" s="17">
-        <f t="shared" si="2"/>
+      <c r="T28" s="17">
+        <f>S28/B28</f>
         <v>0.96296296296296291</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="2">
         <v>6</v>
       </c>
-      <c r="C29" s="17">
-        <v>1</v>
-      </c>
-      <c r="D29" s="17">
-        <f t="shared" si="3"/>
+      <c r="C29" s="39">
+        <v>1</v>
+      </c>
+      <c r="D29" s="39">
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="12">
         <v>6</v>
       </c>
-      <c r="F29" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
+      <c r="F29" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
         <v>6</v>
       </c>
-      <c r="H29" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I29" s="14">
+      <c r="H29" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="45">
         <v>6</v>
       </c>
-      <c r="J29" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K29" s="17">
+      <c r="J29" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="8">
         <v>6</v>
       </c>
-      <c r="L29" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M29" s="14">
+        <v>6</v>
+      </c>
+      <c r="N29" s="14">
+        <f>M29/B29</f>
+        <v>1</v>
+      </c>
+      <c r="O29" s="6">
+        <v>6</v>
+      </c>
+      <c r="P29" s="6">
+        <f>O29/B29</f>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>6</v>
+      </c>
+      <c r="R29" s="14">
+        <f>Q29/B29</f>
+        <v>1</v>
+      </c>
+      <c r="S29" s="17">
+        <v>6</v>
+      </c>
+      <c r="T29" s="17">
+        <f>S29/B29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="2">
         <v>9</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="39">
         <v>2</v>
       </c>
-      <c r="D30" s="17">
-        <f t="shared" si="3"/>
+      <c r="D30" s="39">
+        <f t="shared" si="0"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="12">
+        <v>8</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G30" s="10">
         <v>9</v>
       </c>
-      <c r="F30" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="H30" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="45">
         <v>9</v>
       </c>
-      <c r="H30" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I30" s="14">
+      <c r="J30" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="8">
+        <v>8</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="4"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M30" s="14">
         <v>9</v>
       </c>
-      <c r="J30" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K30" s="17">
+      <c r="N30" s="14">
+        <f>M30/B30</f>
+        <v>1</v>
+      </c>
+      <c r="O30" s="6">
         <v>9</v>
       </c>
-      <c r="L30" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P30" s="6">
+        <f>O30/B30</f>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>9</v>
+      </c>
+      <c r="R30" s="14">
+        <f>Q30/B30</f>
+        <v>1</v>
+      </c>
+      <c r="S30" s="17">
+        <v>9</v>
+      </c>
+      <c r="T30" s="17">
+        <f>S30/B30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="2">
         <v>5</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="39">
         <v>0</v>
       </c>
-      <c r="D31" s="17">
-        <f t="shared" si="3"/>
+      <c r="D31" s="39">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="14">
-        <v>5</v>
-      </c>
-      <c r="F31" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G31" s="6">
-        <v>5</v>
-      </c>
-      <c r="H31" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I31" s="14">
-        <v>5</v>
-      </c>
-      <c r="J31" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K31" s="17">
-        <v>5</v>
-      </c>
-      <c r="L31" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="12">
+        <v>2</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="G31" s="10">
+        <v>5</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="45">
+        <v>5</v>
+      </c>
+      <c r="J31" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="8">
+        <v>5</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M31" s="14">
+        <v>5</v>
+      </c>
+      <c r="N31" s="14">
+        <f>M31/B31</f>
+        <v>1</v>
+      </c>
+      <c r="O31" s="6">
+        <v>5</v>
+      </c>
+      <c r="P31" s="6">
+        <f>O31/B31</f>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>5</v>
+      </c>
+      <c r="R31" s="14">
+        <f>Q31/B31</f>
+        <v>1</v>
+      </c>
+      <c r="S31" s="17">
+        <v>5</v>
+      </c>
+      <c r="T31" s="17">
+        <f>S31/B31</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="2">
         <v>38</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="39">
         <v>15</v>
       </c>
-      <c r="D32" s="17">
-        <f t="shared" si="3"/>
+      <c r="D32" s="39">
+        <f t="shared" si="0"/>
         <v>0.39473684210526316</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="12">
+        <v>35</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" si="1"/>
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="G32" s="10">
         <v>38</v>
       </c>
-      <c r="F32" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="H32" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="45">
         <v>38</v>
       </c>
-      <c r="H32" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I32" s="14">
+      <c r="J32" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="8">
         <v>38</v>
       </c>
-      <c r="J32" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K32" s="17">
+      <c r="L32" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="14">
         <v>38</v>
       </c>
-      <c r="L32" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N32" s="14">
+        <f>M32/B32</f>
+        <v>1</v>
+      </c>
+      <c r="O32" s="6">
+        <v>38</v>
+      </c>
+      <c r="P32" s="6">
+        <f>O32/B32</f>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>38</v>
+      </c>
+      <c r="R32" s="14">
+        <f>Q32/B32</f>
+        <v>1</v>
+      </c>
+      <c r="S32" s="17">
+        <v>38</v>
+      </c>
+      <c r="T32" s="17">
+        <f>S32/B32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="2">
         <v>16</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="39">
         <v>6</v>
       </c>
-      <c r="D33" s="17">
-        <f t="shared" si="3"/>
+      <c r="D33" s="39">
+        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="12">
+        <v>15</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9375</v>
+      </c>
+      <c r="G33" s="10">
         <v>16</v>
       </c>
-      <c r="F33" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G33" s="6">
+      <c r="H33" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="45">
         <v>16</v>
       </c>
-      <c r="H33" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I33" s="14">
+      <c r="J33" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="8">
         <v>16</v>
       </c>
-      <c r="J33" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K33" s="17">
+      <c r="L33" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M33" s="14">
         <v>16</v>
       </c>
-      <c r="L33" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N33" s="14">
+        <f>M33/B33</f>
+        <v>1</v>
+      </c>
+      <c r="O33" s="6">
+        <v>16</v>
+      </c>
+      <c r="P33" s="6">
+        <f>O33/B33</f>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>16</v>
+      </c>
+      <c r="R33" s="14">
+        <f>Q33/B33</f>
+        <v>1</v>
+      </c>
+      <c r="S33" s="17">
+        <v>16</v>
+      </c>
+      <c r="T33" s="17">
+        <f>S33/B33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="2">
         <v>8</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="39">
         <v>0</v>
       </c>
-      <c r="D34" s="17">
-        <f t="shared" si="3"/>
+      <c r="D34" s="39">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="12">
+        <v>7</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="G34" s="10">
         <v>8</v>
       </c>
-      <c r="F34" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G34" s="6">
+      <c r="H34" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="45">
         <v>8</v>
       </c>
-      <c r="H34" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I34" s="14">
+      <c r="J34" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="8">
         <v>8</v>
       </c>
-      <c r="J34" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K34" s="17">
+      <c r="L34" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M34" s="14">
         <v>8</v>
       </c>
-      <c r="L34" s="17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N34" s="14">
+        <f>M34/B34</f>
+        <v>1</v>
+      </c>
+      <c r="O34" s="6">
+        <v>8</v>
+      </c>
+      <c r="P34" s="6">
+        <f>O34/B34</f>
+        <v>1</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>8</v>
+      </c>
+      <c r="R34" s="14">
+        <f>Q34/B34</f>
+        <v>1</v>
+      </c>
+      <c r="S34" s="17">
+        <v>8</v>
+      </c>
+      <c r="T34" s="17">
+        <f>S34/B34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="2">
         <v>13</v>
       </c>
-      <c r="C35" s="17">
-        <v>1</v>
-      </c>
-      <c r="D35" s="17">
-        <f t="shared" si="3"/>
+      <c r="C35" s="39">
+        <v>1</v>
+      </c>
+      <c r="D35" s="39">
+        <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="12">
+        <v>10</v>
+      </c>
+      <c r="F35" s="12">
+        <f t="shared" si="1"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="G35" s="10">
         <v>13</v>
       </c>
-      <c r="F35" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G35" s="6">
+      <c r="H35" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="45">
         <v>13</v>
       </c>
-      <c r="H35" s="6">
-        <f t="shared" ref="H35:H62" si="5">G35/B35</f>
-        <v>1</v>
-      </c>
-      <c r="I35" s="14">
+      <c r="J35" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="8">
         <v>13</v>
       </c>
-      <c r="J35" s="14">
-        <f t="shared" ref="J35:J62" si="6">I35/B35</f>
-        <v>1</v>
-      </c>
-      <c r="K35" s="17">
+      <c r="L35" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M35" s="14">
         <v>13</v>
       </c>
-      <c r="L35" s="17">
-        <f t="shared" ref="L35:L62" si="7">K35/B35</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N35" s="14">
+        <f>M35/B35</f>
+        <v>1</v>
+      </c>
+      <c r="O35" s="6">
+        <v>13</v>
+      </c>
+      <c r="P35" s="6">
+        <f>O35/B35</f>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>13</v>
+      </c>
+      <c r="R35" s="14">
+        <f>Q35/B35</f>
+        <v>1</v>
+      </c>
+      <c r="S35" s="17">
+        <v>13</v>
+      </c>
+      <c r="T35" s="17">
+        <f>S35/B35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="2">
         <v>45</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="39">
         <v>9</v>
       </c>
-      <c r="D36" s="17">
-        <f t="shared" si="3"/>
+      <c r="D36" s="39">
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="12">
+        <v>42</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" si="1"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G36" s="10">
         <v>45</v>
       </c>
-      <c r="F36" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="H36" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="45">
         <v>45</v>
       </c>
-      <c r="H36" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I36" s="14">
+      <c r="J36" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="8">
         <v>45</v>
       </c>
-      <c r="J36" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K36" s="17">
+      <c r="L36" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M36" s="14">
         <v>45</v>
       </c>
-      <c r="L36" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N36" s="14">
+        <f>M36/B36</f>
+        <v>1</v>
+      </c>
+      <c r="O36" s="6">
+        <v>45</v>
+      </c>
+      <c r="P36" s="6">
+        <f>O36/B36</f>
+        <v>1</v>
+      </c>
+      <c r="Q36" s="14">
+        <v>45</v>
+      </c>
+      <c r="R36" s="14">
+        <f>Q36/B36</f>
+        <v>1</v>
+      </c>
+      <c r="S36" s="17">
+        <v>45</v>
+      </c>
+      <c r="T36" s="17">
+        <f>S36/B36</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="2">
         <v>17</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="39">
         <v>6</v>
       </c>
-      <c r="D37" s="17">
-        <f t="shared" si="3"/>
+      <c r="D37" s="39">
+        <f t="shared" si="0"/>
         <v>0.35294117647058826</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="12">
         <v>17</v>
       </c>
-      <c r="F37" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="F37" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="10">
         <v>17</v>
       </c>
-      <c r="H37" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I37" s="14">
+      <c r="H37" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="45">
         <v>17</v>
       </c>
-      <c r="J37" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K37" s="17">
+      <c r="J37" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="8">
         <v>17</v>
       </c>
-      <c r="L37" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M37" s="14">
+        <v>17</v>
+      </c>
+      <c r="N37" s="14">
+        <f>M37/B37</f>
+        <v>1</v>
+      </c>
+      <c r="O37" s="6">
+        <v>17</v>
+      </c>
+      <c r="P37" s="6">
+        <f>O37/B37</f>
+        <v>1</v>
+      </c>
+      <c r="Q37" s="14">
+        <v>17</v>
+      </c>
+      <c r="R37" s="14">
+        <f>Q37/B37</f>
+        <v>1</v>
+      </c>
+      <c r="S37" s="17">
+        <v>17</v>
+      </c>
+      <c r="T37" s="17">
+        <f>S37/B37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="2">
         <v>26</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="39">
         <v>3</v>
       </c>
-      <c r="D38" s="17">
-        <f t="shared" si="3"/>
+      <c r="D38" s="39">
+        <f t="shared" si="0"/>
         <v>0.11538461538461539</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="12">
+        <v>22</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="1"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="G38" s="10">
         <v>26</v>
       </c>
-      <c r="F38" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="H38" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="45">
         <v>26</v>
       </c>
-      <c r="H38" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I38" s="14">
+      <c r="J38" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="8">
         <v>26</v>
       </c>
-      <c r="J38" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K38" s="17">
+      <c r="L38" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M38" s="14">
         <v>26</v>
       </c>
-      <c r="L38" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N38" s="14">
+        <f>M38/B38</f>
+        <v>1</v>
+      </c>
+      <c r="O38" s="6">
+        <v>26</v>
+      </c>
+      <c r="P38" s="6">
+        <f>O38/B38</f>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>26</v>
+      </c>
+      <c r="R38" s="14">
+        <f>Q38/B38</f>
+        <v>1</v>
+      </c>
+      <c r="S38" s="17">
+        <v>26</v>
+      </c>
+      <c r="T38" s="17">
+        <f>S38/B38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="2">
         <v>7</v>
       </c>
-      <c r="C39" s="17">
-        <v>1</v>
-      </c>
-      <c r="D39" s="17">
-        <f t="shared" si="3"/>
+      <c r="C39" s="39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="39">
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="12">
         <v>7</v>
       </c>
-      <c r="F39" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G39" s="6">
+      <c r="F39" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="10">
         <v>7</v>
       </c>
-      <c r="H39" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I39" s="14">
+      <c r="H39" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="45">
         <v>7</v>
       </c>
-      <c r="J39" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K39" s="17">
+      <c r="J39" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="8">
         <v>7</v>
       </c>
-      <c r="L39" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M39" s="14">
+        <v>7</v>
+      </c>
+      <c r="N39" s="14">
+        <f>M39/B39</f>
+        <v>1</v>
+      </c>
+      <c r="O39" s="6">
+        <v>7</v>
+      </c>
+      <c r="P39" s="6">
+        <f>O39/B39</f>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>7</v>
+      </c>
+      <c r="R39" s="14">
+        <f>Q39/B39</f>
+        <v>1</v>
+      </c>
+      <c r="S39" s="17">
+        <v>7</v>
+      </c>
+      <c r="T39" s="17">
+        <f>S39/B39</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="2">
         <v>26</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="39">
         <v>12</v>
       </c>
-      <c r="D40" s="17">
-        <f t="shared" si="3"/>
+      <c r="D40" s="39">
+        <f t="shared" si="0"/>
         <v>0.46153846153846156</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="12">
+        <v>23</v>
+      </c>
+      <c r="F40" s="12">
+        <f t="shared" si="1"/>
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="G40" s="10">
         <v>26</v>
       </c>
-      <c r="F40" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G40" s="6">
+      <c r="H40" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="45">
         <v>26</v>
       </c>
-      <c r="H40" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I40" s="14">
+      <c r="J40" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K40" s="8">
         <v>26</v>
       </c>
-      <c r="J40" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K40" s="17">
+      <c r="L40" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M40" s="14">
         <v>26</v>
       </c>
-      <c r="L40" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N40" s="14">
+        <f>M40/B40</f>
+        <v>1</v>
+      </c>
+      <c r="O40" s="6">
+        <v>26</v>
+      </c>
+      <c r="P40" s="6">
+        <f>O40/B40</f>
+        <v>1</v>
+      </c>
+      <c r="Q40" s="14">
+        <v>26</v>
+      </c>
+      <c r="R40" s="14">
+        <f>Q40/B40</f>
+        <v>1</v>
+      </c>
+      <c r="S40" s="17">
+        <v>26</v>
+      </c>
+      <c r="T40" s="17">
+        <f>S40/B40</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="2">
         <v>33</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="39">
         <v>7</v>
       </c>
-      <c r="D41" s="17">
-        <f t="shared" si="3"/>
+      <c r="D41" s="39">
+        <f t="shared" si="0"/>
         <v>0.21212121212121213</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="12">
+        <v>29</v>
+      </c>
+      <c r="F41" s="12">
+        <f t="shared" si="1"/>
+        <v>0.87878787878787878</v>
+      </c>
+      <c r="G41" s="10">
         <v>33</v>
       </c>
-      <c r="F41" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G41" s="6">
+      <c r="H41" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="45">
         <v>33</v>
       </c>
-      <c r="H41" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I41" s="14">
+      <c r="J41" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="8">
         <v>33</v>
       </c>
-      <c r="J41" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K41" s="17">
+      <c r="L41" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M41" s="14">
         <v>33</v>
       </c>
-      <c r="L41" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N41" s="14">
+        <f>M41/B41</f>
+        <v>1</v>
+      </c>
+      <c r="O41" s="6">
+        <v>33</v>
+      </c>
+      <c r="P41" s="6">
+        <f>O41/B41</f>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>33</v>
+      </c>
+      <c r="R41" s="14">
+        <f>Q41/B41</f>
+        <v>1</v>
+      </c>
+      <c r="S41" s="17">
+        <v>33</v>
+      </c>
+      <c r="T41" s="17">
+        <f>S41/B41</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="2">
         <v>14</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="39">
         <v>3</v>
       </c>
-      <c r="D42" s="17">
-        <f t="shared" si="3"/>
+      <c r="D42" s="39">
+        <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="12">
         <v>13</v>
       </c>
-      <c r="F42" s="14">
-        <f t="shared" si="4"/>
+      <c r="F42" s="12">
+        <f t="shared" si="1"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="10">
         <v>13</v>
       </c>
-      <c r="H42" s="6">
-        <f t="shared" si="5"/>
+      <c r="H42" s="10">
+        <f t="shared" si="2"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="45">
         <v>13</v>
       </c>
-      <c r="J42" s="14">
-        <f t="shared" si="6"/>
+      <c r="J42" s="45">
+        <f t="shared" si="3"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="8">
         <v>13</v>
       </c>
-      <c r="L42" s="17">
-        <f t="shared" si="7"/>
+      <c r="L42" s="8">
+        <f t="shared" si="4"/>
         <v>0.9285714285714286</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="14">
+        <v>13</v>
+      </c>
+      <c r="N42" s="14">
+        <f>M42/B42</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="O42" s="6">
+        <v>13</v>
+      </c>
+      <c r="P42" s="6">
+        <f>O42/B42</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>13</v>
+      </c>
+      <c r="R42" s="14">
+        <f>Q42/B42</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="S42" s="17">
+        <v>13</v>
+      </c>
+      <c r="T42" s="17">
+        <f>S42/B42</f>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B43" s="2">
         <v>18</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="39">
         <v>2</v>
       </c>
-      <c r="D43" s="17">
-        <f t="shared" si="3"/>
+      <c r="D43" s="39">
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="12">
+        <v>17</v>
+      </c>
+      <c r="F43" s="12">
+        <f t="shared" si="1"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="G43" s="10">
         <v>18</v>
       </c>
-      <c r="F43" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G43" s="6">
+      <c r="H43" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="45">
         <v>18</v>
       </c>
-      <c r="H43" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I43" s="14">
+      <c r="J43" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="8">
         <v>18</v>
       </c>
-      <c r="J43" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K43" s="17">
+      <c r="L43" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M43" s="14">
         <v>18</v>
       </c>
-      <c r="L43" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N43" s="14">
+        <f>M43/B43</f>
+        <v>1</v>
+      </c>
+      <c r="O43" s="6">
+        <v>18</v>
+      </c>
+      <c r="P43" s="6">
+        <f>O43/B43</f>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>18</v>
+      </c>
+      <c r="R43" s="14">
+        <f>Q43/B43</f>
+        <v>1</v>
+      </c>
+      <c r="S43" s="17">
+        <v>18</v>
+      </c>
+      <c r="T43" s="17">
+        <f>S43/B43</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B44" s="2">
         <v>5</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="39">
         <v>2</v>
       </c>
-      <c r="D44" s="17">
-        <f t="shared" si="3"/>
+      <c r="D44" s="39">
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="E44" s="14">
-        <v>5</v>
-      </c>
-      <c r="F44" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G44" s="6">
-        <v>5</v>
-      </c>
-      <c r="H44" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I44" s="14">
-        <v>5</v>
-      </c>
-      <c r="J44" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K44" s="17">
-        <v>5</v>
-      </c>
-      <c r="L44" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="12">
+        <v>5</v>
+      </c>
+      <c r="F44" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="10">
+        <v>5</v>
+      </c>
+      <c r="H44" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I44" s="45">
+        <v>5</v>
+      </c>
+      <c r="J44" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K44" s="8">
+        <v>5</v>
+      </c>
+      <c r="L44" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M44" s="14">
+        <v>5</v>
+      </c>
+      <c r="N44" s="14">
+        <f>M44/B44</f>
+        <v>1</v>
+      </c>
+      <c r="O44" s="6">
+        <v>5</v>
+      </c>
+      <c r="P44" s="6">
+        <f>O44/B44</f>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="14">
+        <v>5</v>
+      </c>
+      <c r="R44" s="14">
+        <f>Q44/B44</f>
+        <v>1</v>
+      </c>
+      <c r="S44" s="17">
+        <v>5</v>
+      </c>
+      <c r="T44" s="17">
+        <f>S44/B44</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="2">
         <v>7</v>
       </c>
-      <c r="C45" s="17">
-        <v>1</v>
-      </c>
-      <c r="D45" s="17">
-        <f t="shared" si="3"/>
+      <c r="C45" s="39">
+        <v>1</v>
+      </c>
+      <c r="D45" s="39">
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="12">
+        <v>5</v>
+      </c>
+      <c r="F45" s="12">
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G45" s="10">
         <v>7</v>
       </c>
-      <c r="F45" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G45" s="6">
+      <c r="H45" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I45" s="45">
         <v>7</v>
       </c>
-      <c r="H45" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I45" s="14">
+      <c r="J45" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K45" s="8">
         <v>7</v>
       </c>
-      <c r="J45" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K45" s="17">
+      <c r="L45" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M45" s="14">
         <v>7</v>
       </c>
-      <c r="L45" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N45" s="14">
+        <f>M45/B45</f>
+        <v>1</v>
+      </c>
+      <c r="O45" s="6">
+        <v>7</v>
+      </c>
+      <c r="P45" s="6">
+        <f>O45/B45</f>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="14">
+        <v>7</v>
+      </c>
+      <c r="R45" s="14">
+        <f>Q45/B45</f>
+        <v>1</v>
+      </c>
+      <c r="S45" s="17">
+        <v>7</v>
+      </c>
+      <c r="T45" s="17">
+        <f>S45/B45</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="2">
         <v>22</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="39">
         <v>3</v>
       </c>
-      <c r="D46" s="17">
-        <f t="shared" si="3"/>
+      <c r="D46" s="39">
+        <f t="shared" si="0"/>
         <v>0.13636363636363635</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="12">
+        <v>18</v>
+      </c>
+      <c r="F46" s="12">
+        <f t="shared" si="1"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G46" s="10">
         <v>22</v>
       </c>
-      <c r="F46" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G46" s="6">
+      <c r="H46" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="45">
         <v>22</v>
       </c>
-      <c r="H46" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I46" s="14">
+      <c r="J46" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K46" s="8">
         <v>22</v>
       </c>
-      <c r="J46" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K46" s="17">
+      <c r="L46" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M46" s="14">
         <v>22</v>
       </c>
-      <c r="L46" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N46" s="14">
+        <f>M46/B46</f>
+        <v>1</v>
+      </c>
+      <c r="O46" s="6">
+        <v>22</v>
+      </c>
+      <c r="P46" s="6">
+        <f>O46/B46</f>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="14">
+        <v>22</v>
+      </c>
+      <c r="R46" s="14">
+        <f>Q46/B46</f>
+        <v>1</v>
+      </c>
+      <c r="S46" s="17">
+        <v>22</v>
+      </c>
+      <c r="T46" s="17">
+        <f>S46/B46</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="2">
         <v>5</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="39">
         <v>3</v>
       </c>
-      <c r="D47" s="17">
-        <f t="shared" si="3"/>
+      <c r="D47" s="39">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="E47" s="14">
-        <v>5</v>
-      </c>
-      <c r="F47" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G47" s="6">
-        <v>5</v>
-      </c>
-      <c r="H47" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I47" s="14">
-        <v>5</v>
-      </c>
-      <c r="J47" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K47" s="17">
-        <v>5</v>
-      </c>
-      <c r="L47" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="12">
+        <v>4</v>
+      </c>
+      <c r="F47" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="G47" s="10">
+        <v>5</v>
+      </c>
+      <c r="H47" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I47" s="45">
+        <v>5</v>
+      </c>
+      <c r="J47" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K47" s="8">
+        <v>5</v>
+      </c>
+      <c r="L47" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M47" s="14">
+        <v>5</v>
+      </c>
+      <c r="N47" s="14">
+        <f>M47/B47</f>
+        <v>1</v>
+      </c>
+      <c r="O47" s="6">
+        <v>5</v>
+      </c>
+      <c r="P47" s="6">
+        <f>O47/B47</f>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>5</v>
+      </c>
+      <c r="R47" s="14">
+        <f>Q47/B47</f>
+        <v>1</v>
+      </c>
+      <c r="S47" s="17">
+        <v>5</v>
+      </c>
+      <c r="T47" s="17">
+        <f>S47/B47</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="2">
         <v>7</v>
       </c>
-      <c r="C48" s="17">
-        <v>1</v>
-      </c>
-      <c r="D48" s="17">
-        <f t="shared" si="3"/>
+      <c r="C48" s="39">
+        <v>1</v>
+      </c>
+      <c r="D48" s="39">
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="12">
+        <v>6</v>
+      </c>
+      <c r="F48" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G48" s="10">
         <v>7</v>
       </c>
-      <c r="F48" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G48" s="6">
+      <c r="H48" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I48" s="45">
         <v>7</v>
       </c>
-      <c r="H48" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I48" s="14">
+      <c r="J48" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K48" s="8">
         <v>7</v>
       </c>
-      <c r="J48" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K48" s="17">
+      <c r="L48" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M48" s="14">
         <v>7</v>
       </c>
-      <c r="L48" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N48" s="14">
+        <f>M48/B48</f>
+        <v>1</v>
+      </c>
+      <c r="O48" s="6">
+        <v>7</v>
+      </c>
+      <c r="P48" s="6">
+        <f>O48/B48</f>
+        <v>1</v>
+      </c>
+      <c r="Q48" s="14">
+        <v>7</v>
+      </c>
+      <c r="R48" s="14">
+        <f>Q48/B48</f>
+        <v>1</v>
+      </c>
+      <c r="S48" s="17">
+        <v>7</v>
+      </c>
+      <c r="T48" s="17">
+        <f>S48/B48</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="2">
         <v>15</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="39">
         <v>4</v>
       </c>
-      <c r="D49" s="17">
-        <f t="shared" si="3"/>
+      <c r="D49" s="39">
+        <f t="shared" si="0"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="12">
+        <v>14</v>
+      </c>
+      <c r="F49" s="12">
+        <f t="shared" si="1"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G49" s="10">
         <v>15</v>
       </c>
-      <c r="F49" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G49" s="6">
+      <c r="H49" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I49" s="45">
+        <v>14</v>
+      </c>
+      <c r="J49" s="45">
+        <f t="shared" si="3"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="K49" s="8">
         <v>15</v>
       </c>
-      <c r="H49" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I49" s="14">
+      <c r="L49" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M49" s="14">
         <v>15</v>
       </c>
-      <c r="J49" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K49" s="17">
+      <c r="N49" s="14">
+        <f>M49/B49</f>
+        <v>1</v>
+      </c>
+      <c r="O49" s="6">
+        <v>15</v>
+      </c>
+      <c r="P49" s="6">
+        <f>O49/B49</f>
+        <v>1</v>
+      </c>
+      <c r="Q49" s="14">
+        <v>15</v>
+      </c>
+      <c r="R49" s="14">
+        <f>Q49/B49</f>
+        <v>1</v>
+      </c>
+      <c r="S49" s="17">
         <v>14</v>
       </c>
-      <c r="L49" s="17">
-        <f t="shared" si="7"/>
+      <c r="T49" s="17">
+        <f>S49/B49</f>
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B50" s="2">
         <v>12</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="39">
         <v>8</v>
       </c>
-      <c r="D50" s="17">
-        <f t="shared" si="3"/>
+      <c r="D50" s="39">
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="12">
         <v>12</v>
       </c>
-      <c r="F50" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G50" s="6">
+      <c r="F50" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G50" s="10">
         <v>12</v>
       </c>
-      <c r="H50" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I50" s="14">
+      <c r="H50" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I50" s="45">
         <v>12</v>
       </c>
-      <c r="J50" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K50" s="17">
+      <c r="J50" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K50" s="8">
         <v>12</v>
       </c>
-      <c r="L50" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L50" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M50" s="14">
+        <v>12</v>
+      </c>
+      <c r="N50" s="14">
+        <f>M50/B50</f>
+        <v>1</v>
+      </c>
+      <c r="O50" s="6">
+        <v>12</v>
+      </c>
+      <c r="P50" s="6">
+        <f>O50/B50</f>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="14">
+        <v>12</v>
+      </c>
+      <c r="R50" s="14">
+        <f>Q50/B50</f>
+        <v>1</v>
+      </c>
+      <c r="S50" s="17">
+        <v>12</v>
+      </c>
+      <c r="T50" s="17">
+        <f>S50/B50</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="2">
         <v>17</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="39">
         <v>4</v>
       </c>
-      <c r="D51" s="17">
-        <f t="shared" si="3"/>
+      <c r="D51" s="39">
+        <f t="shared" si="0"/>
         <v>0.23529411764705882</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="12">
         <v>17</v>
       </c>
-      <c r="F51" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G51" s="6">
+      <c r="F51" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G51" s="10">
         <v>17</v>
       </c>
-      <c r="H51" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I51" s="14">
-        <v>1</v>
-      </c>
-      <c r="J51" s="14">
-        <f t="shared" si="6"/>
+      <c r="H51" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I51" s="45">
+        <v>17</v>
+      </c>
+      <c r="J51" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K51" s="8">
+        <v>17</v>
+      </c>
+      <c r="L51" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M51" s="14">
+        <v>17</v>
+      </c>
+      <c r="N51" s="14">
+        <f>M51/B51</f>
+        <v>1</v>
+      </c>
+      <c r="O51" s="6">
+        <v>17</v>
+      </c>
+      <c r="P51" s="6">
+        <f>O51/B51</f>
+        <v>1</v>
+      </c>
+      <c r="Q51" s="14">
+        <v>1</v>
+      </c>
+      <c r="R51" s="14">
+        <f>Q51/B51</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="K51" s="17">
+      <c r="S51" s="17">
         <v>17</v>
       </c>
-      <c r="L51" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="T51" s="17">
+        <f>S51/B51</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="2">
         <v>11</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="39">
         <v>0</v>
       </c>
-      <c r="D52" s="17">
-        <f t="shared" si="3"/>
+      <c r="D52" s="39">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="12">
+        <v>8</v>
+      </c>
+      <c r="F52" s="12">
+        <f t="shared" si="1"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G52" s="10">
         <v>11</v>
       </c>
-      <c r="F52" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G52" s="6">
+      <c r="H52" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I52" s="45">
         <v>11</v>
       </c>
-      <c r="H52" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I52" s="14">
+      <c r="J52" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K52" s="8">
         <v>11</v>
       </c>
-      <c r="J52" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K52" s="17">
+      <c r="L52" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M52" s="14">
         <v>11</v>
       </c>
-      <c r="L52" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N52" s="14">
+        <f>M52/B52</f>
+        <v>1</v>
+      </c>
+      <c r="O52" s="6">
+        <v>11</v>
+      </c>
+      <c r="P52" s="6">
+        <f>O52/B52</f>
+        <v>1</v>
+      </c>
+      <c r="Q52" s="14">
+        <v>11</v>
+      </c>
+      <c r="R52" s="14">
+        <f>Q52/B52</f>
+        <v>1</v>
+      </c>
+      <c r="S52" s="17">
+        <v>11</v>
+      </c>
+      <c r="T52" s="17">
+        <f>S52/B52</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B53" s="2">
         <v>8</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="39">
         <v>3</v>
       </c>
-      <c r="D53" s="17">
-        <f t="shared" si="3"/>
+      <c r="D53" s="39">
+        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="12">
         <v>7</v>
       </c>
-      <c r="F53" s="14">
-        <f t="shared" si="4"/>
+      <c r="F53" s="12">
+        <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="10">
+        <v>7</v>
+      </c>
+      <c r="H53" s="10">
+        <f t="shared" si="2"/>
+        <v>0.875</v>
+      </c>
+      <c r="I53" s="45">
         <v>8</v>
       </c>
-      <c r="H53" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I53" s="14">
+      <c r="J53" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K53" s="8">
         <v>8</v>
       </c>
-      <c r="J53" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K53" s="17">
+      <c r="L53" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M53" s="14">
+        <v>7</v>
+      </c>
+      <c r="N53" s="14">
+        <f>M53/B53</f>
+        <v>0.875</v>
+      </c>
+      <c r="O53" s="6">
         <v>8</v>
       </c>
-      <c r="L53" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P53" s="6">
+        <f>O53/B53</f>
+        <v>1</v>
+      </c>
+      <c r="Q53" s="14">
+        <v>8</v>
+      </c>
+      <c r="R53" s="14">
+        <f>Q53/B53</f>
+        <v>1</v>
+      </c>
+      <c r="S53" s="17">
+        <v>8</v>
+      </c>
+      <c r="T53" s="17">
+        <f>S53/B53</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B54" s="2">
         <v>37</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="39">
         <v>13</v>
       </c>
-      <c r="D54" s="17">
-        <f t="shared" si="3"/>
+      <c r="D54" s="39">
+        <f t="shared" si="0"/>
         <v>0.35135135135135137</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="12">
+        <v>32</v>
+      </c>
+      <c r="F54" s="12">
+        <f t="shared" si="1"/>
+        <v>0.86486486486486491</v>
+      </c>
+      <c r="G54" s="10">
         <v>37</v>
       </c>
-      <c r="F54" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G54" s="6">
+      <c r="H54" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I54" s="45">
         <v>37</v>
       </c>
-      <c r="H54" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I54" s="14">
+      <c r="J54" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K54" s="8">
         <v>37</v>
       </c>
-      <c r="J54" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K54" s="17">
+      <c r="L54" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M54" s="14">
         <v>37</v>
       </c>
-      <c r="L54" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N54" s="14">
+        <f>M54/B54</f>
+        <v>1</v>
+      </c>
+      <c r="O54" s="6">
+        <v>37</v>
+      </c>
+      <c r="P54" s="6">
+        <f>O54/B54</f>
+        <v>1</v>
+      </c>
+      <c r="Q54" s="14">
+        <v>37</v>
+      </c>
+      <c r="R54" s="14">
+        <f>Q54/B54</f>
+        <v>1</v>
+      </c>
+      <c r="S54" s="17">
+        <v>37</v>
+      </c>
+      <c r="T54" s="17">
+        <f>S54/B54</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B55" s="2">
         <v>18</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="39">
         <v>3</v>
       </c>
-      <c r="D55" s="17">
-        <f t="shared" si="3"/>
+      <c r="D55" s="39">
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="12">
         <v>18</v>
       </c>
-      <c r="F55" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G55" s="6">
+      <c r="F55" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G55" s="10">
         <v>18</v>
       </c>
-      <c r="H55" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I55" s="14">
+      <c r="H55" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I55" s="45">
         <v>18</v>
       </c>
-      <c r="J55" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K55" s="17">
+      <c r="J55" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="8">
         <v>18</v>
       </c>
-      <c r="L55" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L55" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M55" s="14">
+        <v>18</v>
+      </c>
+      <c r="N55" s="14">
+        <f>M55/B55</f>
+        <v>1</v>
+      </c>
+      <c r="O55" s="6">
+        <v>18</v>
+      </c>
+      <c r="P55" s="6">
+        <f>O55/B55</f>
+        <v>1</v>
+      </c>
+      <c r="Q55" s="14">
+        <v>18</v>
+      </c>
+      <c r="R55" s="14">
+        <f>Q55/B55</f>
+        <v>1</v>
+      </c>
+      <c r="S55" s="17">
+        <v>18</v>
+      </c>
+      <c r="T55" s="17">
+        <f>S55/B55</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B56" s="2">
         <v>8</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="39">
         <v>4</v>
       </c>
-      <c r="D56" s="17">
-        <f t="shared" si="3"/>
+      <c r="D56" s="39">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="12">
         <v>8</v>
       </c>
-      <c r="F56" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G56" s="6">
+      <c r="F56" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G56" s="10">
         <v>8</v>
       </c>
-      <c r="H56" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I56" s="14">
+      <c r="H56" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I56" s="45">
         <v>8</v>
       </c>
-      <c r="J56" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K56" s="17">
+      <c r="J56" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K56" s="8">
         <v>8</v>
       </c>
-      <c r="L56" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L56" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M56" s="14">
+        <v>8</v>
+      </c>
+      <c r="N56" s="14">
+        <f>M56/B56</f>
+        <v>1</v>
+      </c>
+      <c r="O56" s="6">
+        <v>8</v>
+      </c>
+      <c r="P56" s="6">
+        <f>O56/B56</f>
+        <v>1</v>
+      </c>
+      <c r="Q56" s="14">
+        <v>8</v>
+      </c>
+      <c r="R56" s="14">
+        <f>Q56/B56</f>
+        <v>1</v>
+      </c>
+      <c r="S56" s="17">
+        <v>8</v>
+      </c>
+      <c r="T56" s="17">
+        <f>S56/B56</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B57" s="2">
         <v>10</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="39">
         <v>4</v>
       </c>
-      <c r="D57" s="17">
-        <f t="shared" si="3"/>
+      <c r="D57" s="39">
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="12">
+        <v>9</v>
+      </c>
+      <c r="F57" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="G57" s="10">
         <v>10</v>
       </c>
-      <c r="F57" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G57" s="6">
+      <c r="H57" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I57" s="45">
         <v>10</v>
       </c>
-      <c r="H57" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I57" s="14">
+      <c r="J57" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K57" s="8">
         <v>10</v>
       </c>
-      <c r="J57" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K57" s="17">
+      <c r="L57" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M57" s="14">
         <v>10</v>
       </c>
-      <c r="L57" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N57" s="14">
+        <f>M57/B57</f>
+        <v>1</v>
+      </c>
+      <c r="O57" s="6">
+        <v>10</v>
+      </c>
+      <c r="P57" s="6">
+        <f>O57/B57</f>
+        <v>1</v>
+      </c>
+      <c r="Q57" s="14">
+        <v>10</v>
+      </c>
+      <c r="R57" s="14">
+        <f>Q57/B57</f>
+        <v>1</v>
+      </c>
+      <c r="S57" s="17">
+        <v>10</v>
+      </c>
+      <c r="T57" s="17">
+        <f>S57/B57</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="2">
         <v>18</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="39">
         <v>8</v>
       </c>
-      <c r="D58" s="17">
-        <f t="shared" si="3"/>
+      <c r="D58" s="39">
+        <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="12">
         <v>18</v>
       </c>
-      <c r="F58" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G58" s="6">
+      <c r="F58" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G58" s="10">
         <v>18</v>
       </c>
-      <c r="H58" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I58" s="14">
+      <c r="H58" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I58" s="45">
         <v>18</v>
       </c>
-      <c r="J58" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K58" s="17">
+      <c r="J58" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="8">
         <v>18</v>
       </c>
-      <c r="L58" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L58" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M58" s="14">
+        <v>18</v>
+      </c>
+      <c r="N58" s="14">
+        <f>M58/B58</f>
+        <v>1</v>
+      </c>
+      <c r="O58" s="6">
+        <v>18</v>
+      </c>
+      <c r="P58" s="6">
+        <f>O58/B58</f>
+        <v>1</v>
+      </c>
+      <c r="Q58" s="14">
+        <v>18</v>
+      </c>
+      <c r="R58" s="14">
+        <f>Q58/B58</f>
+        <v>1</v>
+      </c>
+      <c r="S58" s="17">
+        <v>18</v>
+      </c>
+      <c r="T58" s="17">
+        <f>S58/B58</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B59" s="2">
         <v>129</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="39">
         <v>43</v>
       </c>
-      <c r="D59" s="17">
-        <f t="shared" si="3"/>
+      <c r="D59" s="39">
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="12">
+        <v>121</v>
+      </c>
+      <c r="F59" s="12">
+        <f t="shared" si="1"/>
+        <v>0.93798449612403101</v>
+      </c>
+      <c r="G59" s="10">
+        <v>129</v>
+      </c>
+      <c r="H59" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I59" s="45">
         <v>127</v>
       </c>
-      <c r="F59" s="14">
-        <f t="shared" si="4"/>
+      <c r="J59" s="45">
+        <f t="shared" si="3"/>
         <v>0.98449612403100772</v>
       </c>
-      <c r="G59" s="6">
+      <c r="K59" s="8">
+        <v>128</v>
+      </c>
+      <c r="L59" s="8">
+        <f t="shared" si="4"/>
+        <v>0.99224806201550386</v>
+      </c>
+      <c r="M59" s="14">
         <v>127</v>
       </c>
-      <c r="H59" s="6">
-        <f t="shared" si="5"/>
+      <c r="N59" s="14">
+        <f>M59/B59</f>
         <v>0.98449612403100772</v>
       </c>
-      <c r="I59" s="14">
+      <c r="O59" s="6">
         <v>127</v>
       </c>
-      <c r="J59" s="14">
-        <f t="shared" si="6"/>
+      <c r="P59" s="6">
+        <f>O59/B59</f>
         <v>0.98449612403100772</v>
       </c>
-      <c r="K59" s="17">
+      <c r="Q59" s="14">
+        <v>127</v>
+      </c>
+      <c r="R59" s="14">
+        <f>Q59/B59</f>
+        <v>0.98449612403100772</v>
+      </c>
+      <c r="S59" s="17">
         <v>128</v>
       </c>
-      <c r="L59" s="17">
-        <f t="shared" si="7"/>
+      <c r="T59" s="17">
+        <f>S59/B59</f>
         <v>0.99224806201550386</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B60" s="2">
         <v>17</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="39">
         <v>4</v>
       </c>
-      <c r="D60" s="17">
-        <f t="shared" si="3"/>
+      <c r="D60" s="39">
+        <f t="shared" si="0"/>
         <v>0.23529411764705882</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="12">
+        <v>13</v>
+      </c>
+      <c r="F60" s="12">
+        <f t="shared" si="1"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="G60" s="10">
         <v>17</v>
       </c>
-      <c r="F60" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G60" s="6">
+      <c r="H60" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I60" s="45">
         <v>17</v>
       </c>
-      <c r="H60" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I60" s="14">
+      <c r="J60" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K60" s="8">
         <v>17</v>
       </c>
-      <c r="J60" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K60" s="17">
+      <c r="L60" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M60" s="14">
         <v>17</v>
       </c>
-      <c r="L60" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N60" s="14">
+        <f>M60/B60</f>
+        <v>1</v>
+      </c>
+      <c r="O60" s="6">
+        <v>17</v>
+      </c>
+      <c r="P60" s="6">
+        <f>O60/B60</f>
+        <v>1</v>
+      </c>
+      <c r="Q60" s="14">
+        <v>17</v>
+      </c>
+      <c r="R60" s="14">
+        <f>Q60/B60</f>
+        <v>1</v>
+      </c>
+      <c r="S60" s="17">
+        <v>17</v>
+      </c>
+      <c r="T60" s="17">
+        <f>S60/B60</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="2">
         <v>34</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="39">
         <v>12</v>
       </c>
-      <c r="D61" s="17">
-        <f t="shared" si="3"/>
+      <c r="D61" s="39">
+        <f t="shared" si="0"/>
         <v>0.35294117647058826</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="12">
+        <v>32</v>
+      </c>
+      <c r="F61" s="12">
+        <f t="shared" si="1"/>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="G61" s="10">
         <v>34</v>
       </c>
-      <c r="F61" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G61" s="6">
+      <c r="H61" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I61" s="45">
+        <v>33</v>
+      </c>
+      <c r="J61" s="45">
+        <f t="shared" si="3"/>
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="K61" s="8">
         <v>34</v>
       </c>
-      <c r="H61" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I61" s="14">
+      <c r="L61" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M61" s="14">
         <v>34</v>
       </c>
-      <c r="J61" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K61" s="17">
+      <c r="N61" s="14">
+        <f>M61/B61</f>
+        <v>1</v>
+      </c>
+      <c r="O61" s="6">
         <v>34</v>
       </c>
-      <c r="L61" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P61" s="6">
+        <f>O61/B61</f>
+        <v>1</v>
+      </c>
+      <c r="Q61" s="14">
+        <v>34</v>
+      </c>
+      <c r="R61" s="14">
+        <f>Q61/B61</f>
+        <v>1</v>
+      </c>
+      <c r="S61" s="17">
+        <v>34</v>
+      </c>
+      <c r="T61" s="17">
+        <f>S61/B61</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B62" s="2">
         <v>9</v>
       </c>
-      <c r="C62" s="17">
-        <v>1</v>
-      </c>
-      <c r="D62" s="17">
-        <f t="shared" si="3"/>
+      <c r="C62" s="39">
+        <v>1</v>
+      </c>
+      <c r="D62" s="39">
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="12">
+        <v>5</v>
+      </c>
+      <c r="F62" s="12">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G62" s="10">
         <v>9</v>
       </c>
-      <c r="F62" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G62" s="6">
+      <c r="H62" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I62" s="45">
         <v>9</v>
       </c>
-      <c r="H62" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I62" s="14">
+      <c r="J62" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K62" s="8">
         <v>9</v>
       </c>
-      <c r="J62" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K62" s="17">
+      <c r="L62" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M62" s="14">
         <v>9</v>
       </c>
-      <c r="L62" s="17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+      <c r="N62" s="14">
+        <f>M62/B62</f>
+        <v>1</v>
+      </c>
+      <c r="O62" s="6">
+        <v>9</v>
+      </c>
+      <c r="P62" s="6">
+        <f>O62/B62</f>
+        <v>1</v>
+      </c>
+      <c r="Q62" s="14">
+        <v>9</v>
+      </c>
+      <c r="R62" s="14">
+        <f>Q62/B62</f>
+        <v>1</v>
+      </c>
+      <c r="S62" s="17">
+        <v>9</v>
+      </c>
+      <c r="T62" s="17">
+        <f>S62/B62</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="33">
+      <c r="B63" s="21"/>
+      <c r="C63" s="21">
         <f xml:space="preserve"> SUM(D3:D62)/COUNTA(D3:D62)</f>
         <v>0.29727759154739403</v>
       </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="33">
-        <f xml:space="preserve"> SUM(F3:F62)/COUNTA(F3:F62)</f>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21">
+        <f t="shared" ref="E63:T63" si="5" xml:space="preserve"> SUM(F3:F62)/COUNTA(F3:F62)</f>
+        <v>0.89842241895518904</v>
+      </c>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21">
+        <f xml:space="preserve"> SUM(H3:H62)/COUNTA(H3:H62)</f>
+        <v>0.99575749906388922</v>
+      </c>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21">
+        <f t="shared" ref="I63:T63" si="6" xml:space="preserve"> SUM(J3:J62)/COUNTA(J3:J62)</f>
+        <v>0.99290390683470664</v>
+      </c>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21">
+        <f t="shared" ref="K63:T63" si="7" xml:space="preserve"> SUM(L3:L62)/COUNTA(L3:L62)</f>
+        <v>0.99335590746446079</v>
+      </c>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21">
+        <f t="shared" ref="M63:T63" si="8" xml:space="preserve"> SUM(N3:N62)/COUNTA(N3:N62)</f>
         <v>0.9949911947585065</v>
       </c>
-      <c r="F63" s="34"/>
-      <c r="G63" s="18">
-        <f t="shared" ref="G63" si="8" xml:space="preserve"> SUM(H3:H62)/COUNTA(H3:H62)</f>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21">
+        <f t="shared" ref="O63:T63" si="9" xml:space="preserve"> SUM(P3:P62)/COUNTA(P3:P62)</f>
         <v>0.99669693810114812</v>
       </c>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18">
-        <f xml:space="preserve"> SUM(J3:J62)/COUNTA(J3:J62)</f>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21">
+        <f t="shared" ref="Q63:T63" si="10" xml:space="preserve"> SUM(R3:R62)/COUNTA(R3:R62)</f>
         <v>0.98207026245174711</v>
       </c>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18">
-        <f xml:space="preserve"> SUM(L3:L62)/COUNTA(L3:L62)</f>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21">
+        <f t="shared" ref="S63:T63" si="11" xml:space="preserve"> SUM(T3:T62)/COUNTA(T3:T62)</f>
         <v>0.99529353220951733</v>
       </c>
-      <c r="L63" s="18"/>
+      <c r="T63" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="E63:F63"/>
+  <mergeCells count="21">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="E63:F63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/statistic.xlsx
+++ b/statistic.xlsx
@@ -448,22 +448,15 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -478,7 +471,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -493,16 +507,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,10 +519,6 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,6 +540,2273 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Biểu đồ thể hiện tỉ lệ nhận dạng thay đổi theo góc quay của hình </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Rotate!$C$1:$X$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Rotate!$C$63:$X$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.25819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99150000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97509999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.81240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35720000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="373366952"/>
+        <c:axId val="373368912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="373366952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Góc</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> quay</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373368912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="373368912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>độ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> chính xác</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373366952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Biểu đồ thể hiện tỉ lệ nhận dạng theo mức độ phóng ảnh</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Resize!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>x0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>x0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>x0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>x0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>x0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>x0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>x1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>x2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>x4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resize!$C$63:$T$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.29730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9929</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99529999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="441453728"/>
+        <c:axId val="441451376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="441453728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mức độ thu phóng</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441451376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441451376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Đô chính xác</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441453728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1071561</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>188117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295603</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>512378</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>46759</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -831,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView topLeftCell="K56" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P74" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,58 +3131,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26"/>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="22">
+      <c r="C1" s="32">
         <v>-50</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23">
+      <c r="D1" s="32"/>
+      <c r="E1" s="31">
         <v>-40</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24">
+      <c r="F1" s="31"/>
+      <c r="G1" s="30">
         <v>-30</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="30">
+      <c r="H1" s="30"/>
+      <c r="I1" s="29">
         <v>-20</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="29">
+      <c r="J1" s="29"/>
+      <c r="K1" s="28">
         <v>-10</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="27">
+      <c r="L1" s="28"/>
+      <c r="M1" s="26">
         <v>0</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29">
+      <c r="N1" s="27"/>
+      <c r="O1" s="28">
         <v>10</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="30">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="29">
         <v>20</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="24">
+      <c r="R1" s="29"/>
+      <c r="S1" s="30">
         <v>30</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="23">
+      <c r="T1" s="30"/>
+      <c r="U1" s="31">
         <v>40</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="22">
+      <c r="V1" s="31"/>
+      <c r="W1" s="32">
         <v>50</v>
       </c>
-      <c r="X1" s="22"/>
+      <c r="X1" s="32"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="11" t="s">
         <v>63</v>
       </c>
@@ -6084,68 +8351,77 @@
       </c>
     </row>
     <row r="63" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21">
-        <f xml:space="preserve"> SUM(D3:D62)/COUNTA(D3:D62)</f>
-        <v>0.2582469024891369</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21">
-        <f t="shared" ref="E63" si="11" xml:space="preserve"> SUM(F3:F62)/COUNTA(F3:F62)</f>
-        <v>0.72557645749935085</v>
-      </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21">
-        <f t="shared" ref="G63" si="12" xml:space="preserve"> SUM(H3:H62)/COUNTA(H3:H62)</f>
-        <v>0.94080393461724454</v>
-      </c>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21">
-        <f t="shared" ref="I63" si="13" xml:space="preserve"> SUM(J3:J62)/COUNTA(J3:J62)</f>
-        <v>0.97235472076924767</v>
-      </c>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21">
-        <f t="shared" ref="K63" si="14" xml:space="preserve"> SUM(L3:L62)/COUNTA(L3:L62)</f>
-        <v>0.99014926258073988</v>
-      </c>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21">
-        <f t="shared" ref="M63" si="15" xml:space="preserve"> SUM(N3:N62)/COUNTA(N3:N62)</f>
-        <v>0.99669693810114812</v>
-      </c>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21">
-        <f xml:space="preserve"> SUM(P3:P62)/COUNTA(P3:P62)</f>
-        <v>0.9915064030823012</v>
-      </c>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21">
-        <f xml:space="preserve"> SUM(R3:R62)/COUNTA(R3:R62)</f>
-        <v>0.9751210975712018</v>
-      </c>
-      <c r="R63" s="21"/>
-      <c r="S63" s="21">
-        <f xml:space="preserve"> SUM(T3:T62)/COUNTA(T3:T62)</f>
-        <v>0.96145584194921141</v>
-      </c>
-      <c r="T63" s="21"/>
-      <c r="U63" s="21">
-        <f xml:space="preserve"> SUM(V3:V62)/COUNTA(V3:V62)</f>
-        <v>0.81239945458186213</v>
-      </c>
-      <c r="V63" s="21"/>
-      <c r="W63" s="21">
-        <f xml:space="preserve"> SUM(X3:X62)/COUNTA(X3:X62)</f>
-        <v>0.35718340575483215</v>
-      </c>
-      <c r="X63" s="21"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25">
+        <f xml:space="preserve"> ROUND(SUM(D3:D62)/COUNTA(D3:D62),4)</f>
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25">
+        <f t="shared" ref="E63:X63" si="11" xml:space="preserve"> ROUND(SUM(F3:F62)/COUNTA(F3:F62),4)</f>
+        <v>0.72560000000000002</v>
+      </c>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25">
+        <f t="shared" ref="G63:X63" si="12" xml:space="preserve"> ROUND(SUM(H3:H62)/COUNTA(H3:H62),4)</f>
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25">
+        <f t="shared" ref="I63:X63" si="13" xml:space="preserve"> ROUND(SUM(J3:J62)/COUNTA(J3:J62),4)</f>
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25">
+        <f t="shared" ref="K63:X63" si="14" xml:space="preserve"> ROUND(SUM(L3:L62)/COUNTA(L3:L62),4)</f>
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25">
+        <f t="shared" ref="M63:X63" si="15" xml:space="preserve"> ROUND(SUM(N3:N62)/COUNTA(N3:N62),4)</f>
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25">
+        <f t="shared" ref="O63:X63" si="16" xml:space="preserve"> ROUND(SUM(P3:P62)/COUNTA(P3:P62),4)</f>
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25">
+        <f t="shared" ref="Q63:X63" si="17" xml:space="preserve"> ROUND(SUM(R3:R62)/COUNTA(R3:R62),4)</f>
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25">
+        <f t="shared" ref="S63:X63" si="18" xml:space="preserve"> ROUND(SUM(T3:T62)/COUNTA(T3:T62),4)</f>
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="T63" s="25"/>
+      <c r="U63" s="25">
+        <f t="shared" ref="U63:X63" si="19" xml:space="preserve"> ROUND(SUM(V3:V62)/COUNTA(V3:V62),4)</f>
+        <v>0.81240000000000001</v>
+      </c>
+      <c r="V63" s="25"/>
+      <c r="W63" s="25">
+        <f t="shared" ref="W63:X63" si="20" xml:space="preserve"> ROUND(SUM(X3:X62)/COUNTA(X3:X62),4)</f>
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="X63" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="S63:T63"/>
     <mergeCell ref="U63:V63"/>
     <mergeCell ref="W63:X63"/>
@@ -6162,18 +8438,10 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6181,8 +8449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U65" sqref="U65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6209,54 +8477,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26"/>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="33" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>68</v>
       </c>
       <c r="D1" s="37"/>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="43"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="46" t="s">
         <v>72</v>
       </c>
       <c r="L1" s="47"/>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="27" t="s">
+      <c r="N1" s="39"/>
+      <c r="O1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="29" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="31" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="31"/>
+      <c r="T1" s="35"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="38" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="21" t="s">
         <v>62</v>
       </c>
       <c r="E2" s="20" t="s">
@@ -6271,10 +8539,10 @@
       <c r="H2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="23" t="s">
         <v>62</v>
       </c>
       <c r="K2" s="18" t="s">
@@ -6315,10 +8583,10 @@
       <c r="B3" s="2">
         <v>18</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="22">
         <v>2</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="22">
         <f>C3/B3</f>
         <v>0.1111111111111111</v>
       </c>
@@ -6336,10 +8604,10 @@
         <f>G3/B3</f>
         <v>1</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="24">
         <v>18</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="24">
         <f>I3/B3</f>
         <v>1</v>
       </c>
@@ -6354,28 +8622,28 @@
         <v>18</v>
       </c>
       <c r="N3" s="14">
-        <f>M3/B3</f>
+        <f t="shared" ref="N3:N34" si="0">M3/B3</f>
         <v>1</v>
       </c>
       <c r="O3" s="6">
         <v>18</v>
       </c>
       <c r="P3" s="6">
-        <f>O3/B3</f>
+        <f t="shared" ref="P3:P34" si="1">O3/B3</f>
         <v>1</v>
       </c>
       <c r="Q3" s="14">
         <v>18</v>
       </c>
       <c r="R3" s="14">
-        <f>Q3/B3</f>
+        <f t="shared" ref="R3:R34" si="2">Q3/B3</f>
         <v>1</v>
       </c>
       <c r="S3" s="17">
         <v>18</v>
       </c>
       <c r="T3" s="17">
-        <f>S3/B3</f>
+        <f t="shared" ref="T3:T34" si="3">S3/B3</f>
         <v>1</v>
       </c>
     </row>
@@ -6386,67 +8654,67 @@
       <c r="B4" s="2">
         <v>20</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="22">
         <v>2</v>
       </c>
-      <c r="D4" s="39">
-        <f t="shared" ref="D4:D62" si="0">C4/B4</f>
+      <c r="D4" s="22">
+        <f t="shared" ref="D4:D62" si="4">C4/B4</f>
         <v>0.1</v>
       </c>
       <c r="E4" s="12">
         <v>19</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" ref="F4:F62" si="1">E4/B4</f>
+        <f t="shared" ref="F4:F62" si="5">E4/B4</f>
         <v>0.95</v>
       </c>
       <c r="G4" s="10">
         <v>20</v>
       </c>
       <c r="H4" s="10">
-        <f t="shared" ref="H4:H62" si="2">G4/B4</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="45">
+        <f t="shared" ref="H4:H62" si="6">G4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="24">
         <v>19</v>
       </c>
-      <c r="J4" s="45">
-        <f t="shared" ref="J4:J62" si="3">I4/B4</f>
+      <c r="J4" s="24">
+        <f t="shared" ref="J4:J62" si="7">I4/B4</f>
         <v>0.95</v>
       </c>
       <c r="K4" s="8">
         <v>20</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" ref="L4:L62" si="4">K4/B4</f>
+        <f t="shared" ref="L4:L62" si="8">K4/B4</f>
         <v>1</v>
       </c>
       <c r="M4" s="14">
         <v>20</v>
       </c>
       <c r="N4" s="14">
-        <f>M4/B4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O4" s="6">
         <v>20</v>
       </c>
       <c r="P4" s="6">
-        <f>O4/B4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q4" s="14">
         <v>20</v>
       </c>
       <c r="R4" s="14">
-        <f>Q4/B4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S4" s="17">
         <v>20</v>
       </c>
       <c r="T4" s="17">
-        <f>S4/B4</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6457,67 +8725,67 @@
       <c r="B5" s="2">
         <v>21</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="22">
         <v>5</v>
       </c>
-      <c r="D5" s="39">
-        <f t="shared" si="0"/>
+      <c r="D5" s="22">
+        <f t="shared" si="4"/>
         <v>0.23809523809523808</v>
       </c>
       <c r="E5" s="12">
         <v>20</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="G5" s="10">
         <v>21</v>
       </c>
       <c r="H5" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I5" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="24">
         <v>21</v>
       </c>
-      <c r="J5" s="45">
-        <f t="shared" si="3"/>
+      <c r="J5" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K5" s="8">
         <v>21</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M5" s="14">
         <v>21</v>
       </c>
       <c r="N5" s="14">
-        <f>M5/B5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O5" s="6">
         <v>21</v>
       </c>
       <c r="P5" s="6">
-        <f>O5/B5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q5" s="14">
         <v>21</v>
       </c>
       <c r="R5" s="14">
-        <f>Q5/B5</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S5" s="17">
         <v>21</v>
       </c>
       <c r="T5" s="17">
-        <f>S5/B5</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6528,67 +8796,67 @@
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="22">
         <v>0</v>
       </c>
-      <c r="D6" s="39">
-        <f t="shared" si="0"/>
+      <c r="D6" s="22">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E6" s="12">
         <v>5</v>
       </c>
       <c r="F6" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G6" s="10">
         <v>5</v>
       </c>
       <c r="H6" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I6" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="24">
         <v>5</v>
       </c>
-      <c r="J6" s="45">
-        <f t="shared" si="3"/>
+      <c r="J6" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K6" s="8">
         <v>5</v>
       </c>
       <c r="L6" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M6" s="14">
         <v>5</v>
       </c>
       <c r="N6" s="14">
-        <f>M6/B6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O6" s="6">
         <v>5</v>
       </c>
       <c r="P6" s="6">
-        <f>O6/B6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q6" s="14">
         <v>5</v>
       </c>
       <c r="R6" s="14">
-        <f>Q6/B6</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S6" s="17">
         <v>5</v>
       </c>
       <c r="T6" s="17">
-        <f>S6/B6</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6599,67 +8867,67 @@
       <c r="B7" s="2">
         <v>62</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="22">
         <v>23</v>
       </c>
-      <c r="D7" s="39">
-        <f t="shared" si="0"/>
+      <c r="D7" s="22">
+        <f t="shared" si="4"/>
         <v>0.37096774193548387</v>
       </c>
       <c r="E7" s="12">
         <v>57</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.91935483870967738</v>
       </c>
       <c r="G7" s="10">
         <v>62</v>
       </c>
       <c r="H7" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="24">
         <v>59</v>
       </c>
-      <c r="J7" s="45">
-        <f t="shared" si="3"/>
+      <c r="J7" s="24">
+        <f t="shared" si="7"/>
         <v>0.95161290322580649</v>
       </c>
       <c r="K7" s="8">
         <v>60</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.967741935483871</v>
       </c>
       <c r="M7" s="14">
         <v>62</v>
       </c>
       <c r="N7" s="14">
-        <f>M7/B7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O7" s="6">
         <v>62</v>
       </c>
       <c r="P7" s="6">
-        <f>O7/B7</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q7" s="14">
         <v>62</v>
       </c>
       <c r="R7" s="14">
-        <f>Q7/B7</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S7" s="17">
         <v>61</v>
       </c>
       <c r="T7" s="17">
-        <f>S7/B7</f>
+        <f t="shared" si="3"/>
         <v>0.9838709677419355</v>
       </c>
     </row>
@@ -6670,67 +8938,67 @@
       <c r="B8" s="2">
         <v>27</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="22">
         <v>4</v>
       </c>
-      <c r="D8" s="39">
-        <f t="shared" si="0"/>
+      <c r="D8" s="22">
+        <f t="shared" si="4"/>
         <v>0.14814814814814814</v>
       </c>
       <c r="E8" s="12">
         <v>23</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.85185185185185186</v>
       </c>
       <c r="G8" s="10">
         <v>26</v>
       </c>
       <c r="H8" s="10">
+        <f t="shared" si="6"/>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="I8" s="24">
+        <v>26</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="7"/>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="K8" s="8">
+        <v>26</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="M8" s="14">
+        <v>26</v>
+      </c>
+      <c r="N8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="O8" s="6">
+        <v>26</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>26</v>
+      </c>
+      <c r="R8" s="14">
         <f t="shared" si="2"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="I8" s="45">
-        <v>26</v>
-      </c>
-      <c r="J8" s="45">
-        <f t="shared" si="3"/>
-        <v>0.96296296296296291</v>
-      </c>
-      <c r="K8" s="8">
-        <v>26</v>
-      </c>
-      <c r="L8" s="8">
-        <f t="shared" si="4"/>
-        <v>0.96296296296296291</v>
-      </c>
-      <c r="M8" s="14">
-        <v>26</v>
-      </c>
-      <c r="N8" s="14">
-        <f>M8/B8</f>
-        <v>0.96296296296296291</v>
-      </c>
-      <c r="O8" s="6">
-        <v>26</v>
-      </c>
-      <c r="P8" s="6">
-        <f>O8/B8</f>
-        <v>0.96296296296296291</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>26</v>
-      </c>
-      <c r="R8" s="14">
-        <f>Q8/B8</f>
-        <v>0.96296296296296291</v>
-      </c>
       <c r="S8" s="17">
         <v>26</v>
       </c>
       <c r="T8" s="17">
-        <f>S8/B8</f>
+        <f t="shared" si="3"/>
         <v>0.96296296296296291</v>
       </c>
     </row>
@@ -6741,67 +9009,67 @@
       <c r="B9" s="2">
         <v>14</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="22">
         <v>5</v>
       </c>
-      <c r="D9" s="39">
-        <f t="shared" si="0"/>
+      <c r="D9" s="22">
+        <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="E9" s="12">
         <v>13</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="G9" s="10">
         <v>14</v>
       </c>
       <c r="H9" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="24">
         <v>14</v>
       </c>
-      <c r="J9" s="45">
-        <f t="shared" si="3"/>
+      <c r="J9" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K9" s="8">
         <v>14</v>
       </c>
       <c r="L9" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M9" s="14">
         <v>14</v>
       </c>
       <c r="N9" s="14">
-        <f>M9/B9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O9" s="6">
         <v>14</v>
       </c>
       <c r="P9" s="6">
-        <f>O9/B9</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q9" s="14">
         <v>14</v>
       </c>
       <c r="R9" s="14">
-        <f>Q9/B9</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S9" s="17">
         <v>14</v>
       </c>
       <c r="T9" s="17">
-        <f>S9/B9</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6812,67 +9080,67 @@
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="22">
         <v>3</v>
       </c>
-      <c r="D10" s="39">
-        <f t="shared" si="0"/>
+      <c r="D10" s="22">
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="E10" s="12">
         <v>6</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G10" s="10">
         <v>6</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="24">
         <v>6</v>
       </c>
-      <c r="J10" s="45">
-        <f t="shared" si="3"/>
+      <c r="J10" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K10" s="8">
         <v>6</v>
       </c>
       <c r="L10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M10" s="14">
         <v>6</v>
       </c>
       <c r="N10" s="14">
-        <f>M10/B10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O10" s="6">
         <v>6</v>
       </c>
       <c r="P10" s="6">
-        <f>O10/B10</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q10" s="14">
         <v>6</v>
       </c>
       <c r="R10" s="14">
-        <f>Q10/B10</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S10" s="17">
         <v>6</v>
       </c>
       <c r="T10" s="17">
-        <f>S10/B10</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6883,67 +9151,67 @@
       <c r="B11" s="2">
         <v>221</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="22">
         <v>120</v>
       </c>
-      <c r="D11" s="39">
-        <f t="shared" si="0"/>
+      <c r="D11" s="22">
+        <f t="shared" si="4"/>
         <v>0.54298642533936647</v>
       </c>
       <c r="E11" s="12">
         <v>219</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.99095022624434392</v>
       </c>
       <c r="G11" s="10">
         <v>221</v>
       </c>
       <c r="H11" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I11" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="24">
         <v>220</v>
       </c>
-      <c r="J11" s="45">
-        <f t="shared" si="3"/>
+      <c r="J11" s="24">
+        <f t="shared" si="7"/>
         <v>0.99547511312217196</v>
       </c>
       <c r="K11" s="8">
         <v>221</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M11" s="14">
         <v>221</v>
       </c>
       <c r="N11" s="14">
-        <f>M11/B11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O11" s="6">
         <v>220</v>
       </c>
       <c r="P11" s="6">
-        <f>O11/B11</f>
+        <f t="shared" si="1"/>
         <v>0.99547511312217196</v>
       </c>
       <c r="Q11" s="14">
         <v>221</v>
       </c>
       <c r="R11" s="14">
-        <f>Q11/B11</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S11" s="17">
         <v>220</v>
       </c>
       <c r="T11" s="17">
-        <f>S11/B11</f>
+        <f t="shared" si="3"/>
         <v>0.99547511312217196</v>
       </c>
     </row>
@@ -6954,67 +9222,67 @@
       <c r="B12" s="2">
         <v>16</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="22">
         <v>5</v>
       </c>
-      <c r="D12" s="39">
-        <f t="shared" si="0"/>
+      <c r="D12" s="22">
+        <f t="shared" si="4"/>
         <v>0.3125</v>
       </c>
       <c r="E12" s="12">
         <v>15</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.9375</v>
       </c>
       <c r="G12" s="10">
         <v>16</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I12" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="24">
         <v>16</v>
       </c>
-      <c r="J12" s="45">
-        <f t="shared" si="3"/>
+      <c r="J12" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K12" s="8">
         <v>15</v>
       </c>
       <c r="L12" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.9375</v>
       </c>
       <c r="M12" s="14">
         <v>16</v>
       </c>
       <c r="N12" s="14">
-        <f>M12/B12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O12" s="6">
         <v>16</v>
       </c>
       <c r="P12" s="6">
-        <f>O12/B12</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q12" s="14">
         <v>16</v>
       </c>
       <c r="R12" s="14">
-        <f>Q12/B12</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S12" s="17">
         <v>16</v>
       </c>
       <c r="T12" s="17">
-        <f>S12/B12</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7025,67 +9293,67 @@
       <c r="B13" s="2">
         <v>106</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="22">
         <v>46</v>
       </c>
-      <c r="D13" s="39">
-        <f t="shared" si="0"/>
+      <c r="D13" s="22">
+        <f t="shared" si="4"/>
         <v>0.43396226415094341</v>
       </c>
       <c r="E13" s="12">
         <v>104</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.98113207547169812</v>
       </c>
       <c r="G13" s="10">
         <v>105</v>
       </c>
       <c r="H13" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99056603773584906</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="24">
         <v>104</v>
       </c>
-      <c r="J13" s="45">
-        <f t="shared" si="3"/>
+      <c r="J13" s="24">
+        <f t="shared" si="7"/>
         <v>0.98113207547169812</v>
       </c>
       <c r="K13" s="8">
         <v>106</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M13" s="14">
         <v>106</v>
       </c>
       <c r="N13" s="14">
-        <f>M13/B13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O13" s="6">
         <v>105</v>
       </c>
       <c r="P13" s="6">
-        <f>O13/B13</f>
+        <f t="shared" si="1"/>
         <v>0.99056603773584906</v>
       </c>
       <c r="Q13" s="14">
         <v>106</v>
       </c>
       <c r="R13" s="14">
-        <f>Q13/B13</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S13" s="17">
         <v>105</v>
       </c>
       <c r="T13" s="17">
-        <f>S13/B13</f>
+        <f t="shared" si="3"/>
         <v>0.99056603773584906</v>
       </c>
     </row>
@@ -7096,67 +9364,67 @@
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="22">
         <v>3</v>
       </c>
-      <c r="D14" s="39">
-        <f t="shared" si="0"/>
+      <c r="D14" s="22">
+        <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="E14" s="12">
         <v>7</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G14" s="10">
         <v>7</v>
       </c>
       <c r="H14" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I14" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="24">
         <v>7</v>
       </c>
-      <c r="J14" s="45">
-        <f t="shared" si="3"/>
+      <c r="J14" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K14" s="8">
         <v>7</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M14" s="14">
         <v>7</v>
       </c>
       <c r="N14" s="14">
-        <f>M14/B14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O14" s="6">
         <v>7</v>
       </c>
       <c r="P14" s="6">
-        <f>O14/B14</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q14" s="14">
         <v>7</v>
       </c>
       <c r="R14" s="14">
-        <f>Q14/B14</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S14" s="17">
         <v>7</v>
       </c>
       <c r="T14" s="17">
-        <f>S14/B14</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7167,67 +9435,67 @@
       <c r="B15" s="2">
         <v>515</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="22">
         <v>139</v>
       </c>
-      <c r="D15" s="39">
-        <f t="shared" si="0"/>
+      <c r="D15" s="22">
+        <f t="shared" si="4"/>
         <v>0.26990291262135924</v>
       </c>
       <c r="E15" s="12">
         <v>486</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.94368932038834952</v>
       </c>
       <c r="G15" s="10">
         <v>509</v>
       </c>
       <c r="H15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.98834951456310682</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="24">
         <v>511</v>
       </c>
-      <c r="J15" s="45">
-        <f t="shared" si="3"/>
+      <c r="J15" s="24">
+        <f t="shared" si="7"/>
         <v>0.99223300970873785</v>
       </c>
       <c r="K15" s="8">
         <v>513</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99611650485436898</v>
       </c>
       <c r="M15" s="14">
         <v>513</v>
       </c>
       <c r="N15" s="14">
-        <f>M15/B15</f>
+        <f t="shared" si="0"/>
         <v>0.99611650485436898</v>
       </c>
       <c r="O15" s="6">
         <v>514</v>
       </c>
       <c r="P15" s="6">
-        <f>O15/B15</f>
+        <f t="shared" si="1"/>
         <v>0.99805825242718449</v>
       </c>
       <c r="Q15" s="14">
         <v>515</v>
       </c>
       <c r="R15" s="14">
-        <f>Q15/B15</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S15" s="17">
         <v>513</v>
       </c>
       <c r="T15" s="17">
-        <f>S15/B15</f>
+        <f t="shared" si="3"/>
         <v>0.99611650485436898</v>
       </c>
     </row>
@@ -7238,67 +9506,67 @@
       <c r="B16" s="2">
         <v>94</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="22">
         <v>40</v>
       </c>
-      <c r="D16" s="39">
-        <f t="shared" si="0"/>
+      <c r="D16" s="22">
+        <f t="shared" si="4"/>
         <v>0.42553191489361702</v>
       </c>
       <c r="E16" s="12">
         <v>89</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.94680851063829785</v>
       </c>
       <c r="G16" s="10">
         <v>94</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I16" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="24">
         <v>92</v>
       </c>
-      <c r="J16" s="45">
-        <f t="shared" si="3"/>
+      <c r="J16" s="24">
+        <f t="shared" si="7"/>
         <v>0.97872340425531912</v>
       </c>
       <c r="K16" s="8">
         <v>93</v>
       </c>
       <c r="L16" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.98936170212765961</v>
       </c>
       <c r="M16" s="14">
         <v>93</v>
       </c>
       <c r="N16" s="14">
-        <f>M16/B16</f>
+        <f t="shared" si="0"/>
         <v>0.98936170212765961</v>
       </c>
       <c r="O16" s="6">
         <v>92</v>
       </c>
       <c r="P16" s="6">
-        <f>O16/B16</f>
+        <f t="shared" si="1"/>
         <v>0.97872340425531912</v>
       </c>
       <c r="Q16" s="14">
         <v>93</v>
       </c>
       <c r="R16" s="14">
-        <f>Q16/B16</f>
+        <f t="shared" si="2"/>
         <v>0.98936170212765961</v>
       </c>
       <c r="S16" s="17">
         <v>93</v>
       </c>
       <c r="T16" s="17">
-        <f>S16/B16</f>
+        <f t="shared" si="3"/>
         <v>0.98936170212765961</v>
       </c>
     </row>
@@ -7309,67 +9577,67 @@
       <c r="B17" s="2">
         <v>29</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="22">
         <v>7</v>
       </c>
-      <c r="D17" s="39">
-        <f t="shared" si="0"/>
+      <c r="D17" s="22">
+        <f t="shared" si="4"/>
         <v>0.2413793103448276</v>
       </c>
       <c r="E17" s="12">
         <v>27</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.93103448275862066</v>
       </c>
       <c r="G17" s="10">
         <v>29</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="24">
         <v>29</v>
       </c>
-      <c r="J17" s="45">
-        <f t="shared" si="3"/>
+      <c r="J17" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K17" s="8">
         <v>29</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M17" s="14">
         <v>29</v>
       </c>
       <c r="N17" s="14">
-        <f>M17/B17</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O17" s="6">
         <v>29</v>
       </c>
       <c r="P17" s="6">
-        <f>O17/B17</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q17" s="14">
         <v>29</v>
       </c>
       <c r="R17" s="14">
-        <f>Q17/B17</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S17" s="17">
         <v>29</v>
       </c>
       <c r="T17" s="17">
-        <f>S17/B17</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7380,67 +9648,67 @@
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="22">
         <v>11</v>
       </c>
-      <c r="D18" s="39">
-        <f t="shared" si="0"/>
+      <c r="D18" s="22">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E18" s="12">
         <v>8</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="G18" s="10">
         <v>11</v>
       </c>
       <c r="H18" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I18" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="24">
         <v>11</v>
       </c>
-      <c r="J18" s="45">
-        <f t="shared" si="3"/>
+      <c r="J18" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K18" s="8">
         <v>11</v>
       </c>
       <c r="L18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M18" s="14">
         <v>11</v>
       </c>
       <c r="N18" s="14">
-        <f>M18/B18</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O18" s="6">
         <v>11</v>
       </c>
       <c r="P18" s="6">
-        <f>O18/B18</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q18" s="14">
         <v>11</v>
       </c>
       <c r="R18" s="14">
-        <f>Q18/B18</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S18" s="17">
         <v>11</v>
       </c>
       <c r="T18" s="17">
-        <f>S18/B18</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7451,67 +9719,67 @@
       <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="39">
-        <v>1</v>
-      </c>
-      <c r="D19" s="39">
-        <f t="shared" si="0"/>
+      <c r="C19" s="22">
+        <v>1</v>
+      </c>
+      <c r="D19" s="22">
+        <f t="shared" si="4"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E19" s="12">
         <v>13</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="G19" s="10">
         <v>15</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="24">
         <v>15</v>
       </c>
-      <c r="J19" s="45">
-        <f t="shared" si="3"/>
+      <c r="J19" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K19" s="8">
         <v>15</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M19" s="14">
         <v>15</v>
       </c>
       <c r="N19" s="14">
-        <f>M19/B19</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O19" s="6">
         <v>15</v>
       </c>
       <c r="P19" s="6">
-        <f>O19/B19</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q19" s="14">
         <v>15</v>
       </c>
       <c r="R19" s="14">
-        <f>Q19/B19</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S19" s="17">
         <v>15</v>
       </c>
       <c r="T19" s="17">
-        <f>S19/B19</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7522,67 +9790,67 @@
       <c r="B20" s="2">
         <v>7</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="22">
         <v>2</v>
       </c>
-      <c r="D20" s="39">
-        <f t="shared" si="0"/>
+      <c r="D20" s="22">
+        <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="E20" s="12">
         <v>6</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="G20" s="10">
         <v>7</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I20" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="24">
         <v>7</v>
       </c>
-      <c r="J20" s="45">
-        <f t="shared" si="3"/>
+      <c r="J20" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K20" s="8">
         <v>7</v>
       </c>
       <c r="L20" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M20" s="14">
         <v>7</v>
       </c>
       <c r="N20" s="14">
-        <f>M20/B20</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O20" s="6">
         <v>7</v>
       </c>
       <c r="P20" s="6">
-        <f>O20/B20</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q20" s="14">
         <v>7</v>
       </c>
       <c r="R20" s="14">
-        <f>Q20/B20</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S20" s="17">
         <v>7</v>
       </c>
       <c r="T20" s="17">
-        <f>S20/B20</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7593,67 +9861,67 @@
       <c r="B21" s="2">
         <v>24</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="22">
         <v>3</v>
       </c>
-      <c r="D21" s="39">
-        <f t="shared" si="0"/>
+      <c r="D21" s="22">
+        <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
       <c r="E21" s="12">
         <v>19</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="G21" s="10">
         <v>24</v>
       </c>
       <c r="H21" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="24">
         <v>24</v>
       </c>
-      <c r="J21" s="45">
-        <f t="shared" si="3"/>
+      <c r="J21" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K21" s="8">
         <v>24</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M21" s="14">
         <v>24</v>
       </c>
       <c r="N21" s="14">
-        <f>M21/B21</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O21" s="6">
         <v>24</v>
       </c>
       <c r="P21" s="6">
-        <f>O21/B21</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q21" s="14">
         <v>24</v>
       </c>
       <c r="R21" s="14">
-        <f>Q21/B21</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S21" s="17">
         <v>24</v>
       </c>
       <c r="T21" s="17">
-        <f>S21/B21</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7664,67 +9932,67 @@
       <c r="B22" s="2">
         <v>56</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="22">
         <v>23</v>
       </c>
-      <c r="D22" s="39">
-        <f t="shared" si="0"/>
+      <c r="D22" s="22">
+        <f t="shared" si="4"/>
         <v>0.4107142857142857</v>
       </c>
       <c r="E22" s="12">
         <v>54</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.9642857142857143</v>
       </c>
       <c r="G22" s="10">
         <v>56</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I22" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="24">
         <v>55</v>
       </c>
-      <c r="J22" s="45">
-        <f t="shared" si="3"/>
+      <c r="J22" s="24">
+        <f t="shared" si="7"/>
         <v>0.9821428571428571</v>
       </c>
       <c r="K22" s="8">
         <v>56</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M22" s="14">
         <v>56</v>
       </c>
       <c r="N22" s="14">
-        <f>M22/B22</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O22" s="6">
         <v>56</v>
       </c>
       <c r="P22" s="6">
-        <f>O22/B22</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q22" s="14">
         <v>56</v>
       </c>
       <c r="R22" s="14">
-        <f>Q22/B22</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S22" s="17">
         <v>55</v>
       </c>
       <c r="T22" s="17">
-        <f>S22/B22</f>
+        <f t="shared" si="3"/>
         <v>0.9821428571428571</v>
       </c>
     </row>
@@ -7735,67 +10003,67 @@
       <c r="B23" s="2">
         <v>5</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="22">
         <v>2</v>
       </c>
-      <c r="D23" s="39">
-        <f t="shared" si="0"/>
+      <c r="D23" s="22">
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="E23" s="12">
         <v>5</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G23" s="10">
         <v>5</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I23" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="24">
         <v>5</v>
       </c>
-      <c r="J23" s="45">
-        <f t="shared" si="3"/>
+      <c r="J23" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K23" s="8">
         <v>5</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M23" s="14">
         <v>5</v>
       </c>
       <c r="N23" s="14">
-        <f>M23/B23</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O23" s="6">
         <v>5</v>
       </c>
       <c r="P23" s="6">
-        <f>O23/B23</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q23" s="14">
         <v>5</v>
       </c>
       <c r="R23" s="14">
-        <f>Q23/B23</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S23" s="17">
         <v>5</v>
       </c>
       <c r="T23" s="17">
-        <f>S23/B23</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7806,67 +10074,67 @@
       <c r="B24" s="2">
         <v>13</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="22">
         <v>3</v>
       </c>
-      <c r="D24" s="39">
-        <f t="shared" si="0"/>
+      <c r="D24" s="22">
+        <f t="shared" si="4"/>
         <v>0.23076923076923078</v>
       </c>
       <c r="E24" s="12">
         <v>10</v>
       </c>
       <c r="F24" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="G24" s="10">
         <v>13</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I24" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="24">
         <v>13</v>
       </c>
-      <c r="J24" s="45">
-        <f t="shared" si="3"/>
+      <c r="J24" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K24" s="8">
         <v>13</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M24" s="14">
         <v>13</v>
       </c>
       <c r="N24" s="14">
-        <f>M24/B24</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O24" s="6">
         <v>13</v>
       </c>
       <c r="P24" s="6">
-        <f>O24/B24</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q24" s="14">
         <v>13</v>
       </c>
       <c r="R24" s="14">
-        <f>Q24/B24</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S24" s="17">
         <v>13</v>
       </c>
       <c r="T24" s="17">
-        <f>S24/B24</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7877,67 +10145,67 @@
       <c r="B25" s="2">
         <v>37</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="22">
         <v>7</v>
       </c>
-      <c r="D25" s="39">
-        <f t="shared" si="0"/>
+      <c r="D25" s="22">
+        <f t="shared" si="4"/>
         <v>0.1891891891891892</v>
       </c>
       <c r="E25" s="12">
         <v>35</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.94594594594594594</v>
       </c>
       <c r="G25" s="10">
         <v>37</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I25" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="24">
         <v>37</v>
       </c>
-      <c r="J25" s="45">
-        <f t="shared" si="3"/>
+      <c r="J25" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K25" s="8">
         <v>37</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M25" s="14">
         <v>37</v>
       </c>
       <c r="N25" s="14">
-        <f>M25/B25</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O25" s="6">
         <v>37</v>
       </c>
       <c r="P25" s="6">
-        <f>O25/B25</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q25" s="14">
         <v>37</v>
       </c>
       <c r="R25" s="14">
-        <f>Q25/B25</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S25" s="17">
         <v>37</v>
       </c>
       <c r="T25" s="17">
-        <f>S25/B25</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7948,67 +10216,67 @@
       <c r="B26" s="2">
         <v>40</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="22">
         <v>23</v>
       </c>
-      <c r="D26" s="39">
-        <f t="shared" si="0"/>
+      <c r="D26" s="22">
+        <f t="shared" si="4"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="E26" s="12">
         <v>39</v>
       </c>
       <c r="F26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="G26" s="10">
         <v>40</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I26" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="24">
         <v>40</v>
       </c>
-      <c r="J26" s="45">
-        <f t="shared" si="3"/>
+      <c r="J26" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K26" s="8">
         <v>39</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="M26" s="14">
         <v>40</v>
       </c>
       <c r="N26" s="14">
-        <f>M26/B26</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O26" s="6">
         <v>40</v>
       </c>
       <c r="P26" s="6">
-        <f>O26/B26</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q26" s="14">
         <v>40</v>
       </c>
       <c r="R26" s="14">
-        <f>Q26/B26</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S26" s="17">
         <v>40</v>
       </c>
       <c r="T26" s="17">
-        <f>S26/B26</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8019,67 +10287,67 @@
       <c r="B27" s="2">
         <v>6</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="22">
         <v>5</v>
       </c>
-      <c r="D27" s="39">
-        <f t="shared" si="0"/>
+      <c r="D27" s="22">
+        <f t="shared" si="4"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="E27" s="12">
         <v>6</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G27" s="10">
         <v>6</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I27" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="24">
         <v>6</v>
       </c>
-      <c r="J27" s="45">
-        <f t="shared" si="3"/>
+      <c r="J27" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K27" s="8">
         <v>6</v>
       </c>
       <c r="L27" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M27" s="14">
         <v>6</v>
       </c>
       <c r="N27" s="14">
-        <f>M27/B27</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O27" s="6">
         <v>6</v>
       </c>
       <c r="P27" s="6">
-        <f>O27/B27</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q27" s="14">
         <v>6</v>
       </c>
       <c r="R27" s="14">
-        <f>Q27/B27</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S27" s="17">
         <v>6</v>
       </c>
       <c r="T27" s="17">
-        <f>S27/B27</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8090,67 +10358,67 @@
       <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="22">
         <v>9</v>
       </c>
-      <c r="D28" s="39">
-        <f t="shared" si="0"/>
+      <c r="D28" s="22">
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E28" s="12">
         <v>24</v>
       </c>
       <c r="F28" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="G28" s="10">
         <v>27</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I28" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="24">
         <v>26</v>
       </c>
-      <c r="J28" s="45">
-        <f t="shared" si="3"/>
+      <c r="J28" s="24">
+        <f t="shared" si="7"/>
         <v>0.96296296296296291</v>
       </c>
       <c r="K28" s="8">
         <v>26</v>
       </c>
       <c r="L28" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.96296296296296291</v>
       </c>
       <c r="M28" s="14">
         <v>26</v>
       </c>
       <c r="N28" s="14">
-        <f>M28/B28</f>
+        <f t="shared" si="0"/>
         <v>0.96296296296296291</v>
       </c>
       <c r="O28" s="6">
         <v>26</v>
       </c>
       <c r="P28" s="6">
-        <f>O28/B28</f>
+        <f t="shared" si="1"/>
         <v>0.96296296296296291</v>
       </c>
       <c r="Q28" s="14">
         <v>27</v>
       </c>
       <c r="R28" s="14">
-        <f>Q28/B28</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S28" s="17">
         <v>26</v>
       </c>
       <c r="T28" s="17">
-        <f>S28/B28</f>
+        <f t="shared" si="3"/>
         <v>0.96296296296296291</v>
       </c>
     </row>
@@ -8161,67 +10429,67 @@
       <c r="B29" s="2">
         <v>6</v>
       </c>
-      <c r="C29" s="39">
-        <v>1</v>
-      </c>
-      <c r="D29" s="39">
-        <f t="shared" si="0"/>
+      <c r="C29" s="22">
+        <v>1</v>
+      </c>
+      <c r="D29" s="22">
+        <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E29" s="12">
         <v>6</v>
       </c>
       <c r="F29" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G29" s="10">
         <v>6</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I29" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="24">
         <v>6</v>
       </c>
-      <c r="J29" s="45">
-        <f t="shared" si="3"/>
+      <c r="J29" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K29" s="8">
         <v>6</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M29" s="14">
         <v>6</v>
       </c>
       <c r="N29" s="14">
-        <f>M29/B29</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O29" s="6">
         <v>6</v>
       </c>
       <c r="P29" s="6">
-        <f>O29/B29</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q29" s="14">
         <v>6</v>
       </c>
       <c r="R29" s="14">
-        <f>Q29/B29</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S29" s="17">
         <v>6</v>
       </c>
       <c r="T29" s="17">
-        <f>S29/B29</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8232,67 +10500,67 @@
       <c r="B30" s="2">
         <v>9</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="22">
         <v>2</v>
       </c>
-      <c r="D30" s="39">
-        <f t="shared" si="0"/>
+      <c r="D30" s="22">
+        <f t="shared" si="4"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="E30" s="12">
         <v>8</v>
       </c>
       <c r="F30" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="G30" s="10">
         <v>9</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I30" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="24">
         <v>9</v>
       </c>
-      <c r="J30" s="45">
-        <f t="shared" si="3"/>
+      <c r="J30" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K30" s="8">
         <v>8</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="M30" s="14">
         <v>9</v>
       </c>
       <c r="N30" s="14">
-        <f>M30/B30</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O30" s="6">
         <v>9</v>
       </c>
       <c r="P30" s="6">
-        <f>O30/B30</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q30" s="14">
         <v>9</v>
       </c>
       <c r="R30" s="14">
-        <f>Q30/B30</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S30" s="17">
         <v>9</v>
       </c>
       <c r="T30" s="17">
-        <f>S30/B30</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8303,67 +10571,67 @@
       <c r="B31" s="2">
         <v>5</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="22">
         <v>0</v>
       </c>
-      <c r="D31" s="39">
-        <f t="shared" si="0"/>
+      <c r="D31" s="22">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E31" s="12">
         <v>2</v>
       </c>
       <c r="F31" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="G31" s="10">
         <v>5</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I31" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="24">
         <v>5</v>
       </c>
-      <c r="J31" s="45">
-        <f t="shared" si="3"/>
+      <c r="J31" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K31" s="8">
         <v>5</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M31" s="14">
         <v>5</v>
       </c>
       <c r="N31" s="14">
-        <f>M31/B31</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O31" s="6">
         <v>5</v>
       </c>
       <c r="P31" s="6">
-        <f>O31/B31</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q31" s="14">
         <v>5</v>
       </c>
       <c r="R31" s="14">
-        <f>Q31/B31</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S31" s="17">
         <v>5</v>
       </c>
       <c r="T31" s="17">
-        <f>S31/B31</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8374,67 +10642,67 @@
       <c r="B32" s="2">
         <v>38</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="22">
         <v>15</v>
       </c>
-      <c r="D32" s="39">
-        <f t="shared" si="0"/>
+      <c r="D32" s="22">
+        <f t="shared" si="4"/>
         <v>0.39473684210526316</v>
       </c>
       <c r="E32" s="12">
         <v>35</v>
       </c>
       <c r="F32" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.92105263157894735</v>
       </c>
       <c r="G32" s="10">
         <v>38</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I32" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="24">
         <v>38</v>
       </c>
-      <c r="J32" s="45">
-        <f t="shared" si="3"/>
+      <c r="J32" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K32" s="8">
         <v>38</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M32" s="14">
         <v>38</v>
       </c>
       <c r="N32" s="14">
-        <f>M32/B32</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O32" s="6">
         <v>38</v>
       </c>
       <c r="P32" s="6">
-        <f>O32/B32</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q32" s="14">
         <v>38</v>
       </c>
       <c r="R32" s="14">
-        <f>Q32/B32</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S32" s="17">
         <v>38</v>
       </c>
       <c r="T32" s="17">
-        <f>S32/B32</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8445,67 +10713,67 @@
       <c r="B33" s="2">
         <v>16</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="22">
         <v>6</v>
       </c>
-      <c r="D33" s="39">
-        <f t="shared" si="0"/>
+      <c r="D33" s="22">
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="E33" s="12">
         <v>15</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.9375</v>
       </c>
       <c r="G33" s="10">
         <v>16</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I33" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="24">
         <v>16</v>
       </c>
-      <c r="J33" s="45">
-        <f t="shared" si="3"/>
+      <c r="J33" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K33" s="8">
         <v>16</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M33" s="14">
         <v>16</v>
       </c>
       <c r="N33" s="14">
-        <f>M33/B33</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O33" s="6">
         <v>16</v>
       </c>
       <c r="P33" s="6">
-        <f>O33/B33</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q33" s="14">
         <v>16</v>
       </c>
       <c r="R33" s="14">
-        <f>Q33/B33</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S33" s="17">
         <v>16</v>
       </c>
       <c r="T33" s="17">
-        <f>S33/B33</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8516,67 +10784,67 @@
       <c r="B34" s="2">
         <v>8</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="22">
         <v>0</v>
       </c>
-      <c r="D34" s="39">
-        <f t="shared" si="0"/>
+      <c r="D34" s="22">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E34" s="12">
         <v>7</v>
       </c>
       <c r="F34" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
       <c r="G34" s="10">
         <v>8</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I34" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="24">
         <v>8</v>
       </c>
-      <c r="J34" s="45">
-        <f t="shared" si="3"/>
+      <c r="J34" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K34" s="8">
         <v>8</v>
       </c>
       <c r="L34" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M34" s="14">
         <v>8</v>
       </c>
       <c r="N34" s="14">
-        <f>M34/B34</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O34" s="6">
         <v>8</v>
       </c>
       <c r="P34" s="6">
-        <f>O34/B34</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q34" s="14">
         <v>8</v>
       </c>
       <c r="R34" s="14">
-        <f>Q34/B34</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S34" s="17">
         <v>8</v>
       </c>
       <c r="T34" s="17">
-        <f>S34/B34</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8587,67 +10855,67 @@
       <c r="B35" s="2">
         <v>13</v>
       </c>
-      <c r="C35" s="39">
-        <v>1</v>
-      </c>
-      <c r="D35" s="39">
-        <f t="shared" si="0"/>
+      <c r="C35" s="22">
+        <v>1</v>
+      </c>
+      <c r="D35" s="22">
+        <f t="shared" si="4"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="E35" s="12">
         <v>10</v>
       </c>
       <c r="F35" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="G35" s="10">
         <v>13</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I35" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="24">
         <v>13</v>
       </c>
-      <c r="J35" s="45">
-        <f t="shared" si="3"/>
+      <c r="J35" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K35" s="8">
         <v>13</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M35" s="14">
         <v>13</v>
       </c>
       <c r="N35" s="14">
-        <f>M35/B35</f>
+        <f t="shared" ref="N35:N66" si="9">M35/B35</f>
         <v>1</v>
       </c>
       <c r="O35" s="6">
         <v>13</v>
       </c>
       <c r="P35" s="6">
-        <f>O35/B35</f>
+        <f t="shared" ref="P35:P66" si="10">O35/B35</f>
         <v>1</v>
       </c>
       <c r="Q35" s="14">
         <v>13</v>
       </c>
       <c r="R35" s="14">
-        <f>Q35/B35</f>
+        <f t="shared" ref="R35:R66" si="11">Q35/B35</f>
         <v>1</v>
       </c>
       <c r="S35" s="17">
         <v>13</v>
       </c>
       <c r="T35" s="17">
-        <f>S35/B35</f>
+        <f t="shared" ref="T35:T66" si="12">S35/B35</f>
         <v>1</v>
       </c>
     </row>
@@ -8658,67 +10926,67 @@
       <c r="B36" s="2">
         <v>45</v>
       </c>
-      <c r="C36" s="39">
+      <c r="C36" s="22">
         <v>9</v>
       </c>
-      <c r="D36" s="39">
-        <f t="shared" si="0"/>
+      <c r="D36" s="22">
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="E36" s="12">
         <v>42</v>
       </c>
       <c r="F36" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="G36" s="10">
         <v>45</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I36" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="24">
         <v>45</v>
       </c>
-      <c r="J36" s="45">
-        <f t="shared" si="3"/>
+      <c r="J36" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K36" s="8">
         <v>45</v>
       </c>
       <c r="L36" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M36" s="14">
         <v>45</v>
       </c>
       <c r="N36" s="14">
-        <f>M36/B36</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O36" s="6">
         <v>45</v>
       </c>
       <c r="P36" s="6">
-        <f>O36/B36</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q36" s="14">
         <v>45</v>
       </c>
       <c r="R36" s="14">
-        <f>Q36/B36</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S36" s="17">
         <v>45</v>
       </c>
       <c r="T36" s="17">
-        <f>S36/B36</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -8729,67 +10997,67 @@
       <c r="B37" s="2">
         <v>17</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="22">
         <v>6</v>
       </c>
-      <c r="D37" s="39">
-        <f t="shared" si="0"/>
+      <c r="D37" s="22">
+        <f t="shared" si="4"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="E37" s="12">
         <v>17</v>
       </c>
       <c r="F37" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G37" s="10">
         <v>17</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I37" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="24">
         <v>17</v>
       </c>
-      <c r="J37" s="45">
-        <f t="shared" si="3"/>
+      <c r="J37" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K37" s="8">
         <v>17</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M37" s="14">
         <v>17</v>
       </c>
       <c r="N37" s="14">
-        <f>M37/B37</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O37" s="6">
         <v>17</v>
       </c>
       <c r="P37" s="6">
-        <f>O37/B37</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q37" s="14">
         <v>17</v>
       </c>
       <c r="R37" s="14">
-        <f>Q37/B37</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S37" s="17">
         <v>17</v>
       </c>
       <c r="T37" s="17">
-        <f>S37/B37</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -8800,67 +11068,67 @@
       <c r="B38" s="2">
         <v>26</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="22">
         <v>3</v>
       </c>
-      <c r="D38" s="39">
-        <f t="shared" si="0"/>
+      <c r="D38" s="22">
+        <f t="shared" si="4"/>
         <v>0.11538461538461539</v>
       </c>
       <c r="E38" s="12">
         <v>22</v>
       </c>
       <c r="F38" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.84615384615384615</v>
       </c>
       <c r="G38" s="10">
         <v>26</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I38" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="24">
         <v>26</v>
       </c>
-      <c r="J38" s="45">
-        <f t="shared" si="3"/>
+      <c r="J38" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K38" s="8">
         <v>26</v>
       </c>
       <c r="L38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M38" s="14">
         <v>26</v>
       </c>
       <c r="N38" s="14">
-        <f>M38/B38</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O38" s="6">
         <v>26</v>
       </c>
       <c r="P38" s="6">
-        <f>O38/B38</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q38" s="14">
         <v>26</v>
       </c>
       <c r="R38" s="14">
-        <f>Q38/B38</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S38" s="17">
         <v>26</v>
       </c>
       <c r="T38" s="17">
-        <f>S38/B38</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -8871,67 +11139,67 @@
       <c r="B39" s="2">
         <v>7</v>
       </c>
-      <c r="C39" s="39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="39">
-        <f t="shared" si="0"/>
+      <c r="C39" s="22">
+        <v>1</v>
+      </c>
+      <c r="D39" s="22">
+        <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="E39" s="12">
         <v>7</v>
       </c>
       <c r="F39" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G39" s="10">
         <v>7</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I39" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="24">
         <v>7</v>
       </c>
-      <c r="J39" s="45">
-        <f t="shared" si="3"/>
+      <c r="J39" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K39" s="8">
         <v>7</v>
       </c>
       <c r="L39" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M39" s="14">
         <v>7</v>
       </c>
       <c r="N39" s="14">
-        <f>M39/B39</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O39" s="6">
         <v>7</v>
       </c>
       <c r="P39" s="6">
-        <f>O39/B39</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q39" s="14">
         <v>7</v>
       </c>
       <c r="R39" s="14">
-        <f>Q39/B39</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S39" s="17">
         <v>7</v>
       </c>
       <c r="T39" s="17">
-        <f>S39/B39</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -8942,67 +11210,67 @@
       <c r="B40" s="2">
         <v>26</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="22">
         <v>12</v>
       </c>
-      <c r="D40" s="39">
-        <f t="shared" si="0"/>
+      <c r="D40" s="22">
+        <f t="shared" si="4"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="E40" s="12">
         <v>23</v>
       </c>
       <c r="F40" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.88461538461538458</v>
       </c>
       <c r="G40" s="10">
         <v>26</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I40" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="24">
         <v>26</v>
       </c>
-      <c r="J40" s="45">
-        <f t="shared" si="3"/>
+      <c r="J40" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K40" s="8">
         <v>26</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M40" s="14">
         <v>26</v>
       </c>
       <c r="N40" s="14">
-        <f>M40/B40</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O40" s="6">
         <v>26</v>
       </c>
       <c r="P40" s="6">
-        <f>O40/B40</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q40" s="14">
         <v>26</v>
       </c>
       <c r="R40" s="14">
-        <f>Q40/B40</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S40" s="17">
         <v>26</v>
       </c>
       <c r="T40" s="17">
-        <f>S40/B40</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9013,67 +11281,67 @@
       <c r="B41" s="2">
         <v>33</v>
       </c>
-      <c r="C41" s="39">
+      <c r="C41" s="22">
         <v>7</v>
       </c>
-      <c r="D41" s="39">
-        <f t="shared" si="0"/>
+      <c r="D41" s="22">
+        <f t="shared" si="4"/>
         <v>0.21212121212121213</v>
       </c>
       <c r="E41" s="12">
         <v>29</v>
       </c>
       <c r="F41" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.87878787878787878</v>
       </c>
       <c r="G41" s="10">
         <v>33</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I41" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="24">
         <v>33</v>
       </c>
-      <c r="J41" s="45">
-        <f t="shared" si="3"/>
+      <c r="J41" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K41" s="8">
         <v>33</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M41" s="14">
         <v>33</v>
       </c>
       <c r="N41" s="14">
-        <f>M41/B41</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O41" s="6">
         <v>33</v>
       </c>
       <c r="P41" s="6">
-        <f>O41/B41</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q41" s="14">
         <v>33</v>
       </c>
       <c r="R41" s="14">
-        <f>Q41/B41</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S41" s="17">
         <v>33</v>
       </c>
       <c r="T41" s="17">
-        <f>S41/B41</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9084,67 +11352,67 @@
       <c r="B42" s="2">
         <v>14</v>
       </c>
-      <c r="C42" s="39">
+      <c r="C42" s="22">
         <v>3</v>
       </c>
-      <c r="D42" s="39">
-        <f t="shared" si="0"/>
+      <c r="D42" s="22">
+        <f t="shared" si="4"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="E42" s="12">
         <v>13</v>
       </c>
       <c r="F42" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="G42" s="10">
         <v>13</v>
       </c>
       <c r="H42" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="I42" s="45">
+      <c r="I42" s="24">
         <v>13</v>
       </c>
-      <c r="J42" s="45">
-        <f t="shared" si="3"/>
+      <c r="J42" s="24">
+        <f t="shared" si="7"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="K42" s="8">
         <v>13</v>
       </c>
       <c r="L42" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="M42" s="14">
         <v>13</v>
       </c>
       <c r="N42" s="14">
-        <f>M42/B42</f>
+        <f t="shared" si="9"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="O42" s="6">
         <v>13</v>
       </c>
       <c r="P42" s="6">
-        <f>O42/B42</f>
+        <f t="shared" si="10"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="Q42" s="14">
         <v>13</v>
       </c>
       <c r="R42" s="14">
-        <f>Q42/B42</f>
+        <f t="shared" si="11"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="S42" s="17">
         <v>13</v>
       </c>
       <c r="T42" s="17">
-        <f>S42/B42</f>
+        <f t="shared" si="12"/>
         <v>0.9285714285714286</v>
       </c>
     </row>
@@ -9155,67 +11423,67 @@
       <c r="B43" s="2">
         <v>18</v>
       </c>
-      <c r="C43" s="39">
+      <c r="C43" s="22">
         <v>2</v>
       </c>
-      <c r="D43" s="39">
-        <f t="shared" si="0"/>
+      <c r="D43" s="22">
+        <f t="shared" si="4"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="E43" s="12">
         <v>17</v>
       </c>
       <c r="F43" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="G43" s="10">
         <v>18</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I43" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="24">
         <v>18</v>
       </c>
-      <c r="J43" s="45">
-        <f t="shared" si="3"/>
+      <c r="J43" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K43" s="8">
         <v>18</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M43" s="14">
         <v>18</v>
       </c>
       <c r="N43" s="14">
-        <f>M43/B43</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O43" s="6">
         <v>18</v>
       </c>
       <c r="P43" s="6">
-        <f>O43/B43</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q43" s="14">
         <v>18</v>
       </c>
       <c r="R43" s="14">
-        <f>Q43/B43</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S43" s="17">
         <v>18</v>
       </c>
       <c r="T43" s="17">
-        <f>S43/B43</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9226,67 +11494,67 @@
       <c r="B44" s="2">
         <v>5</v>
       </c>
-      <c r="C44" s="39">
+      <c r="C44" s="22">
         <v>2</v>
       </c>
-      <c r="D44" s="39">
-        <f t="shared" si="0"/>
+      <c r="D44" s="22">
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="E44" s="12">
         <v>5</v>
       </c>
       <c r="F44" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G44" s="10">
         <v>5</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I44" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I44" s="24">
         <v>5</v>
       </c>
-      <c r="J44" s="45">
-        <f t="shared" si="3"/>
+      <c r="J44" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K44" s="8">
         <v>5</v>
       </c>
       <c r="L44" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M44" s="14">
         <v>5</v>
       </c>
       <c r="N44" s="14">
-        <f>M44/B44</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O44" s="6">
         <v>5</v>
       </c>
       <c r="P44" s="6">
-        <f>O44/B44</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q44" s="14">
         <v>5</v>
       </c>
       <c r="R44" s="14">
-        <f>Q44/B44</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S44" s="17">
         <v>5</v>
       </c>
       <c r="T44" s="17">
-        <f>S44/B44</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9297,67 +11565,67 @@
       <c r="B45" s="2">
         <v>7</v>
       </c>
-      <c r="C45" s="39">
-        <v>1</v>
-      </c>
-      <c r="D45" s="39">
-        <f t="shared" si="0"/>
+      <c r="C45" s="22">
+        <v>1</v>
+      </c>
+      <c r="D45" s="22">
+        <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="E45" s="12">
         <v>5</v>
       </c>
       <c r="F45" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="G45" s="10">
         <v>7</v>
       </c>
       <c r="H45" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I45" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I45" s="24">
         <v>7</v>
       </c>
-      <c r="J45" s="45">
-        <f t="shared" si="3"/>
+      <c r="J45" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K45" s="8">
         <v>7</v>
       </c>
       <c r="L45" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M45" s="14">
         <v>7</v>
       </c>
       <c r="N45" s="14">
-        <f>M45/B45</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O45" s="6">
         <v>7</v>
       </c>
       <c r="P45" s="6">
-        <f>O45/B45</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q45" s="14">
         <v>7</v>
       </c>
       <c r="R45" s="14">
-        <f>Q45/B45</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S45" s="17">
         <v>7</v>
       </c>
       <c r="T45" s="17">
-        <f>S45/B45</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9368,67 +11636,67 @@
       <c r="B46" s="2">
         <v>22</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="22">
         <v>3</v>
       </c>
-      <c r="D46" s="39">
-        <f t="shared" si="0"/>
+      <c r="D46" s="22">
+        <f t="shared" si="4"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="E46" s="12">
         <v>18</v>
       </c>
       <c r="F46" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="G46" s="10">
         <v>22</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I46" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="24">
         <v>22</v>
       </c>
-      <c r="J46" s="45">
-        <f t="shared" si="3"/>
+      <c r="J46" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K46" s="8">
         <v>22</v>
       </c>
       <c r="L46" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M46" s="14">
         <v>22</v>
       </c>
       <c r="N46" s="14">
-        <f>M46/B46</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O46" s="6">
         <v>22</v>
       </c>
       <c r="P46" s="6">
-        <f>O46/B46</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q46" s="14">
         <v>22</v>
       </c>
       <c r="R46" s="14">
-        <f>Q46/B46</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S46" s="17">
         <v>22</v>
       </c>
       <c r="T46" s="17">
-        <f>S46/B46</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9439,67 +11707,67 @@
       <c r="B47" s="2">
         <v>5</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="22">
         <v>3</v>
       </c>
-      <c r="D47" s="39">
-        <f t="shared" si="0"/>
+      <c r="D47" s="22">
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="E47" s="12">
         <v>4</v>
       </c>
       <c r="F47" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="G47" s="10">
         <v>5</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I47" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I47" s="24">
         <v>5</v>
       </c>
-      <c r="J47" s="45">
-        <f t="shared" si="3"/>
+      <c r="J47" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K47" s="8">
         <v>5</v>
       </c>
       <c r="L47" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M47" s="14">
         <v>5</v>
       </c>
       <c r="N47" s="14">
-        <f>M47/B47</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O47" s="6">
         <v>5</v>
       </c>
       <c r="P47" s="6">
-        <f>O47/B47</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q47" s="14">
         <v>5</v>
       </c>
       <c r="R47" s="14">
-        <f>Q47/B47</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S47" s="17">
         <v>5</v>
       </c>
       <c r="T47" s="17">
-        <f>S47/B47</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9510,67 +11778,67 @@
       <c r="B48" s="2">
         <v>7</v>
       </c>
-      <c r="C48" s="39">
-        <v>1</v>
-      </c>
-      <c r="D48" s="39">
-        <f t="shared" si="0"/>
+      <c r="C48" s="22">
+        <v>1</v>
+      </c>
+      <c r="D48" s="22">
+        <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="E48" s="12">
         <v>6</v>
       </c>
       <c r="F48" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="G48" s="10">
         <v>7</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I48" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I48" s="24">
         <v>7</v>
       </c>
-      <c r="J48" s="45">
-        <f t="shared" si="3"/>
+      <c r="J48" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K48" s="8">
         <v>7</v>
       </c>
       <c r="L48" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M48" s="14">
         <v>7</v>
       </c>
       <c r="N48" s="14">
-        <f>M48/B48</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O48" s="6">
         <v>7</v>
       </c>
       <c r="P48" s="6">
-        <f>O48/B48</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q48" s="14">
         <v>7</v>
       </c>
       <c r="R48" s="14">
-        <f>Q48/B48</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S48" s="17">
         <v>7</v>
       </c>
       <c r="T48" s="17">
-        <f>S48/B48</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9581,67 +11849,67 @@
       <c r="B49" s="2">
         <v>15</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="22">
         <v>4</v>
       </c>
-      <c r="D49" s="39">
-        <f t="shared" si="0"/>
+      <c r="D49" s="22">
+        <f t="shared" si="4"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="E49" s="12">
         <v>14</v>
       </c>
       <c r="F49" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="G49" s="10">
         <v>15</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I49" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I49" s="24">
         <v>14</v>
       </c>
-      <c r="J49" s="45">
-        <f t="shared" si="3"/>
+      <c r="J49" s="24">
+        <f t="shared" si="7"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="K49" s="8">
         <v>15</v>
       </c>
       <c r="L49" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M49" s="14">
         <v>15</v>
       </c>
       <c r="N49" s="14">
-        <f>M49/B49</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O49" s="6">
         <v>15</v>
       </c>
       <c r="P49" s="6">
-        <f>O49/B49</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q49" s="14">
         <v>15</v>
       </c>
       <c r="R49" s="14">
-        <f>Q49/B49</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S49" s="17">
         <v>14</v>
       </c>
       <c r="T49" s="17">
-        <f>S49/B49</f>
+        <f t="shared" si="12"/>
         <v>0.93333333333333335</v>
       </c>
     </row>
@@ -9652,67 +11920,67 @@
       <c r="B50" s="2">
         <v>12</v>
       </c>
-      <c r="C50" s="39">
+      <c r="C50" s="22">
         <v>8</v>
       </c>
-      <c r="D50" s="39">
-        <f t="shared" si="0"/>
+      <c r="D50" s="22">
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="E50" s="12">
         <v>12</v>
       </c>
       <c r="F50" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G50" s="10">
         <v>12</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I50" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I50" s="24">
         <v>12</v>
       </c>
-      <c r="J50" s="45">
-        <f t="shared" si="3"/>
+      <c r="J50" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K50" s="8">
         <v>12</v>
       </c>
       <c r="L50" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M50" s="14">
         <v>12</v>
       </c>
       <c r="N50" s="14">
-        <f>M50/B50</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O50" s="6">
         <v>12</v>
       </c>
       <c r="P50" s="6">
-        <f>O50/B50</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q50" s="14">
         <v>12</v>
       </c>
       <c r="R50" s="14">
-        <f>Q50/B50</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S50" s="17">
         <v>12</v>
       </c>
       <c r="T50" s="17">
-        <f>S50/B50</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9723,67 +11991,67 @@
       <c r="B51" s="2">
         <v>17</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="22">
         <v>4</v>
       </c>
-      <c r="D51" s="39">
-        <f t="shared" si="0"/>
+      <c r="D51" s="22">
+        <f t="shared" si="4"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="E51" s="12">
         <v>17</v>
       </c>
       <c r="F51" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G51" s="10">
         <v>17</v>
       </c>
       <c r="H51" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I51" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I51" s="24">
         <v>17</v>
       </c>
-      <c r="J51" s="45">
-        <f t="shared" si="3"/>
+      <c r="J51" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K51" s="8">
         <v>17</v>
       </c>
       <c r="L51" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M51" s="14">
         <v>17</v>
       </c>
       <c r="N51" s="14">
-        <f>M51/B51</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O51" s="6">
         <v>17</v>
       </c>
       <c r="P51" s="6">
-        <f>O51/B51</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q51" s="14">
         <v>1</v>
       </c>
       <c r="R51" s="14">
-        <f>Q51/B51</f>
+        <f t="shared" si="11"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="S51" s="17">
         <v>17</v>
       </c>
       <c r="T51" s="17">
-        <f>S51/B51</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9794,67 +12062,67 @@
       <c r="B52" s="2">
         <v>11</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="22">
         <v>0</v>
       </c>
-      <c r="D52" s="39">
-        <f t="shared" si="0"/>
+      <c r="D52" s="22">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E52" s="12">
         <v>8</v>
       </c>
       <c r="F52" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="G52" s="10">
         <v>11</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I52" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I52" s="24">
         <v>11</v>
       </c>
-      <c r="J52" s="45">
-        <f t="shared" si="3"/>
+      <c r="J52" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K52" s="8">
         <v>11</v>
       </c>
       <c r="L52" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M52" s="14">
         <v>11</v>
       </c>
       <c r="N52" s="14">
-        <f>M52/B52</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O52" s="6">
         <v>11</v>
       </c>
       <c r="P52" s="6">
-        <f>O52/B52</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q52" s="14">
         <v>11</v>
       </c>
       <c r="R52" s="14">
-        <f>Q52/B52</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S52" s="17">
         <v>11</v>
       </c>
       <c r="T52" s="17">
-        <f>S52/B52</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9865,67 +12133,67 @@
       <c r="B53" s="2">
         <v>8</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="22">
         <v>3</v>
       </c>
-      <c r="D53" s="39">
-        <f t="shared" si="0"/>
+      <c r="D53" s="22">
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="E53" s="12">
         <v>7</v>
       </c>
       <c r="F53" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
       <c r="G53" s="10">
         <v>7</v>
       </c>
       <c r="H53" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.875</v>
       </c>
-      <c r="I53" s="45">
+      <c r="I53" s="24">
         <v>8</v>
       </c>
-      <c r="J53" s="45">
-        <f t="shared" si="3"/>
+      <c r="J53" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K53" s="8">
         <v>8</v>
       </c>
       <c r="L53" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M53" s="14">
         <v>7</v>
       </c>
       <c r="N53" s="14">
-        <f>M53/B53</f>
+        <f t="shared" si="9"/>
         <v>0.875</v>
       </c>
       <c r="O53" s="6">
         <v>8</v>
       </c>
       <c r="P53" s="6">
-        <f>O53/B53</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q53" s="14">
         <v>8</v>
       </c>
       <c r="R53" s="14">
-        <f>Q53/B53</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S53" s="17">
         <v>8</v>
       </c>
       <c r="T53" s="17">
-        <f>S53/B53</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9936,67 +12204,67 @@
       <c r="B54" s="2">
         <v>37</v>
       </c>
-      <c r="C54" s="39">
+      <c r="C54" s="22">
         <v>13</v>
       </c>
-      <c r="D54" s="39">
-        <f t="shared" si="0"/>
+      <c r="D54" s="22">
+        <f t="shared" si="4"/>
         <v>0.35135135135135137</v>
       </c>
       <c r="E54" s="12">
         <v>32</v>
       </c>
       <c r="F54" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.86486486486486491</v>
       </c>
       <c r="G54" s="10">
         <v>37</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I54" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I54" s="24">
         <v>37</v>
       </c>
-      <c r="J54" s="45">
-        <f t="shared" si="3"/>
+      <c r="J54" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K54" s="8">
         <v>37</v>
       </c>
       <c r="L54" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M54" s="14">
         <v>37</v>
       </c>
       <c r="N54" s="14">
-        <f>M54/B54</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O54" s="6">
         <v>37</v>
       </c>
       <c r="P54" s="6">
-        <f>O54/B54</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q54" s="14">
         <v>37</v>
       </c>
       <c r="R54" s="14">
-        <f>Q54/B54</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S54" s="17">
         <v>37</v>
       </c>
       <c r="T54" s="17">
-        <f>S54/B54</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -10007,67 +12275,67 @@
       <c r="B55" s="2">
         <v>18</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="22">
         <v>3</v>
       </c>
-      <c r="D55" s="39">
-        <f t="shared" si="0"/>
+      <c r="D55" s="22">
+        <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E55" s="12">
         <v>18</v>
       </c>
       <c r="F55" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G55" s="10">
         <v>18</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I55" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I55" s="24">
         <v>18</v>
       </c>
-      <c r="J55" s="45">
-        <f t="shared" si="3"/>
+      <c r="J55" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K55" s="8">
         <v>18</v>
       </c>
       <c r="L55" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M55" s="14">
         <v>18</v>
       </c>
       <c r="N55" s="14">
-        <f>M55/B55</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O55" s="6">
         <v>18</v>
       </c>
       <c r="P55" s="6">
-        <f>O55/B55</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q55" s="14">
         <v>18</v>
       </c>
       <c r="R55" s="14">
-        <f>Q55/B55</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S55" s="17">
         <v>18</v>
       </c>
       <c r="T55" s="17">
-        <f>S55/B55</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -10078,67 +12346,67 @@
       <c r="B56" s="2">
         <v>8</v>
       </c>
-      <c r="C56" s="39">
+      <c r="C56" s="22">
         <v>4</v>
       </c>
-      <c r="D56" s="39">
-        <f t="shared" si="0"/>
+      <c r="D56" s="22">
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="E56" s="12">
         <v>8</v>
       </c>
       <c r="F56" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G56" s="10">
         <v>8</v>
       </c>
       <c r="H56" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I56" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I56" s="24">
         <v>8</v>
       </c>
-      <c r="J56" s="45">
-        <f t="shared" si="3"/>
+      <c r="J56" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K56" s="8">
         <v>8</v>
       </c>
       <c r="L56" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M56" s="14">
         <v>8</v>
       </c>
       <c r="N56" s="14">
-        <f>M56/B56</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O56" s="6">
         <v>8</v>
       </c>
       <c r="P56" s="6">
-        <f>O56/B56</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q56" s="14">
         <v>8</v>
       </c>
       <c r="R56" s="14">
-        <f>Q56/B56</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S56" s="17">
         <v>8</v>
       </c>
       <c r="T56" s="17">
-        <f>S56/B56</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -10149,67 +12417,67 @@
       <c r="B57" s="2">
         <v>10</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="22">
         <v>4</v>
       </c>
-      <c r="D57" s="39">
-        <f t="shared" si="0"/>
+      <c r="D57" s="22">
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="E57" s="12">
         <v>9</v>
       </c>
       <c r="F57" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="G57" s="10">
         <v>10</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I57" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I57" s="24">
         <v>10</v>
       </c>
-      <c r="J57" s="45">
-        <f t="shared" si="3"/>
+      <c r="J57" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K57" s="8">
         <v>10</v>
       </c>
       <c r="L57" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M57" s="14">
         <v>10</v>
       </c>
       <c r="N57" s="14">
-        <f>M57/B57</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O57" s="6">
         <v>10</v>
       </c>
       <c r="P57" s="6">
-        <f>O57/B57</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q57" s="14">
         <v>10</v>
       </c>
       <c r="R57" s="14">
-        <f>Q57/B57</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S57" s="17">
         <v>10</v>
       </c>
       <c r="T57" s="17">
-        <f>S57/B57</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -10220,67 +12488,67 @@
       <c r="B58" s="2">
         <v>18</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="22">
         <v>8</v>
       </c>
-      <c r="D58" s="39">
-        <f t="shared" si="0"/>
+      <c r="D58" s="22">
+        <f t="shared" si="4"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="E58" s="12">
         <v>18</v>
       </c>
       <c r="F58" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G58" s="10">
         <v>18</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I58" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I58" s="24">
         <v>18</v>
       </c>
-      <c r="J58" s="45">
-        <f t="shared" si="3"/>
+      <c r="J58" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K58" s="8">
         <v>18</v>
       </c>
       <c r="L58" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M58" s="14">
         <v>18</v>
       </c>
       <c r="N58" s="14">
-        <f>M58/B58</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O58" s="6">
         <v>18</v>
       </c>
       <c r="P58" s="6">
-        <f>O58/B58</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q58" s="14">
         <v>18</v>
       </c>
       <c r="R58" s="14">
-        <f>Q58/B58</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S58" s="17">
         <v>18</v>
       </c>
       <c r="T58" s="17">
-        <f>S58/B58</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -10291,67 +12559,67 @@
       <c r="B59" s="2">
         <v>129</v>
       </c>
-      <c r="C59" s="39">
+      <c r="C59" s="22">
         <v>43</v>
       </c>
-      <c r="D59" s="39">
-        <f t="shared" si="0"/>
+      <c r="D59" s="22">
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E59" s="12">
         <v>121</v>
       </c>
       <c r="F59" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.93798449612403101</v>
       </c>
       <c r="G59" s="10">
         <v>129</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I59" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I59" s="24">
         <v>127</v>
       </c>
-      <c r="J59" s="45">
-        <f t="shared" si="3"/>
+      <c r="J59" s="24">
+        <f t="shared" si="7"/>
         <v>0.98449612403100772</v>
       </c>
       <c r="K59" s="8">
         <v>128</v>
       </c>
       <c r="L59" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99224806201550386</v>
       </c>
       <c r="M59" s="14">
         <v>127</v>
       </c>
       <c r="N59" s="14">
-        <f>M59/B59</f>
+        <f t="shared" si="9"/>
         <v>0.98449612403100772</v>
       </c>
       <c r="O59" s="6">
         <v>127</v>
       </c>
       <c r="P59" s="6">
-        <f>O59/B59</f>
+        <f t="shared" si="10"/>
         <v>0.98449612403100772</v>
       </c>
       <c r="Q59" s="14">
         <v>127</v>
       </c>
       <c r="R59" s="14">
-        <f>Q59/B59</f>
+        <f t="shared" si="11"/>
         <v>0.98449612403100772</v>
       </c>
       <c r="S59" s="17">
         <v>128</v>
       </c>
       <c r="T59" s="17">
-        <f>S59/B59</f>
+        <f t="shared" si="12"/>
         <v>0.99224806201550386</v>
       </c>
     </row>
@@ -10362,67 +12630,67 @@
       <c r="B60" s="2">
         <v>17</v>
       </c>
-      <c r="C60" s="39">
+      <c r="C60" s="22">
         <v>4</v>
       </c>
-      <c r="D60" s="39">
-        <f t="shared" si="0"/>
+      <c r="D60" s="22">
+        <f t="shared" si="4"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="E60" s="12">
         <v>13</v>
       </c>
       <c r="F60" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="G60" s="10">
         <v>17</v>
       </c>
       <c r="H60" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I60" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I60" s="24">
         <v>17</v>
       </c>
-      <c r="J60" s="45">
-        <f t="shared" si="3"/>
+      <c r="J60" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K60" s="8">
         <v>17</v>
       </c>
       <c r="L60" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M60" s="14">
         <v>17</v>
       </c>
       <c r="N60" s="14">
-        <f>M60/B60</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O60" s="6">
         <v>17</v>
       </c>
       <c r="P60" s="6">
-        <f>O60/B60</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q60" s="14">
         <v>17</v>
       </c>
       <c r="R60" s="14">
-        <f>Q60/B60</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S60" s="17">
         <v>17</v>
       </c>
       <c r="T60" s="17">
-        <f>S60/B60</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -10433,67 +12701,67 @@
       <c r="B61" s="2">
         <v>34</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="22">
         <v>12</v>
       </c>
-      <c r="D61" s="39">
-        <f t="shared" si="0"/>
+      <c r="D61" s="22">
+        <f t="shared" si="4"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="E61" s="12">
         <v>32</v>
       </c>
       <c r="F61" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="G61" s="10">
         <v>34</v>
       </c>
       <c r="H61" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I61" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I61" s="24">
         <v>33</v>
       </c>
-      <c r="J61" s="45">
-        <f t="shared" si="3"/>
+      <c r="J61" s="24">
+        <f t="shared" si="7"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="K61" s="8">
         <v>34</v>
       </c>
       <c r="L61" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M61" s="14">
         <v>34</v>
       </c>
       <c r="N61" s="14">
-        <f>M61/B61</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O61" s="6">
         <v>34</v>
       </c>
       <c r="P61" s="6">
-        <f>O61/B61</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q61" s="14">
         <v>34</v>
       </c>
       <c r="R61" s="14">
-        <f>Q61/B61</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S61" s="17">
         <v>34</v>
       </c>
       <c r="T61" s="17">
-        <f>S61/B61</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -10504,123 +12772,133 @@
       <c r="B62" s="2">
         <v>9</v>
       </c>
-      <c r="C62" s="39">
-        <v>1</v>
-      </c>
-      <c r="D62" s="39">
-        <f t="shared" si="0"/>
+      <c r="C62" s="22">
+        <v>1</v>
+      </c>
+      <c r="D62" s="22">
+        <f t="shared" si="4"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="E62" s="12">
         <v>5</v>
       </c>
       <c r="F62" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="G62" s="10">
         <v>9</v>
       </c>
       <c r="H62" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I62" s="45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I62" s="24">
         <v>9</v>
       </c>
-      <c r="J62" s="45">
-        <f t="shared" si="3"/>
+      <c r="J62" s="24">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K62" s="8">
         <v>9</v>
       </c>
       <c r="L62" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M62" s="14">
         <v>9</v>
       </c>
       <c r="N62" s="14">
-        <f>M62/B62</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O62" s="6">
         <v>9</v>
       </c>
       <c r="P62" s="6">
-        <f>O62/B62</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q62" s="14">
         <v>9</v>
       </c>
       <c r="R62" s="14">
-        <f>Q62/B62</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S62" s="17">
         <v>9</v>
       </c>
       <c r="T62" s="17">
-        <f>S62/B62</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21">
-        <f xml:space="preserve"> SUM(D3:D62)/COUNTA(D3:D62)</f>
-        <v>0.29727759154739403</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21">
-        <f t="shared" ref="E63:T63" si="5" xml:space="preserve"> SUM(F3:F62)/COUNTA(F3:F62)</f>
-        <v>0.89842241895518904</v>
-      </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21">
-        <f xml:space="preserve"> SUM(H3:H62)/COUNTA(H3:H62)</f>
-        <v>0.99575749906388922</v>
-      </c>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21">
-        <f t="shared" ref="I63:T63" si="6" xml:space="preserve"> SUM(J3:J62)/COUNTA(J3:J62)</f>
-        <v>0.99290390683470664</v>
-      </c>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21">
-        <f t="shared" ref="K63:T63" si="7" xml:space="preserve"> SUM(L3:L62)/COUNTA(L3:L62)</f>
-        <v>0.99335590746446079</v>
-      </c>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21">
-        <f t="shared" ref="M63:T63" si="8" xml:space="preserve"> SUM(N3:N62)/COUNTA(N3:N62)</f>
-        <v>0.9949911947585065</v>
-      </c>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21">
-        <f t="shared" ref="O63:T63" si="9" xml:space="preserve"> SUM(P3:P62)/COUNTA(P3:P62)</f>
-        <v>0.99669693810114812</v>
-      </c>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21">
-        <f t="shared" ref="Q63:T63" si="10" xml:space="preserve"> SUM(R3:R62)/COUNTA(R3:R62)</f>
-        <v>0.98207026245174711</v>
-      </c>
-      <c r="R63" s="21"/>
-      <c r="S63" s="21">
-        <f t="shared" ref="S63:T63" si="11" xml:space="preserve"> SUM(T3:T62)/COUNTA(T3:T62)</f>
-        <v>0.99529353220951733</v>
-      </c>
-      <c r="T63" s="21"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25">
+        <f xml:space="preserve"> ROUND(SUM(D3:D62)/COUNTA(D3:D62),4)</f>
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25">
+        <f t="shared" ref="E63:T63" si="13" xml:space="preserve"> ROUND(SUM(F3:F62)/COUNTA(F3:F62),4)</f>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25">
+        <f t="shared" ref="G63:T63" si="14" xml:space="preserve"> ROUND(SUM(H3:H62)/COUNTA(H3:H62),4)</f>
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25">
+        <f t="shared" ref="I63:T63" si="15" xml:space="preserve"> ROUND(SUM(J3:J62)/COUNTA(J3:J62),4)</f>
+        <v>0.9929</v>
+      </c>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25">
+        <f t="shared" ref="K63:T63" si="16" xml:space="preserve"> ROUND(SUM(L3:L62)/COUNTA(L3:L62),4)</f>
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25">
+        <f t="shared" ref="M63:T63" si="17" xml:space="preserve"> ROUND(SUM(N3:N62)/COUNTA(N3:N62),4)</f>
+        <v>0.995</v>
+      </c>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25">
+        <f t="shared" ref="O63:T63" si="18" xml:space="preserve"> ROUND(SUM(P3:P62)/COUNTA(P3:P62),4)</f>
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25">
+        <f t="shared" ref="Q63:T63" si="19" xml:space="preserve"> ROUND(SUM(R3:R62)/COUNTA(R3:R62),4)</f>
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25">
+        <f t="shared" ref="S63:T63" si="20" xml:space="preserve"> ROUND(SUM(T3:T62)/COUNTA(T3:T62),4)</f>
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="T63" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="E63:F63"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
@@ -10632,18 +12910,9 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="E63:F63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>